--- a/doc/AB2 vs Berkeley Madonnaxlsx.xlsx
+++ b/doc/AB2 vs Berkeley Madonnaxlsx.xlsx
@@ -7,15 +7,17 @@
     <workbookView xWindow="240" yWindow="30" windowWidth="28380" windowHeight="14445" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Kondensator dt=0.01" sheetId="1" r:id="rId1"/>
+    <sheet name="Kondensator dt=0.1" sheetId="3" r:id="rId2"/>
+    <sheet name="Pendel_kombination dt=0.01" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="kondensator_table" localSheetId="0">Tabelle1!$B$2:$F$503</definedName>
-    <definedName name="pendel_kombination_table" localSheetId="1">Tabelle2!$A$2:$I$503</definedName>
-    <definedName name="sim_kondensator" localSheetId="0">Tabelle1!$I$3:$Q$504</definedName>
-    <definedName name="sim_pendel_komb" localSheetId="1">Tabelle2!$K$2:$T$503</definedName>
+    <definedName name="kondensator_table" localSheetId="0">'Kondensator dt=0.01'!$B$2:$F$503</definedName>
+    <definedName name="kondensator_table2" localSheetId="1">'Kondensator dt=0.1'!$B$2:$F$53</definedName>
+    <definedName name="pendel_kombination_table" localSheetId="2">'Pendel_kombination dt=0.01'!$A$2:$I$503</definedName>
+    <definedName name="sim_kondensator" localSheetId="0">'Kondensator dt=0.01'!$I$3:$Q$504</definedName>
+    <definedName name="sim_kondensator2" localSheetId="1">'Kondensator dt=0.1'!$H$2:$P$53</definedName>
+    <definedName name="sim_pendel_komb" localSheetId="2">'Pendel_kombination dt=0.01'!$K$2:$T$503</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -34,7 +36,18 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="pendel_kombination table" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="2" name="kondensator table2" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\bachi\Desktop\kondensator table2.txt" thousands="'">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="pendel_kombination table" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\bachi\Desktop\pendel_kombination table.txt" thousands="'">
       <textFields count="9">
         <textField/>
@@ -49,7 +62,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="sim_kondensator" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="4" name="sim_kondensator" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\bachi\Desktop\sim_kondensator.csv" thousands="'" tab="0" semicolon="1">
       <textFields count="9">
         <textField/>
@@ -64,7 +77,22 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="sim_pendel_komb" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="5" name="sim_kondensator2" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\bachi\Desktop\sim_kondensator2.csv" thousands="'" semicolon="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="sim_pendel_komb" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\bachi\Desktop\sim_pendel_komb.csv" thousands="'" semicolon="1">
       <textFields count="20">
         <textField/>
@@ -94,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>TIME</t>
   </si>
@@ -200,13 +228,19 @@
   <si>
     <t>diff dv1</t>
   </si>
+  <si>
+    <t>diff UC</t>
+  </si>
+  <si>
+    <t>diff UE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -237,9 +271,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -250,7 +285,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sim_kondensator" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sim_kondensator" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -258,11 +293,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sim_pendel_komb" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sim_kondensator2" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pendel_kombination table" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="kondensator table2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sim_pendel_komb" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pendel_kombination table" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29191,10 +29234,2586 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:V503"/>
+  <dimension ref="B2:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="X12" sqref="X12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1250</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>9</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O3">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>F3-M3</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <f>E3-K3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6.6734599999999998E-4</v>
+      </c>
+      <c r="D4">
+        <v>6.1733100000000004E-3</v>
+      </c>
+      <c r="E4">
+        <v>7.7166399999999999</v>
+      </c>
+      <c r="F4">
+        <v>1.2833600000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+      <c r="I4">
+        <v>6.673464E-4</v>
+      </c>
+      <c r="J4">
+        <v>1250</v>
+      </c>
+      <c r="K4">
+        <v>7.7137010000000004</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>1.2862990000000001</v>
+      </c>
+      <c r="N4">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O4">
+        <v>6.1709599999999996E-3</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" ref="Q4:Q53" si="0">F4-M4</f>
+        <v>-2.9390000000000249E-3</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" ref="R4:R53" si="1">E4-K4</f>
+        <v>2.9389999999995808E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>1.23953E-3</v>
+      </c>
+      <c r="D5">
+        <v>5.2930299999999998E-3</v>
+      </c>
+      <c r="E5">
+        <v>6.6162799999999997</v>
+      </c>
+      <c r="F5">
+        <v>2.3837199999999998</v>
+      </c>
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+      <c r="I5">
+        <v>1.239532E-3</v>
+      </c>
+      <c r="J5">
+        <v>1250</v>
+      </c>
+      <c r="K5">
+        <v>6.6137620000000004</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>2.3862380000000001</v>
+      </c>
+      <c r="N5">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O5">
+        <v>5.2910099999999996E-3</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.5180000000002423E-3</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5179999999993541E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6">
+        <v>0.3</v>
+      </c>
+      <c r="C6">
+        <v>1.7301300000000001E-3</v>
+      </c>
+      <c r="D6">
+        <v>4.5382699999999996E-3</v>
+      </c>
+      <c r="E6">
+        <v>5.6728300000000003</v>
+      </c>
+      <c r="F6">
+        <v>3.3271700000000002</v>
+      </c>
+      <c r="H6">
+        <v>0.3</v>
+      </c>
+      <c r="I6">
+        <v>1.7301269999999999E-3</v>
+      </c>
+      <c r="J6">
+        <v>1250</v>
+      </c>
+      <c r="K6">
+        <v>5.6706700000000003</v>
+      </c>
+      <c r="L6">
+        <v>9</v>
+      </c>
+      <c r="M6">
+        <v>3.3293300000000001</v>
+      </c>
+      <c r="N6">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O6">
+        <v>4.5365359999999999E-3</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.1599999999999397E-3</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1599999999999397E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7">
+        <v>0.4</v>
+      </c>
+      <c r="C7">
+        <v>2.1507700000000002E-3</v>
+      </c>
+      <c r="D7">
+        <v>3.89113E-3</v>
+      </c>
+      <c r="E7">
+        <v>4.8639099999999997</v>
+      </c>
+      <c r="F7">
+        <v>4.1360900000000003</v>
+      </c>
+      <c r="H7">
+        <v>0.4</v>
+      </c>
+      <c r="I7">
+        <v>2.1507649999999998E-3</v>
+      </c>
+      <c r="J7">
+        <v>1250</v>
+      </c>
+      <c r="K7">
+        <v>4.8620590000000004</v>
+      </c>
+      <c r="L7">
+        <v>9</v>
+      </c>
+      <c r="M7">
+        <v>4.1379409999999996</v>
+      </c>
+      <c r="N7">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O7">
+        <v>3.889647E-3</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.8509999999993809E-3</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8509999999993809E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>2.5114199999999999E-3</v>
+      </c>
+      <c r="D8">
+        <v>3.3362700000000001E-3</v>
+      </c>
+      <c r="E8">
+        <v>4.1703400000000004</v>
+      </c>
+      <c r="F8">
+        <v>4.8296599999999996</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="I8">
+        <v>2.5114220000000001E-3</v>
+      </c>
+      <c r="J8">
+        <v>1250</v>
+      </c>
+      <c r="K8">
+        <v>4.1687519999999996</v>
+      </c>
+      <c r="L8">
+        <v>9</v>
+      </c>
+      <c r="M8">
+        <v>4.8312480000000004</v>
+      </c>
+      <c r="N8">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O8">
+        <v>3.3350020000000001E-3</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.588000000000811E-3</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.588000000000811E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9">
+        <v>0.6</v>
+      </c>
+      <c r="C9">
+        <v>2.8206500000000001E-3</v>
+      </c>
+      <c r="D9">
+        <v>2.86054E-3</v>
+      </c>
+      <c r="E9">
+        <v>3.5756700000000001</v>
+      </c>
+      <c r="F9">
+        <v>5.4243300000000003</v>
+      </c>
+      <c r="H9">
+        <v>0.6</v>
+      </c>
+      <c r="I9">
+        <v>2.8206519999999999E-3</v>
+      </c>
+      <c r="J9">
+        <v>1250</v>
+      </c>
+      <c r="K9">
+        <v>3.5743070000000001</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <v>5.4256929999999999</v>
+      </c>
+      <c r="N9">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O9">
+        <v>2.8594459999999999E-3</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.362999999999559E-3</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3630000000000031E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10">
+        <v>0.7</v>
+      </c>
+      <c r="C10">
+        <v>3.0857900000000001E-3</v>
+      </c>
+      <c r="D10">
+        <v>2.4526399999999999E-3</v>
+      </c>
+      <c r="E10">
+        <v>3.0657999999999999</v>
+      </c>
+      <c r="F10">
+        <v>5.9341999999999997</v>
+      </c>
+      <c r="H10">
+        <v>0.7</v>
+      </c>
+      <c r="I10">
+        <v>3.0857860000000001E-3</v>
+      </c>
+      <c r="J10">
+        <v>1250</v>
+      </c>
+      <c r="K10">
+        <v>3.0646270000000002</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>5.9353730000000002</v>
+      </c>
+      <c r="N10">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O10">
+        <v>2.451702E-3</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.1730000000005347E-3</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1729999999996465E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11">
+        <v>0.8</v>
+      </c>
+      <c r="C11">
+        <v>3.3131100000000002E-3</v>
+      </c>
+      <c r="D11">
+        <v>2.1029E-3</v>
+      </c>
+      <c r="E11">
+        <v>2.6286299999999998</v>
+      </c>
+      <c r="F11">
+        <v>6.3713699999999998</v>
+      </c>
+      <c r="H11">
+        <v>0.8</v>
+      </c>
+      <c r="I11">
+        <v>3.3131139999999998E-3</v>
+      </c>
+      <c r="J11">
+        <v>1250</v>
+      </c>
+      <c r="K11">
+        <v>2.6276259999999998</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>6.3723739999999998</v>
+      </c>
+      <c r="N11">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O11">
+        <v>2.1021009999999999E-3</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.0040000000000049E-3</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0040000000000049E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12">
+        <v>0.9</v>
+      </c>
+      <c r="C12">
+        <v>3.5080300000000001E-3</v>
+      </c>
+      <c r="D12">
+        <v>1.8030399999999999E-3</v>
+      </c>
+      <c r="E12">
+        <v>2.2538</v>
+      </c>
+      <c r="F12">
+        <v>6.7462</v>
+      </c>
+      <c r="H12">
+        <v>0.9</v>
+      </c>
+      <c r="I12">
+        <v>3.5080250000000001E-3</v>
+      </c>
+      <c r="J12">
+        <v>1250</v>
+      </c>
+      <c r="K12">
+        <v>2.2529379999999999</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>6.7470619999999997</v>
+      </c>
+      <c r="N12">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O12">
+        <v>1.802351E-3</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.6199999999969634E-4</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="1"/>
+        <v>8.6200000000014043E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>3.6751399999999999E-3</v>
+      </c>
+      <c r="D13">
+        <v>1.54593E-3</v>
+      </c>
+      <c r="E13">
+        <v>1.93242</v>
+      </c>
+      <c r="F13">
+        <v>7.0675800000000004</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>3.675144E-3</v>
+      </c>
+      <c r="J13">
+        <v>1250</v>
+      </c>
+      <c r="K13">
+        <v>1.9316800000000001</v>
+      </c>
+      <c r="L13">
+        <v>9</v>
+      </c>
+      <c r="M13">
+        <v>7.0683199999999999</v>
+      </c>
+      <c r="N13">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O13">
+        <v>1.5453439999999999E-3</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.3999999999951882E-4</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="1"/>
+        <v>7.3999999999996291E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C14">
+        <v>3.8184299999999998E-3</v>
+      </c>
+      <c r="D14">
+        <v>1.3254899999999999E-3</v>
+      </c>
+      <c r="E14">
+        <v>1.65686</v>
+      </c>
+      <c r="F14">
+        <v>7.34314</v>
+      </c>
+      <c r="H14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I14">
+        <v>3.8184310000000002E-3</v>
+      </c>
+      <c r="J14">
+        <v>1250</v>
+      </c>
+      <c r="K14">
+        <v>1.656231</v>
+      </c>
+      <c r="L14">
+        <v>9</v>
+      </c>
+      <c r="M14">
+        <v>7.343769</v>
+      </c>
+      <c r="N14">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O14">
+        <v>1.3249850000000001E-3</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.2899999999999068E-4</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2899999999999068E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15">
+        <v>1.2</v>
+      </c>
+      <c r="C15">
+        <v>3.9412900000000001E-3</v>
+      </c>
+      <c r="D15">
+        <v>1.13648E-3</v>
+      </c>
+      <c r="E15">
+        <v>1.4206000000000001</v>
+      </c>
+      <c r="F15">
+        <v>7.5793999999999997</v>
+      </c>
+      <c r="H15">
+        <v>1.2</v>
+      </c>
+      <c r="I15">
+        <v>3.9412869999999999E-3</v>
+      </c>
+      <c r="J15">
+        <v>1250</v>
+      </c>
+      <c r="K15">
+        <v>1.4200600000000001</v>
+      </c>
+      <c r="L15">
+        <v>9</v>
+      </c>
+      <c r="M15">
+        <v>7.5799399999999997</v>
+      </c>
+      <c r="N15">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O15">
+        <v>1.136048E-3</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.3999999999998494E-4</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3999999999998494E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16">
+        <v>1.3</v>
+      </c>
+      <c r="C16">
+        <v>4.0466199999999999E-3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>9.7442399999999999E-4</v>
+      </c>
+      <c r="E16">
+        <v>1.2180299999999999</v>
+      </c>
+      <c r="F16">
+        <v>7.7819700000000003</v>
+      </c>
+      <c r="H16">
+        <v>1.3</v>
+      </c>
+      <c r="I16">
+        <v>4.0466240000000004E-3</v>
+      </c>
+      <c r="J16">
+        <v>1250</v>
+      </c>
+      <c r="K16">
+        <v>1.2175659999999999</v>
+      </c>
+      <c r="L16">
+        <v>9</v>
+      </c>
+      <c r="M16">
+        <v>7.7824340000000003</v>
+      </c>
+      <c r="N16">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O16">
+        <v>9.7405300000000001E-4</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.6400000000001995E-4</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6400000000001995E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17">
+        <v>1.4</v>
+      </c>
+      <c r="C17">
+        <v>4.1369400000000004E-3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>8.3547600000000004E-4</v>
+      </c>
+      <c r="E17">
+        <v>1.04434</v>
+      </c>
+      <c r="F17">
+        <v>7.95566</v>
+      </c>
+      <c r="H17">
+        <v>1.4</v>
+      </c>
+      <c r="I17">
+        <v>4.1369409999999999E-3</v>
+      </c>
+      <c r="J17">
+        <v>1250</v>
+      </c>
+      <c r="K17">
+        <v>1.043947</v>
+      </c>
+      <c r="L17">
+        <v>9</v>
+      </c>
+      <c r="M17">
+        <v>7.9560529999999998</v>
+      </c>
+      <c r="N17">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O17">
+        <v>8.3515749999999995E-4</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.9299999999986568E-4</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9300000000008772E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18">
+        <v>1.5</v>
+      </c>
+      <c r="C18">
+        <v>4.2143800000000002E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7.16341E-4</v>
+      </c>
+      <c r="E18">
+        <v>0.89542600000000006</v>
+      </c>
+      <c r="F18">
+        <v>8.1045700000000007</v>
+      </c>
+      <c r="H18">
+        <v>1.5</v>
+      </c>
+      <c r="I18">
+        <v>4.2143780000000004E-3</v>
+      </c>
+      <c r="J18">
+        <v>1250</v>
+      </c>
+      <c r="K18">
+        <v>0.89508489999999996</v>
+      </c>
+      <c r="L18">
+        <v>9</v>
+      </c>
+      <c r="M18">
+        <v>8.1049150000000001</v>
+      </c>
+      <c r="N18">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O18">
+        <v>7.1606790000000001E-4</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.4499999999937359E-4</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4110000000009411E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19">
+        <v>1.6</v>
+      </c>
+      <c r="C19">
+        <v>4.2807699999999997E-3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>6.1419399999999998E-4</v>
+      </c>
+      <c r="E19">
+        <v>0.76774299999999995</v>
+      </c>
+      <c r="F19">
+        <v>8.2322600000000001</v>
+      </c>
+      <c r="H19">
+        <v>1.6</v>
+      </c>
+      <c r="I19">
+        <v>4.2807740000000002E-3</v>
+      </c>
+      <c r="J19">
+        <v>1250</v>
+      </c>
+      <c r="K19">
+        <v>0.76744990000000002</v>
+      </c>
+      <c r="L19">
+        <v>9</v>
+      </c>
+      <c r="M19">
+        <v>8.2325499999999998</v>
+      </c>
+      <c r="N19">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O19">
+        <v>6.1395999999999998E-4</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.899999999996794E-4</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9309999999993508E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20">
+        <v>1.7</v>
+      </c>
+      <c r="C20">
+        <v>4.3376999999999999E-3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5.2661299999999999E-4</v>
+      </c>
+      <c r="E20">
+        <v>0.65826600000000002</v>
+      </c>
+      <c r="F20">
+        <v>8.3417300000000001</v>
+      </c>
+      <c r="H20">
+        <v>1.7</v>
+      </c>
+      <c r="I20">
+        <v>4.3377019999999997E-3</v>
+      </c>
+      <c r="J20">
+        <v>1250</v>
+      </c>
+      <c r="K20">
+        <v>0.65801509999999996</v>
+      </c>
+      <c r="L20">
+        <v>9</v>
+      </c>
+      <c r="M20">
+        <v>8.3419849999999993</v>
+      </c>
+      <c r="N20">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O20">
+        <v>5.2641210000000001E-4</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.5499999999922807E-4</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5090000000005386E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21">
+        <v>1.8</v>
+      </c>
+      <c r="C21">
+        <v>4.3865099999999997E-3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4.5152000000000001E-4</v>
+      </c>
+      <c r="E21">
+        <v>0.56440000000000001</v>
+      </c>
+      <c r="F21">
+        <v>8.4356000000000009</v>
+      </c>
+      <c r="H21">
+        <v>1.8</v>
+      </c>
+      <c r="I21">
+        <v>4.3865120000000004E-3</v>
+      </c>
+      <c r="J21">
+        <v>1250</v>
+      </c>
+      <c r="K21">
+        <v>0.56418520000000005</v>
+      </c>
+      <c r="L21">
+        <v>9</v>
+      </c>
+      <c r="M21">
+        <v>8.4358149999999998</v>
+      </c>
+      <c r="N21">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O21">
+        <v>4.5134819999999998E-4</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.1499999999896602E-4</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1479999999995947E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22">
+        <v>1.9</v>
+      </c>
+      <c r="C22">
+        <v>4.4283600000000001E-3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3.87136E-4</v>
+      </c>
+      <c r="E22">
+        <v>0.48391899999999999</v>
+      </c>
+      <c r="F22">
+        <v>8.5160800000000005</v>
+      </c>
+      <c r="H22">
+        <v>1.9</v>
+      </c>
+      <c r="I22">
+        <v>4.4283619999999999E-3</v>
+      </c>
+      <c r="J22">
+        <v>1250</v>
+      </c>
+      <c r="K22">
+        <v>0.48373500000000003</v>
+      </c>
+      <c r="L22">
+        <v>9</v>
+      </c>
+      <c r="M22">
+        <v>8.5162650000000006</v>
+      </c>
+      <c r="N22">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O22">
+        <v>3.86988E-4</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.8500000000010175E-4</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8399999999996197E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>4.4642400000000004E-3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3.3193200000000001E-4</v>
+      </c>
+      <c r="E23">
+        <v>0.41491499999999998</v>
+      </c>
+      <c r="F23">
+        <v>8.5850799999999996</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>4.464244E-3</v>
+      </c>
+      <c r="J23">
+        <v>1250</v>
+      </c>
+      <c r="K23">
+        <v>0.41475659999999998</v>
+      </c>
+      <c r="L23">
+        <v>9</v>
+      </c>
+      <c r="M23">
+        <v>8.5852430000000002</v>
+      </c>
+      <c r="N23">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O23">
+        <v>3.3180530000000001E-4</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.6300000000057935E-4</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5840000000000298E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24">
+        <v>2.1</v>
+      </c>
+      <c r="C24">
+        <v>4.4950099999999998E-3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2.8459999999999998E-4</v>
+      </c>
+      <c r="E24">
+        <v>0.35575000000000001</v>
+      </c>
+      <c r="F24">
+        <v>8.6442499999999995</v>
+      </c>
+      <c r="H24">
+        <v>2.1</v>
+      </c>
+      <c r="I24">
+        <v>4.4950099999999998E-3</v>
+      </c>
+      <c r="J24">
+        <v>1250</v>
+      </c>
+      <c r="K24">
+        <v>0.35561419999999999</v>
+      </c>
+      <c r="L24">
+        <v>9</v>
+      </c>
+      <c r="M24">
+        <v>8.6443860000000008</v>
+      </c>
+      <c r="N24">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O24">
+        <v>2.8449140000000003E-4</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.3600000000124624E-4</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3580000000001924E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C25">
+        <v>4.5213900000000001E-3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2.4401699999999999E-4</v>
+      </c>
+      <c r="E25">
+        <v>0.30502200000000002</v>
+      </c>
+      <c r="F25">
+        <v>8.6949799999999993</v>
+      </c>
+      <c r="H25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I25">
+        <v>4.5213889999999998E-3</v>
+      </c>
+      <c r="J25">
+        <v>1250</v>
+      </c>
+      <c r="K25">
+        <v>0.30490529999999999</v>
+      </c>
+      <c r="L25">
+        <v>9</v>
+      </c>
+      <c r="M25">
+        <v>8.6950950000000002</v>
+      </c>
+      <c r="N25">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O25">
+        <v>2.439242E-4</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.1500000000097543E-4</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1670000000002512E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C26">
+        <v>4.5440100000000002E-3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2.0922200000000001E-4</v>
+      </c>
+      <c r="E26">
+        <v>0.26152700000000001</v>
+      </c>
+      <c r="F26">
+        <v>8.7384699999999995</v>
+      </c>
+      <c r="H26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I26">
+        <v>4.5440059999999997E-3</v>
+      </c>
+      <c r="J26">
+        <v>1250</v>
+      </c>
+      <c r="K26">
+        <v>0.26142720000000003</v>
+      </c>
+      <c r="L26">
+        <v>9</v>
+      </c>
+      <c r="M26">
+        <v>8.7385730000000006</v>
+      </c>
+      <c r="N26">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O26">
+        <v>2.0914180000000001E-4</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.0300000000107445E-4</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="1"/>
+        <v>9.9799999999983235E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27">
+        <v>2.4</v>
+      </c>
+      <c r="C27">
+        <v>4.5633999999999996E-3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.7938700000000001E-4</v>
+      </c>
+      <c r="E27">
+        <v>0.22423399999999999</v>
+      </c>
+      <c r="F27">
+        <v>8.7757699999999996</v>
+      </c>
+      <c r="H27">
+        <v>2.4</v>
+      </c>
+      <c r="I27">
+        <v>4.5633979999999998E-3</v>
+      </c>
+      <c r="J27">
+        <v>1250</v>
+      </c>
+      <c r="K27">
+        <v>0.22414890000000001</v>
+      </c>
+      <c r="L27">
+        <v>9</v>
+      </c>
+      <c r="M27">
+        <v>8.7758509999999994</v>
+      </c>
+      <c r="N27">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O27">
+        <v>1.793191E-4</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.0999999999775696E-5</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="1"/>
+        <v>8.5099999999976861E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28">
+        <v>2.5</v>
+      </c>
+      <c r="C28">
+        <v>4.5800299999999997E-3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.5380799999999999E-4</v>
+      </c>
+      <c r="E28">
+        <v>0.19225999999999999</v>
+      </c>
+      <c r="F28">
+        <v>8.8077400000000008</v>
+      </c>
+      <c r="H28">
+        <v>2.5</v>
+      </c>
+      <c r="I28">
+        <v>4.5800249999999997E-3</v>
+      </c>
+      <c r="J28">
+        <v>1250</v>
+      </c>
+      <c r="K28">
+        <v>0.1921863</v>
+      </c>
+      <c r="L28">
+        <v>9</v>
+      </c>
+      <c r="M28">
+        <v>8.8078140000000005</v>
+      </c>
+      <c r="N28">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O28">
+        <v>1.5374900000000001E-4</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.3999999999685429E-5</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="1"/>
+        <v>7.3699999999982113E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="B29">
+        <v>2.6</v>
+      </c>
+      <c r="C29">
+        <v>4.5942800000000001E-3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.3187499999999999E-4</v>
+      </c>
+      <c r="E29">
+        <v>0.16484399999999999</v>
+      </c>
+      <c r="F29">
+        <v>8.8351600000000001</v>
+      </c>
+      <c r="H29">
+        <v>2.6</v>
+      </c>
+      <c r="I29">
+        <v>4.5942810000000004E-3</v>
+      </c>
+      <c r="J29">
+        <v>1250</v>
+      </c>
+      <c r="K29">
+        <v>0.16478139999999999</v>
+      </c>
+      <c r="L29">
+        <v>9</v>
+      </c>
+      <c r="M29">
+        <v>8.8352190000000004</v>
+      </c>
+      <c r="N29">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O29">
+        <v>1.318251E-4</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.9000000000253294E-5</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2599999999995992E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="B30">
+        <v>2.7</v>
+      </c>
+      <c r="C30">
+        <v>4.6065000000000004E-3</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.13071E-4</v>
+      </c>
+      <c r="E30">
+        <v>0.14133799999999999</v>
+      </c>
+      <c r="F30">
+        <v>8.8586600000000004</v>
+      </c>
+      <c r="H30">
+        <v>2.7</v>
+      </c>
+      <c r="I30">
+        <v>4.606504E-3</v>
+      </c>
+      <c r="J30">
+        <v>1250</v>
+      </c>
+      <c r="K30">
+        <v>0.1412844</v>
+      </c>
+      <c r="L30">
+        <v>9</v>
+      </c>
+      <c r="M30">
+        <v>8.8587159999999994</v>
+      </c>
+      <c r="N30">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O30">
+        <v>1.1302749999999999E-4</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.5999999998945782E-5</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3599999999986991E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="B31">
+        <v>2.8</v>
+      </c>
+      <c r="C31">
+        <v>4.6169799999999997E-3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>9.6947200000000006E-5</v>
+      </c>
+      <c r="E31">
+        <v>0.121184</v>
+      </c>
+      <c r="F31">
+        <v>8.8788199999999993</v>
+      </c>
+      <c r="H31">
+        <v>2.8</v>
+      </c>
+      <c r="I31">
+        <v>4.6169840000000002E-3</v>
+      </c>
+      <c r="J31">
+        <v>1250</v>
+      </c>
+      <c r="K31">
+        <v>0.12113790000000001</v>
+      </c>
+      <c r="L31">
+        <v>9</v>
+      </c>
+      <c r="M31">
+        <v>8.8788619999999998</v>
+      </c>
+      <c r="N31">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O31">
+        <v>9.6910289999999999E-5</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.2000000000541604E-5</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6099999999993369E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="B32">
+        <v>2.9</v>
+      </c>
+      <c r="C32">
+        <v>4.6259700000000001E-3</v>
+      </c>
+      <c r="D32" s="2">
+        <v>8.3122999999999997E-5</v>
+      </c>
+      <c r="E32">
+        <v>0.103904</v>
+      </c>
+      <c r="F32">
+        <v>8.8961000000000006</v>
+      </c>
+      <c r="H32">
+        <v>2.9</v>
+      </c>
+      <c r="I32">
+        <v>4.6259700000000001E-3</v>
+      </c>
+      <c r="J32">
+        <v>1250</v>
+      </c>
+      <c r="K32">
+        <v>0.1038642</v>
+      </c>
+      <c r="L32">
+        <v>9</v>
+      </c>
+      <c r="M32">
+        <v>8.8961360000000003</v>
+      </c>
+      <c r="N32">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O32">
+        <v>8.3091330000000004E-5</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.5999999999702936E-5</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9799999999992619E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18">
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>4.6336700000000003E-3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>7.127E-5</v>
+      </c>
+      <c r="E33">
+        <v>8.9087600000000003E-2</v>
+      </c>
+      <c r="F33">
+        <v>8.9109099999999994</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>4.633674E-3</v>
+      </c>
+      <c r="J33">
+        <v>1250</v>
+      </c>
+      <c r="K33">
+        <v>8.9053610000000005E-2</v>
+      </c>
+      <c r="L33">
+        <v>9</v>
+      </c>
+      <c r="M33">
+        <v>8.9109459999999991</v>
+      </c>
+      <c r="N33">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O33">
+        <v>7.1242890000000001E-5</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.5999999999702936E-5</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3989999999997633E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18">
+      <c r="B34">
+        <v>3.1</v>
+      </c>
+      <c r="C34">
+        <v>4.6402800000000001E-3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>6.1107300000000004E-5</v>
+      </c>
+      <c r="E34">
+        <v>7.6384099999999996E-2</v>
+      </c>
+      <c r="F34">
+        <v>8.9236199999999997</v>
+      </c>
+      <c r="H34">
+        <v>3.1</v>
+      </c>
+      <c r="I34">
+        <v>4.6402800000000001E-3</v>
+      </c>
+      <c r="J34">
+        <v>1250</v>
+      </c>
+      <c r="K34">
+        <v>7.6354980000000003E-2</v>
+      </c>
+      <c r="L34">
+        <v>9</v>
+      </c>
+      <c r="M34">
+        <v>8.9236450000000005</v>
+      </c>
+      <c r="N34">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O34">
+        <v>6.1083979999999999E-5</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.5000000000829914E-5</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9119999999993595E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18">
+      <c r="B35">
+        <v>3.2</v>
+      </c>
+      <c r="C35">
+        <v>4.6459400000000003E-3</v>
+      </c>
+      <c r="D35" s="2">
+        <v>5.2393699999999999E-5</v>
+      </c>
+      <c r="E35">
+        <v>6.5492099999999998E-2</v>
+      </c>
+      <c r="F35">
+        <v>8.9345099999999995</v>
+      </c>
+      <c r="H35">
+        <v>3.2</v>
+      </c>
+      <c r="I35">
+        <v>4.6459439999999999E-3</v>
+      </c>
+      <c r="J35">
+        <v>1250</v>
+      </c>
+      <c r="K35">
+        <v>6.5467109999999995E-2</v>
+      </c>
+      <c r="L35">
+        <v>9</v>
+      </c>
+      <c r="M35">
+        <v>8.9345330000000001</v>
+      </c>
+      <c r="N35">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O35">
+        <v>5.2373690000000002E-5</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.3000000000550358E-5</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" si="1"/>
+        <v>2.499000000000251E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18">
+      <c r="B36">
+        <v>3.3</v>
+      </c>
+      <c r="C36">
+        <v>4.6508000000000001E-3</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4.4922600000000003E-5</v>
+      </c>
+      <c r="E36">
+        <v>5.61532E-2</v>
+      </c>
+      <c r="F36">
+        <v>8.9438499999999994</v>
+      </c>
+      <c r="H36">
+        <v>3.3</v>
+      </c>
+      <c r="I36">
+        <v>4.6508000000000001E-3</v>
+      </c>
+      <c r="J36">
+        <v>1250</v>
+      </c>
+      <c r="K36">
+        <v>5.6131800000000003E-2</v>
+      </c>
+      <c r="L36">
+        <v>9</v>
+      </c>
+      <c r="M36">
+        <v>8.9438680000000002</v>
+      </c>
+      <c r="N36">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O36">
+        <v>4.4905440000000001E-5</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.8000000000739647E-5</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" si="1"/>
+        <v>2.139999999999781E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18">
+      <c r="B37">
+        <v>3.4</v>
+      </c>
+      <c r="C37">
+        <v>4.6549599999999997E-3</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3.8516799999999997E-5</v>
+      </c>
+      <c r="E37">
+        <v>4.8146000000000001E-2</v>
+      </c>
+      <c r="F37">
+        <v>8.9518500000000003</v>
+      </c>
+      <c r="H37">
+        <v>3.4</v>
+      </c>
+      <c r="I37">
+        <v>4.6549640000000002E-3</v>
+      </c>
+      <c r="J37">
+        <v>1250</v>
+      </c>
+      <c r="K37">
+        <v>4.8127669999999997E-2</v>
+      </c>
+      <c r="L37">
+        <v>9</v>
+      </c>
+      <c r="M37">
+        <v>8.9518719999999998</v>
+      </c>
+      <c r="N37">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O37">
+        <v>3.8502130000000001E-5</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.1999999999522402E-5</v>
+      </c>
+      <c r="R37" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8330000000003899E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18">
+      <c r="B38">
+        <v>3.5</v>
+      </c>
+      <c r="C38">
+        <v>4.6585300000000001E-3</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3.3024500000000002E-5</v>
+      </c>
+      <c r="E38">
+        <v>4.1280600000000001E-2</v>
+      </c>
+      <c r="F38">
+        <v>8.9587199999999996</v>
+      </c>
+      <c r="H38">
+        <v>3.5</v>
+      </c>
+      <c r="I38">
+        <v>4.6585339999999998E-3</v>
+      </c>
+      <c r="J38">
+        <v>1250</v>
+      </c>
+      <c r="K38">
+        <v>4.1264879999999997E-2</v>
+      </c>
+      <c r="L38">
+        <v>9</v>
+      </c>
+      <c r="M38">
+        <v>8.9587350000000008</v>
+      </c>
+      <c r="N38">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O38">
+        <v>3.3011910000000002E-5</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.5000000001208491E-5</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5720000000003787E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18">
+      <c r="B39">
+        <v>3.6</v>
+      </c>
+      <c r="C39">
+        <v>4.6615900000000002E-3</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2.83154E-5</v>
+      </c>
+      <c r="E39">
+        <v>3.5394200000000001E-2</v>
+      </c>
+      <c r="F39">
+        <v>8.9646100000000004</v>
+      </c>
+      <c r="H39">
+        <v>3.6</v>
+      </c>
+      <c r="I39">
+        <v>4.6615950000000001E-3</v>
+      </c>
+      <c r="J39">
+        <v>1250</v>
+      </c>
+      <c r="K39">
+        <v>3.5380700000000001E-2</v>
+      </c>
+      <c r="L39">
+        <v>9</v>
+      </c>
+      <c r="M39">
+        <v>8.9646190000000008</v>
+      </c>
+      <c r="N39">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O39">
+        <v>2.8304560000000001E-5</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.0000000003698233E-6</v>
+      </c>
+      <c r="R39" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3499999999999623E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18">
+      <c r="B40">
+        <v>3.7</v>
+      </c>
+      <c r="C40">
+        <v>4.6642200000000002E-3</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2.42777E-5</v>
+      </c>
+      <c r="E40">
+        <v>3.0347099999999998E-2</v>
+      </c>
+      <c r="F40">
+        <v>8.9696499999999997</v>
+      </c>
+      <c r="H40">
+        <v>3.7</v>
+      </c>
+      <c r="I40">
+        <v>4.6642189999999998E-3</v>
+      </c>
+      <c r="J40">
+        <v>1250</v>
+      </c>
+      <c r="K40">
+        <v>3.0335580000000001E-2</v>
+      </c>
+      <c r="L40">
+        <v>9</v>
+      </c>
+      <c r="M40">
+        <v>8.9696639999999999</v>
+      </c>
+      <c r="N40">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O40">
+        <v>2.426846E-5</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.4000000000180535E-5</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1519999999997504E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18">
+      <c r="B41">
+        <v>3.8</v>
+      </c>
+      <c r="C41">
+        <v>4.6664699999999998E-3</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2.0815800000000002E-5</v>
+      </c>
+      <c r="E41">
+        <v>2.6019799999999999E-2</v>
+      </c>
+      <c r="F41">
+        <v>8.9739799999999992</v>
+      </c>
+      <c r="H41">
+        <v>3.8</v>
+      </c>
+      <c r="I41">
+        <v>4.6664699999999998E-3</v>
+      </c>
+      <c r="J41">
+        <v>1250</v>
+      </c>
+      <c r="K41">
+        <v>2.6009859999999999E-2</v>
+      </c>
+      <c r="L41">
+        <v>9</v>
+      </c>
+      <c r="M41">
+        <v>8.9739900000000006</v>
+      </c>
+      <c r="N41">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O41">
+        <v>2.080789E-5</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.000000000139778E-5</v>
+      </c>
+      <c r="R41" s="1">
+        <f t="shared" si="1"/>
+        <v>9.9399999999999489E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18">
+      <c r="B42">
+        <v>3.9</v>
+      </c>
+      <c r="C42">
+        <v>4.6683999999999996E-3</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1.7847599999999998E-5</v>
+      </c>
+      <c r="E42">
+        <v>2.2309499999999999E-2</v>
+      </c>
+      <c r="F42">
+        <v>8.9776900000000008</v>
+      </c>
+      <c r="H42">
+        <v>3.9</v>
+      </c>
+      <c r="I42">
+        <v>4.6683990000000002E-3</v>
+      </c>
+      <c r="J42">
+        <v>1250</v>
+      </c>
+      <c r="K42">
+        <v>2.2300980000000001E-2</v>
+      </c>
+      <c r="L42">
+        <v>9</v>
+      </c>
+      <c r="M42">
+        <v>8.9776989999999994</v>
+      </c>
+      <c r="N42">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O42">
+        <v>1.7840779999999999E-5</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.9999999985934664E-6</v>
+      </c>
+      <c r="R42" s="1">
+        <f t="shared" si="1"/>
+        <v>8.5199999999979736E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18">
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>4.6700500000000002E-3</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1.5302600000000002E-5</v>
+      </c>
+      <c r="E43">
+        <v>1.9128300000000001E-2</v>
+      </c>
+      <c r="F43">
+        <v>8.9808699999999995</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>4.6700530000000004E-3</v>
+      </c>
+      <c r="J43">
+        <v>1250</v>
+      </c>
+      <c r="K43">
+        <v>1.9120959999999999E-2</v>
+      </c>
+      <c r="L43">
+        <v>9</v>
+      </c>
+      <c r="M43">
+        <v>8.9808789999999998</v>
+      </c>
+      <c r="N43">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O43">
+        <v>1.529677E-5</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.0000000003698233E-6</v>
+      </c>
+      <c r="R43" s="1">
+        <f t="shared" si="1"/>
+        <v>7.340000000001512E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18">
+      <c r="B44">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C44">
+        <v>4.6714699999999996E-3</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1.3120500000000001E-5</v>
+      </c>
+      <c r="E44">
+        <v>1.6400700000000001E-2</v>
+      </c>
+      <c r="F44">
+        <v>8.9835999999999991</v>
+      </c>
+      <c r="H44">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I44">
+        <v>4.6714720000000003E-3</v>
+      </c>
+      <c r="J44">
+        <v>1250</v>
+      </c>
+      <c r="K44">
+        <v>1.63944E-2</v>
+      </c>
+      <c r="L44">
+        <v>9</v>
+      </c>
+      <c r="M44">
+        <v>8.983606</v>
+      </c>
+      <c r="N44">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O44">
+        <v>1.311552E-5</v>
+      </c>
+      <c r="Q44" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.0000000008386678E-6</v>
+      </c>
+      <c r="R44" s="1">
+        <f t="shared" si="1"/>
+        <v>6.3000000000007494E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18">
+      <c r="B45">
+        <v>4.2</v>
+      </c>
+      <c r="C45">
+        <v>4.6726900000000002E-3</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1.12496E-5</v>
+      </c>
+      <c r="E45">
+        <v>1.4062E-2</v>
+      </c>
+      <c r="F45">
+        <v>8.9859399999999994</v>
+      </c>
+      <c r="H45">
+        <v>4.2</v>
+      </c>
+      <c r="I45">
+        <v>4.6726880000000004E-3</v>
+      </c>
+      <c r="J45">
+        <v>1250</v>
+      </c>
+      <c r="K45">
+        <v>1.4056630000000001E-2</v>
+      </c>
+      <c r="L45">
+        <v>9</v>
+      </c>
+      <c r="M45">
+        <v>8.9859430000000007</v>
+      </c>
+      <c r="N45">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O45">
+        <v>1.124531E-5</v>
+      </c>
+      <c r="Q45" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.0000000013075123E-6</v>
+      </c>
+      <c r="R45" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3699999999993336E-6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18">
+      <c r="B46">
+        <v>4.3</v>
+      </c>
+      <c r="C46">
+        <v>4.6737300000000001E-3</v>
+      </c>
+      <c r="D46" s="2">
+        <v>9.64546E-6</v>
+      </c>
+      <c r="E46">
+        <v>1.2056799999999999E-2</v>
+      </c>
+      <c r="F46">
+        <v>8.98794</v>
+      </c>
+      <c r="H46">
+        <v>4.3</v>
+      </c>
+      <c r="I46">
+        <v>4.6737300000000001E-3</v>
+      </c>
+      <c r="J46">
+        <v>1250</v>
+      </c>
+      <c r="K46">
+        <v>1.2052220000000001E-2</v>
+      </c>
+      <c r="L46">
+        <v>9</v>
+      </c>
+      <c r="M46">
+        <v>8.9879479999999994</v>
+      </c>
+      <c r="N46">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O46">
+        <v>9.6417790000000006E-6</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.9999999993418669E-6</v>
+      </c>
+      <c r="R46" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5799999999988211E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18">
+      <c r="B47">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C47">
+        <v>4.67462E-3</v>
+      </c>
+      <c r="D47" s="2">
+        <v>8.2700599999999996E-6</v>
+      </c>
+      <c r="E47">
+        <v>1.0337600000000001E-2</v>
+      </c>
+      <c r="F47">
+        <v>8.9896600000000007</v>
+      </c>
+      <c r="H47">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I47">
+        <v>4.6746239999999996E-3</v>
+      </c>
+      <c r="J47">
+        <v>1250</v>
+      </c>
+      <c r="K47">
+        <v>1.033363E-2</v>
+      </c>
+      <c r="L47">
+        <v>9</v>
+      </c>
+      <c r="M47">
+        <v>8.9896659999999997</v>
+      </c>
+      <c r="N47">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O47">
+        <v>8.2669060000000002E-6</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.999999999062311E-6</v>
+      </c>
+      <c r="R47" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9700000000007091E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18">
+      <c r="B48">
+        <v>4.5</v>
+      </c>
+      <c r="C48">
+        <v>4.6753899999999998E-3</v>
+      </c>
+      <c r="D48" s="2">
+        <v>7.0907900000000001E-6</v>
+      </c>
+      <c r="E48">
+        <v>8.86348E-3</v>
+      </c>
+      <c r="F48">
+        <v>8.9911399999999997</v>
+      </c>
+      <c r="H48">
+        <v>4.5</v>
+      </c>
+      <c r="I48">
+        <v>4.6753910000000001E-3</v>
+      </c>
+      <c r="J48">
+        <v>1250</v>
+      </c>
+      <c r="K48">
+        <v>8.8601040000000006E-3</v>
+      </c>
+      <c r="L48">
+        <v>9</v>
+      </c>
+      <c r="M48">
+        <v>8.9911399999999997</v>
+      </c>
+      <c r="N48">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O48">
+        <v>7.0880830000000001E-6</v>
+      </c>
+      <c r="Q48" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3759999999993795E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18">
+      <c r="B49">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C49">
+        <v>4.6760500000000002E-3</v>
+      </c>
+      <c r="D49" s="2">
+        <v>6.07967E-6</v>
+      </c>
+      <c r="E49">
+        <v>7.5995899999999998E-3</v>
+      </c>
+      <c r="F49">
+        <v>8.9923999999999999</v>
+      </c>
+      <c r="H49">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I49">
+        <v>4.6760480000000004E-3</v>
+      </c>
+      <c r="J49">
+        <v>1250</v>
+      </c>
+      <c r="K49">
+        <v>7.5966940000000002E-3</v>
+      </c>
+      <c r="L49">
+        <v>9</v>
+      </c>
+      <c r="M49">
+        <v>8.9924029999999995</v>
+      </c>
+      <c r="N49">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O49">
+        <v>6.0773549999999999E-6</v>
+      </c>
+      <c r="Q49" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.9999999995311555E-6</v>
+      </c>
+      <c r="R49" s="1">
+        <f t="shared" si="1"/>
+        <v>2.895999999999628E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18">
+      <c r="B50">
+        <v>4.7</v>
+      </c>
+      <c r="C50">
+        <v>4.6766100000000003E-3</v>
+      </c>
+      <c r="D50" s="2">
+        <v>5.2127400000000003E-6</v>
+      </c>
+      <c r="E50">
+        <v>6.5159199999999997E-3</v>
+      </c>
+      <c r="F50">
+        <v>8.9934799999999999</v>
+      </c>
+      <c r="H50">
+        <v>4.7</v>
+      </c>
+      <c r="I50">
+        <v>4.6766120000000001E-3</v>
+      </c>
+      <c r="J50">
+        <v>1250</v>
+      </c>
+      <c r="K50">
+        <v>6.5134399999999997E-3</v>
+      </c>
+      <c r="L50">
+        <v>9</v>
+      </c>
+      <c r="M50">
+        <v>8.993487</v>
+      </c>
+      <c r="N50">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O50">
+        <v>5.2107519999999997E-6</v>
+      </c>
+      <c r="Q50" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.0000000000902673E-6</v>
+      </c>
+      <c r="R50" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4800000000000169E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18">
+      <c r="B51">
+        <v>4.8</v>
+      </c>
+      <c r="C51">
+        <v>4.6770900000000001E-3</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4.4694300000000003E-6</v>
+      </c>
+      <c r="E51">
+        <v>5.5867800000000004E-3</v>
+      </c>
+      <c r="F51">
+        <v>8.9944100000000002</v>
+      </c>
+      <c r="H51">
+        <v>4.8</v>
+      </c>
+      <c r="I51">
+        <v>4.677095E-3</v>
+      </c>
+      <c r="J51">
+        <v>1250</v>
+      </c>
+      <c r="K51">
+        <v>5.5846539999999997E-3</v>
+      </c>
+      <c r="L51">
+        <v>9</v>
+      </c>
+      <c r="M51">
+        <v>8.994415</v>
+      </c>
+      <c r="N51">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O51">
+        <v>4.467723E-6</v>
+      </c>
+      <c r="Q51" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.9999999998107114E-6</v>
+      </c>
+      <c r="R51" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1260000000007315E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18">
+      <c r="B52">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C52">
+        <v>4.6775100000000002E-3</v>
+      </c>
+      <c r="D52" s="2">
+        <v>3.83211E-6</v>
+      </c>
+      <c r="E52">
+        <v>4.7901300000000001E-3</v>
+      </c>
+      <c r="F52">
+        <v>8.9952100000000002</v>
+      </c>
+      <c r="H52">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I52">
+        <v>4.6775089999999998E-3</v>
+      </c>
+      <c r="J52">
+        <v>1250</v>
+      </c>
+      <c r="K52">
+        <v>4.7883079999999998E-3</v>
+      </c>
+      <c r="L52">
+        <v>9</v>
+      </c>
+      <c r="M52">
+        <v>8.9952120000000004</v>
+      </c>
+      <c r="N52">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O52">
+        <v>3.8306460000000002E-6</v>
+      </c>
+      <c r="Q52" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.0000000002795559E-6</v>
+      </c>
+      <c r="R52" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8220000000002817E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18">
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>4.6778599999999998E-3</v>
+      </c>
+      <c r="D53" s="2">
+        <v>3.2856700000000002E-6</v>
+      </c>
+      <c r="E53">
+        <v>4.1070799999999999E-3</v>
+      </c>
+      <c r="F53">
+        <v>8.9958899999999993</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="I53">
+        <v>4.6778640000000003E-3</v>
+      </c>
+      <c r="J53">
+        <v>1250</v>
+      </c>
+      <c r="K53">
+        <v>4.1055170000000004E-3</v>
+      </c>
+      <c r="L53">
+        <v>9</v>
+      </c>
+      <c r="M53">
+        <v>8.9958939999999998</v>
+      </c>
+      <c r="N53">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O53">
+        <v>3.2844139999999998E-6</v>
+      </c>
+      <c r="Q53" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.0000000005591119E-6</v>
+      </c>
+      <c r="R53" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5629999999995647E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:W503"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -29208,7 +31827,7 @@
     <col min="21" max="21" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -29270,7 +31889,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -29334,7 +31953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>0.01</v>
       </c>
@@ -29394,11 +32013,11 @@
         <v>-1.0000000003410059E-10</v>
       </c>
       <c r="V4" s="1">
-        <f t="shared" ref="V4:V67" si="1">H4-R4</f>
+        <f t="shared" ref="V4:W67" si="1">H4-R4</f>
         <v>9.9999999947364415E-9</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>0.02</v>
       </c>
@@ -29462,7 +32081,7 @@
         <v>3.00000000119649E-8</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>0.03</v>
       </c>
@@ -29526,7 +32145,7 @@
         <v>2.9999999998087112E-8</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>0.04</v>
       </c>
@@ -29590,7 +32209,7 @@
         <v>-3.00000000119649E-8</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>0.05</v>
       </c>
@@ -29654,7 +32273,7 @@
         <v>2.0000000003350671E-8</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>0.06</v>
       </c>
@@ -29718,7 +32337,7 @@
         <v>2.9999999998087112E-8</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -29782,7 +32401,7 @@
         <v>-1.0000000008614229E-8</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>0.08</v>
       </c>
@@ -29846,7 +32465,7 @@
         <v>5.0000000001437783E-8</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>0.09</v>
       </c>
@@ -29910,7 +32529,7 @@
         <v>-2.9999999998087112E-8</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>0.1</v>
       </c>
@@ -29974,7 +32593,7 @@
         <v>1.0000000008614229E-8</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>0.11</v>
       </c>
@@ -30037,8 +32656,11 @@
         <f t="shared" si="1"/>
         <v>5.0000000001437783E-8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>5.0000000001437783E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>0.12</v>
       </c>
@@ -30102,7 +32724,7 @@
         <v>2.9999999998087112E-8</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>0.13</v>
       </c>
@@ -61337,16 +63959,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/AB2 vs Berkeley Madonnaxlsx.xlsx
+++ b/doc/AB2 vs Berkeley Madonnaxlsx.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Pendel_kombination dt=0.01" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="intern_kondensator" localSheetId="1">'Kondensator dt=0.1'!$T$3:$Y$54</definedName>
     <definedName name="kondensator_table" localSheetId="0">'Kondensator dt=0.01'!$B$2:$F$503</definedName>
-    <definedName name="kondensator_table2" localSheetId="1">'Kondensator dt=0.1'!$B$2:$F$53</definedName>
+    <definedName name="kondensator_table2" localSheetId="1">'Kondensator dt=0.1'!$B$3:$F$54</definedName>
     <definedName name="pendel_kombination_table" localSheetId="2">'Pendel_kombination dt=0.01'!$A$2:$I$503</definedName>
     <definedName name="sim_kondensator" localSheetId="0">'Kondensator dt=0.01'!$I$3:$Q$504</definedName>
-    <definedName name="sim_kondensator2" localSheetId="1">'Kondensator dt=0.1'!$H$2:$P$53</definedName>
+    <definedName name="sim_kondensator2" localSheetId="1">'Kondensator dt=0.1'!$H$3:$P$54</definedName>
     <definedName name="sim_pendel_komb" localSheetId="2">'Pendel_kombination dt=0.01'!$K$2:$T$503</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -25,7 +26,22 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="kondensator table" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="1" name="intern_kondensator" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\Users\bachi\Desktop\intern_kondensator.csv" thousands="'" semicolon="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="kondensator table" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\bachi\Desktop\kondensator table.txt" thousands="'">
       <textFields count="5">
         <textField/>
@@ -36,7 +52,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="kondensator table2" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="3" name="kondensator table2" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\bachi\Desktop\kondensator table2.txt" thousands="'">
       <textFields count="5">
         <textField/>
@@ -47,7 +63,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="pendel_kombination table" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="4" name="pendel_kombination table" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\bachi\Desktop\pendel_kombination table.txt" thousands="'">
       <textFields count="9">
         <textField/>
@@ -62,7 +78,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="sim_kondensator" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="5" name="sim_kondensator" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\bachi\Desktop\sim_kondensator.csv" thousands="'" tab="0" semicolon="1">
       <textFields count="9">
         <textField/>
@@ -77,7 +93,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="sim_kondensator2" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="6" name="sim_kondensator2" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\bachi\Desktop\sim_kondensator2.csv" thousands="'" semicolon="1">
       <textFields count="9">
         <textField/>
@@ -92,7 +108,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="sim_pendel_komb" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="7" name="sim_pendel_komb" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\bachi\Desktop\sim_pendel_komb.csv" thousands="'" semicolon="1">
       <textFields count="20">
         <textField/>
@@ -122,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>TIME</t>
   </si>
@@ -232,19 +248,50 @@
     <t>diff UC</t>
   </si>
   <si>
-    <t>diff UE</t>
+    <t>diff UR</t>
+  </si>
+  <si>
+    <t>Berkeley Madonna</t>
+  </si>
+  <si>
+    <t>Matlab</t>
+  </si>
+  <si>
+    <t>Intern</t>
+  </si>
+  <si>
+    <t>diff I</t>
+  </si>
+  <si>
+    <t>diff Q</t>
+  </si>
+  <si>
+    <t>Berkeley vs. Matlab</t>
+  </si>
+  <si>
+    <t>Berkeley vs. Intern</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -271,10 +318,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -285,27 +338,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sim_kondensator" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sim_kondensator" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="kondensator table" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="kondensator table" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sim_kondensator2" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="intern_kondensator" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="kondensator table2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sim_kondensator2" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sim_pendel_komb" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="kondensator table2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pendel_kombination table" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sim_pendel_komb" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pendel_kombination table" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -596,7 +653,7 @@
   <dimension ref="B2:U504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -790,11 +847,11 @@
         <v>4.0000000004966618E-9</v>
       </c>
       <c r="T5" s="1">
-        <f t="shared" ref="T5:T68" si="2">E4-L5</f>
+        <f>E4-L5</f>
         <v>4.9999999998107114E-6</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" ref="U5:U68" si="3">F4-N5</f>
+        <f t="shared" ref="U5:U68" si="2">F4-N5</f>
         <v>-2.599999999991498E-6</v>
       </c>
     </row>
@@ -847,11 +904,11 @@
         <v>6.999999999784956E-9</v>
       </c>
       <c r="T6" s="1">
+        <f t="shared" ref="T6:T68" si="3">E5-L6</f>
+        <v>-9.9999999925159955E-7</v>
+      </c>
+      <c r="U6" s="1">
         <f t="shared" si="2"/>
-        <v>-9.9999999925159955E-7</v>
-      </c>
-      <c r="U6" s="1">
-        <f t="shared" si="3"/>
         <v>-2.7999999999694936E-6</v>
       </c>
     </row>
@@ -904,11 +961,11 @@
         <v>-1.99999999981465E-9</v>
       </c>
       <c r="T7" s="1">
+        <f t="shared" si="3"/>
+        <v>7.0000000000902673E-6</v>
+      </c>
+      <c r="U7" s="1">
         <f t="shared" si="2"/>
-        <v>7.0000000000902673E-6</v>
-      </c>
-      <c r="U7" s="1">
-        <f t="shared" si="3"/>
         <v>-2.3000000000106269E-6</v>
       </c>
     </row>
@@ -961,11 +1018,11 @@
         <v>1.0000000003410059E-9</v>
       </c>
       <c r="T8" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0000000002795559E-6</v>
+      </c>
+      <c r="U8" s="1">
         <f t="shared" si="2"/>
-        <v>2.0000000002795559E-6</v>
-      </c>
-      <c r="U8" s="1">
-        <f t="shared" si="3"/>
         <v>-2.5999999999637424E-6</v>
       </c>
     </row>
@@ -1018,11 +1075,11 @@
         <v>1.99999999981465E-9</v>
       </c>
       <c r="T9" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0000000013075123E-6</v>
+      </c>
+      <c r="U9" s="1">
         <f t="shared" si="2"/>
-        <v>3.0000000013075123E-6</v>
-      </c>
-      <c r="U9" s="1">
-        <f t="shared" si="3"/>
         <v>-2.9000000000278803E-6</v>
       </c>
     </row>
@@ -1075,11 +1132,11 @@
         <v>4.999999999970306E-9</v>
       </c>
       <c r="T10" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0000000002795559E-6</v>
+      </c>
+      <c r="U10" s="1">
         <f t="shared" si="2"/>
-        <v>2.0000000002795559E-6</v>
-      </c>
-      <c r="U10" s="1">
-        <f t="shared" si="3"/>
         <v>-2.5999999999637424E-6</v>
       </c>
     </row>
@@ -1132,11 +1189,11 @@
         <v>3.9999999996293001E-9</v>
       </c>
       <c r="T11" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.0000000002795559E-6</v>
+      </c>
+      <c r="U11" s="1">
         <f t="shared" si="2"/>
-        <v>-2.0000000002795559E-6</v>
-      </c>
-      <c r="U11" s="1">
-        <f t="shared" si="3"/>
         <v>-2.0000000000575113E-6</v>
       </c>
     </row>
@@ -1189,11 +1246,11 @@
         <v>3.0000000001556559E-9</v>
       </c>
       <c r="T12" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0000000002795559E-6</v>
+      </c>
+      <c r="U12" s="1">
         <f t="shared" si="2"/>
-        <v>2.0000000002795559E-6</v>
-      </c>
-      <c r="U12" s="1">
-        <f t="shared" si="3"/>
         <v>-1.9999999998354667E-6</v>
       </c>
     </row>
@@ -1246,11 +1303,11 @@
         <v>4.999999999970306E-9</v>
       </c>
       <c r="T13" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0000000002795559E-6</v>
+      </c>
+      <c r="U13" s="1">
         <f t="shared" si="2"/>
-        <v>2.0000000002795559E-6</v>
-      </c>
-      <c r="U13" s="1">
-        <f t="shared" si="3"/>
         <v>-2.0000000000575113E-6</v>
       </c>
     </row>
@@ -1303,11 +1360,11 @@
         <v>4.0000000004966618E-9</v>
       </c>
       <c r="T14" s="1">
+        <f t="shared" si="3"/>
+        <v>7.0000000000902673E-6</v>
+      </c>
+      <c r="U14" s="1">
         <f t="shared" si="2"/>
-        <v>7.0000000000902673E-6</v>
-      </c>
-      <c r="U14" s="1">
-        <f t="shared" si="3"/>
         <v>-6.9999999998682227E-6</v>
       </c>
     </row>
@@ -1360,11 +1417,11 @@
         <v>9.9999999947364415E-10</v>
       </c>
       <c r="T15" s="1">
+        <f t="shared" si="3"/>
+        <v>6.0000000008386678E-6</v>
+      </c>
+      <c r="U15" s="1">
         <f t="shared" si="2"/>
-        <v>6.0000000008386678E-6</v>
-      </c>
-      <c r="U15" s="1">
-        <f t="shared" si="3"/>
         <v>-5.9999999999504894E-6</v>
       </c>
     </row>
@@ -1417,11 +1474,11 @@
         <v>-9.9999999947364415E-10</v>
       </c>
       <c r="T16" s="1">
+        <f t="shared" si="3"/>
+        <v>5.9999999999504894E-6</v>
+      </c>
+      <c r="U16" s="1">
         <f t="shared" si="2"/>
-        <v>5.9999999999504894E-6</v>
-      </c>
-      <c r="U16" s="1">
-        <f t="shared" si="3"/>
         <v>-5.9999999999504894E-6</v>
       </c>
     </row>
@@ -1474,11 +1531,11 @@
         <v>0</v>
       </c>
       <c r="T17" s="1">
+        <f t="shared" si="3"/>
+        <v>5.9999999999504894E-6</v>
+      </c>
+      <c r="U17" s="1">
         <f t="shared" si="2"/>
-        <v>5.9999999999504894E-6</v>
-      </c>
-      <c r="U17" s="1">
-        <f t="shared" si="3"/>
         <v>-5.9999999999504894E-6</v>
       </c>
     </row>
@@ -1531,11 +1588,11 @@
         <v>6.999999999784956E-9</v>
       </c>
       <c r="T18" s="1">
+        <f t="shared" si="3"/>
+        <v>1.000000000139778E-6</v>
+      </c>
+      <c r="U18" s="1">
         <f t="shared" si="2"/>
-        <v>1.000000000139778E-6</v>
-      </c>
-      <c r="U18" s="1">
-        <f t="shared" si="3"/>
         <v>-1.000000000139778E-6</v>
       </c>
     </row>
@@ -1588,11 +1645,11 @@
         <v>-1.0000000003410059E-9</v>
       </c>
       <c r="T19" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.0000000002795559E-6</v>
+      </c>
+      <c r="U19" s="1">
         <f t="shared" si="2"/>
-        <v>-2.0000000002795559E-6</v>
-      </c>
-      <c r="U19" s="1">
-        <f t="shared" si="3"/>
         <v>2.0000000000575113E-6</v>
       </c>
     </row>
@@ -1645,11 +1702,11 @@
         <v>-2.0000000006820118E-9</v>
       </c>
       <c r="T20" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9999999998107114E-6</v>
+      </c>
+      <c r="U20" s="1">
         <f t="shared" si="2"/>
-        <v>4.9999999998107114E-6</v>
-      </c>
-      <c r="U20" s="1">
-        <f t="shared" si="3"/>
         <v>-4.9999999998107114E-6</v>
       </c>
     </row>
@@ -1702,11 +1759,11 @@
         <v>4.999999999970306E-9</v>
       </c>
       <c r="T21" s="1">
+        <f t="shared" si="3"/>
+        <v>5.9999999999504894E-6</v>
+      </c>
+      <c r="U21" s="1">
         <f t="shared" si="2"/>
-        <v>5.9999999999504894E-6</v>
-      </c>
-      <c r="U21" s="1">
-        <f t="shared" si="3"/>
         <v>-5.9999999999504894E-6</v>
       </c>
     </row>
@@ -1759,11 +1816,11 @@
         <v>-9.9999999947364415E-10</v>
       </c>
       <c r="T22" s="1">
+        <f t="shared" si="3"/>
+        <v>6.9999999992020889E-6</v>
+      </c>
+      <c r="U22" s="1">
         <f t="shared" si="2"/>
-        <v>6.9999999992020889E-6</v>
-      </c>
-      <c r="U22" s="1">
-        <f t="shared" si="3"/>
         <v>-7.0000000000902673E-6</v>
       </c>
     </row>
@@ -1816,11 +1873,11 @@
         <v>1.99999999981465E-9</v>
       </c>
       <c r="T23" s="1">
+        <f t="shared" si="3"/>
+        <v>2.9999999995311555E-6</v>
+      </c>
+      <c r="U23" s="1">
         <f t="shared" si="2"/>
-        <v>2.9999999995311555E-6</v>
-      </c>
-      <c r="U23" s="1">
-        <f t="shared" si="3"/>
         <v>-3.0000000004193339E-6</v>
       </c>
     </row>
@@ -1873,11 +1930,11 @@
         <v>3.0000000001556559E-9</v>
       </c>
       <c r="T24" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.000000000139778E-6</v>
+      </c>
+      <c r="U24" s="1">
         <f t="shared" si="2"/>
-        <v>-1.000000000139778E-6</v>
-      </c>
-      <c r="U24" s="1">
-        <f t="shared" si="3"/>
         <v>9.9999999969568876E-7</v>
       </c>
     </row>
@@ -1930,11 +1987,11 @@
         <v>1.0000000003410059E-9</v>
       </c>
       <c r="T25" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.000000000139778E-6</v>
+      </c>
+      <c r="U25" s="1">
         <f t="shared" si="2"/>
-        <v>-1.000000000139778E-6</v>
-      </c>
-      <c r="U25" s="1">
-        <f t="shared" si="3"/>
         <v>1.000000000139778E-6</v>
       </c>
     </row>
@@ -1987,11 +2044,11 @@
         <v>4.999999999970306E-9</v>
       </c>
       <c r="T26" s="1">
+        <f t="shared" si="3"/>
+        <v>5.9999999999504894E-6</v>
+      </c>
+      <c r="U26" s="1">
         <f t="shared" si="2"/>
-        <v>5.9999999999504894E-6</v>
-      </c>
-      <c r="U26" s="1">
-        <f t="shared" si="3"/>
         <v>-5.9999999999504894E-6</v>
       </c>
     </row>
@@ -2044,11 +2101,11 @@
         <v>4.0000000004966618E-9</v>
       </c>
       <c r="T27" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9999999998107114E-6</v>
+      </c>
+      <c r="U27" s="1">
         <f t="shared" si="2"/>
-        <v>4.9999999998107114E-6</v>
-      </c>
-      <c r="U27" s="1">
-        <f t="shared" si="3"/>
         <v>-4.9999999998107114E-6</v>
       </c>
     </row>
@@ -2101,11 +2158,11 @@
         <v>-3.0000000001556559E-9</v>
       </c>
       <c r="T28" s="1">
+        <f t="shared" si="3"/>
+        <v>-9.9999999925159955E-7</v>
+      </c>
+      <c r="U28" s="1">
         <f t="shared" si="2"/>
-        <v>-9.9999999925159955E-7</v>
-      </c>
-      <c r="U28" s="1">
-        <f t="shared" si="3"/>
         <v>1.000000000139778E-6</v>
       </c>
     </row>
@@ -2158,11 +2215,11 @@
         <v>1.99999999981465E-9</v>
       </c>
       <c r="T29" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U29" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2215,11 +2272,11 @@
         <v>-2.9999999992882942E-9</v>
       </c>
       <c r="T30" s="1">
+        <f t="shared" si="3"/>
+        <v>9.9999999925159955E-7</v>
+      </c>
+      <c r="U30" s="1">
         <f t="shared" si="2"/>
-        <v>9.9999999925159955E-7</v>
-      </c>
-      <c r="U30" s="1">
-        <f t="shared" si="3"/>
         <v>-1.000000000139778E-6</v>
       </c>
     </row>
@@ -2272,11 +2329,11 @@
         <v>0</v>
       </c>
       <c r="T31" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9999999998107114E-6</v>
+      </c>
+      <c r="U31" s="1">
         <f t="shared" si="2"/>
-        <v>4.9999999998107114E-6</v>
-      </c>
-      <c r="U31" s="1">
-        <f t="shared" si="3"/>
         <v>-5.0000000002548006E-6</v>
       </c>
     </row>
@@ -2329,11 +2386,11 @@
         <v>-3.0000000001556559E-9</v>
       </c>
       <c r="T32" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0000000002795559E-6</v>
+      </c>
+      <c r="U32" s="1">
         <f t="shared" si="2"/>
-        <v>2.0000000002795559E-6</v>
-      </c>
-      <c r="U32" s="1">
-        <f t="shared" si="3"/>
         <v>-2.0000000002795559E-6</v>
       </c>
     </row>
@@ -2386,11 +2443,11 @@
         <v>-3.0000000001556559E-9</v>
       </c>
       <c r="T33" s="1">
+        <f t="shared" si="3"/>
+        <v>3.9999999996709334E-6</v>
+      </c>
+      <c r="U33" s="1">
         <f t="shared" si="2"/>
-        <v>3.9999999996709334E-6</v>
-      </c>
-      <c r="U33" s="1">
-        <f t="shared" si="3"/>
         <v>-4.0000000001150227E-6</v>
       </c>
     </row>
@@ -2443,11 +2500,11 @@
         <v>-4.0000000004966618E-9</v>
       </c>
       <c r="T34" s="1">
+        <f t="shared" si="3"/>
+        <v>2.9999999995311555E-6</v>
+      </c>
+      <c r="U34" s="1">
         <f t="shared" si="2"/>
-        <v>2.9999999995311555E-6</v>
-      </c>
-      <c r="U34" s="1">
-        <f t="shared" si="3"/>
         <v>-2.9999999999752447E-6</v>
       </c>
     </row>
@@ -2500,11 +2557,11 @@
         <v>1.0000000003410059E-9</v>
       </c>
       <c r="T35" s="1">
+        <f t="shared" si="3"/>
+        <v>-9.9999999925159955E-7</v>
+      </c>
+      <c r="U35" s="1">
         <f t="shared" si="2"/>
-        <v>-9.9999999925159955E-7</v>
-      </c>
-      <c r="U35" s="1">
-        <f t="shared" si="3"/>
         <v>1.000000000139778E-6</v>
       </c>
     </row>
@@ -2557,11 +2614,11 @@
         <v>-9.9999999947364415E-10</v>
       </c>
       <c r="T36" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0000000004193339E-6</v>
+      </c>
+      <c r="U36" s="1">
         <f t="shared" si="2"/>
-        <v>3.0000000004193339E-6</v>
-      </c>
-      <c r="U36" s="1">
-        <f t="shared" si="3"/>
         <v>-2.9999999999752447E-6</v>
       </c>
     </row>
@@ -2614,11 +2671,11 @@
         <v>4.0000000004966618E-9</v>
       </c>
       <c r="T37" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9999999998107114E-6</v>
+      </c>
+      <c r="U37" s="1">
         <f t="shared" si="2"/>
-        <v>4.9999999998107114E-6</v>
-      </c>
-      <c r="U37" s="1">
-        <f t="shared" si="3"/>
         <v>-4.9999999998107114E-6</v>
       </c>
     </row>
@@ -2671,11 +2728,11 @@
         <v>4.0000000004966618E-9</v>
       </c>
       <c r="T38" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9999999998107114E-6</v>
+      </c>
+      <c r="U38" s="1">
         <f t="shared" si="2"/>
-        <v>4.9999999998107114E-6</v>
-      </c>
-      <c r="U38" s="1">
-        <f t="shared" si="3"/>
         <v>-4.9999999998107114E-6</v>
       </c>
     </row>
@@ -2728,11 +2785,11 @@
         <v>4.0000000004966618E-9</v>
       </c>
       <c r="T39" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0000000002795559E-6</v>
+      </c>
+      <c r="U39" s="1">
         <f t="shared" si="2"/>
-        <v>2.0000000002795559E-6</v>
-      </c>
-      <c r="U39" s="1">
-        <f t="shared" si="3"/>
         <v>-2.0000000002795559E-6</v>
       </c>
     </row>
@@ -2785,11 +2842,11 @@
         <v>-1.0000000003410059E-9</v>
       </c>
       <c r="T40" s="1">
+        <f t="shared" si="3"/>
+        <v>5.9999999999504894E-6</v>
+      </c>
+      <c r="U40" s="1">
         <f t="shared" si="2"/>
-        <v>5.9999999999504894E-6</v>
-      </c>
-      <c r="U40" s="1">
-        <f t="shared" si="3"/>
         <v>-6.0000000003945786E-6</v>
       </c>
     </row>
@@ -2842,11 +2899,11 @@
         <v>4.999999999970306E-9</v>
       </c>
       <c r="T41" s="1">
+        <f t="shared" si="3"/>
+        <v>5.9999999999504894E-6</v>
+      </c>
+      <c r="U41" s="1">
         <f t="shared" si="2"/>
-        <v>5.9999999999504894E-6</v>
-      </c>
-      <c r="U41" s="1">
-        <f t="shared" si="3"/>
         <v>-5.9999999999504894E-6</v>
       </c>
     </row>
@@ -2899,11 +2956,11 @@
         <v>6.0000000003113119E-9</v>
       </c>
       <c r="T42" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U42" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2956,11 +3013,11 @@
         <v>-3.0000000001556559E-9</v>
       </c>
       <c r="T43" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.9999999995311555E-6</v>
+      </c>
+      <c r="U43" s="1">
         <f t="shared" si="2"/>
-        <v>-2.9999999995311555E-6</v>
-      </c>
-      <c r="U43" s="1">
-        <f t="shared" si="3"/>
         <v>2.9999999995311555E-6</v>
       </c>
     </row>
@@ -3013,11 +3070,11 @@
         <v>4.000000000062981E-9</v>
       </c>
       <c r="T44" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9999999998107114E-6</v>
+      </c>
+      <c r="U44" s="1">
         <f t="shared" si="2"/>
-        <v>4.9999999998107114E-6</v>
-      </c>
-      <c r="U44" s="1">
-        <f t="shared" si="3"/>
         <v>-4.9999999998107114E-6</v>
       </c>
     </row>
@@ -3070,11 +3127,11 @@
         <v>-9.9999999990732502E-10</v>
       </c>
       <c r="T45" s="1">
+        <f t="shared" si="3"/>
+        <v>1.000000000139778E-6</v>
+      </c>
+      <c r="U45" s="1">
         <f t="shared" si="2"/>
-        <v>1.000000000139778E-6</v>
-      </c>
-      <c r="U45" s="1">
-        <f t="shared" si="3"/>
         <v>-1.000000000139778E-6</v>
       </c>
     </row>
@@ -3127,11 +3184,11 @@
         <v>-3.0000000001556559E-9</v>
       </c>
       <c r="T46" s="1">
+        <f t="shared" si="3"/>
+        <v>3.9999999996709334E-6</v>
+      </c>
+      <c r="U46" s="1">
         <f t="shared" si="2"/>
-        <v>3.9999999996709334E-6</v>
-      </c>
-      <c r="U46" s="1">
-        <f t="shared" si="3"/>
         <v>-3.9999999996709334E-6</v>
       </c>
     </row>
@@ -3184,11 +3241,11 @@
         <v>1.99999999981465E-9</v>
       </c>
       <c r="T47" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U47" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3241,11 +3298,11 @@
         <v>-1.99999999981465E-9</v>
       </c>
       <c r="T48" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.0000000004193339E-6</v>
+      </c>
+      <c r="U48" s="1">
         <f t="shared" si="2"/>
-        <v>-3.0000000004193339E-6</v>
-      </c>
-      <c r="U48" s="1">
-        <f t="shared" si="3"/>
         <v>3.0000000004193339E-6</v>
       </c>
     </row>
@@ -3298,11 +3355,11 @@
         <v>-1.99999999981465E-9</v>
       </c>
       <c r="T49" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0000000002795559E-6</v>
+      </c>
+      <c r="U49" s="1">
         <f t="shared" si="2"/>
-        <v>2.0000000002795559E-6</v>
-      </c>
-      <c r="U49" s="1">
-        <f t="shared" si="3"/>
         <v>-2.0000000002795559E-6</v>
       </c>
     </row>
@@ -3355,11 +3412,11 @@
         <v>4.999999999970306E-9</v>
       </c>
       <c r="T50" s="1">
+        <f t="shared" si="3"/>
+        <v>1.000000000139778E-6</v>
+      </c>
+      <c r="U50" s="1">
         <f t="shared" si="2"/>
-        <v>1.000000000139778E-6</v>
-      </c>
-      <c r="U50" s="1">
-        <f t="shared" si="3"/>
         <v>-1.000000000139778E-6</v>
       </c>
     </row>
@@ -3412,11 +3469,11 @@
         <v>2.0000000002483309E-9</v>
       </c>
       <c r="T51" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U51" s="1">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3469,11 +3526,11 @@
         <v>1.99999999981465E-9</v>
       </c>
       <c r="T52" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9999999998107114E-6</v>
+      </c>
+      <c r="U52" s="1">
         <f t="shared" si="2"/>
-        <v>4.9999999998107114E-6</v>
-      </c>
-      <c r="U52" s="1">
-        <f t="shared" si="3"/>
         <v>-4.9999999998107114E-6</v>
       </c>
     </row>
@@ -3526,11 +3583,11 @@
         <v>-1.99999999981465E-9</v>
       </c>
       <c r="T53" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0000000002795559E-6</v>
+      </c>
+      <c r="U53" s="1">
         <f t="shared" si="2"/>
-        <v>2.0000000002795559E-6</v>
-      </c>
-      <c r="U53" s="1">
-        <f t="shared" si="3"/>
         <v>-2.0000000002795559E-6</v>
       </c>
     </row>
@@ -3583,11 +3640,11 @@
         <v>2.0000000002483309E-9</v>
       </c>
       <c r="T54" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.9999999995311555E-6</v>
+      </c>
+      <c r="U54" s="1">
         <f t="shared" si="2"/>
-        <v>-2.9999999995311555E-6</v>
-      </c>
-      <c r="U54" s="1">
-        <f t="shared" si="3"/>
         <v>2.9999999995311555E-6</v>
       </c>
     </row>
@@ -3640,11 +3697,11 @@
         <v>5.999999999877631E-9</v>
       </c>
       <c r="T55" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9999999998107114E-6</v>
+      </c>
+      <c r="U55" s="1">
         <f t="shared" si="2"/>
-        <v>4.9999999998107114E-6</v>
-      </c>
-      <c r="U55" s="1">
-        <f t="shared" si="3"/>
         <v>-4.9999999998107114E-6</v>
       </c>
     </row>
@@ -3697,11 +3754,11 @@
         <v>1.99999999981465E-9</v>
       </c>
       <c r="T56" s="1">
+        <f t="shared" si="3"/>
+        <v>1.000000000139778E-6</v>
+      </c>
+      <c r="U56" s="1">
         <f t="shared" si="2"/>
-        <v>1.000000000139778E-6</v>
-      </c>
-      <c r="U56" s="1">
-        <f t="shared" si="3"/>
         <v>-1.000000000139778E-6</v>
       </c>
     </row>
@@ -3754,11 +3811,11 @@
         <v>3.0000000001556559E-9</v>
       </c>
       <c r="T57" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.000000000139778E-6</v>
+      </c>
+      <c r="U57" s="1">
         <f t="shared" si="2"/>
-        <v>-1.000000000139778E-6</v>
-      </c>
-      <c r="U57" s="1">
-        <f t="shared" si="3"/>
         <v>1.000000000139778E-6</v>
       </c>
     </row>
@@ -3811,11 +3868,11 @@
         <v>0</v>
       </c>
       <c r="T58" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9999999998107114E-6</v>
+      </c>
+      <c r="U58" s="1">
         <f t="shared" si="2"/>
-        <v>4.9999999998107114E-6</v>
-      </c>
-      <c r="U58" s="1">
-        <f t="shared" si="3"/>
         <v>-4.9999999998107114E-6</v>
       </c>
     </row>
@@ -3868,11 +3925,11 @@
         <v>4.999999999970306E-9</v>
       </c>
       <c r="T59" s="1">
+        <f t="shared" si="3"/>
+        <v>2.9999999999752447E-6</v>
+      </c>
+      <c r="U59" s="1">
         <f t="shared" si="2"/>
-        <v>2.9999999999752447E-6</v>
-      </c>
-      <c r="U59" s="1">
-        <f t="shared" si="3"/>
         <v>-2.9999999995311555E-6</v>
       </c>
     </row>
@@ -3925,11 +3982,11 @@
         <v>-2.0000000002483309E-9</v>
       </c>
       <c r="T60" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.9999999999752447E-6</v>
+      </c>
+      <c r="U60" s="1">
         <f t="shared" si="2"/>
-        <v>-2.9999999999752447E-6</v>
-      </c>
-      <c r="U60" s="1">
-        <f t="shared" si="3"/>
         <v>3.0000000004193339E-6</v>
       </c>
     </row>
@@ -3982,11 +4039,11 @@
         <v>9.9999999990732502E-10</v>
       </c>
       <c r="T61" s="1">
+        <f t="shared" si="3"/>
+        <v>9.9999999969568876E-7</v>
+      </c>
+      <c r="U61" s="1">
         <f t="shared" si="2"/>
-        <v>9.9999999969568876E-7</v>
-      </c>
-      <c r="U61" s="1">
-        <f t="shared" si="3"/>
         <v>-1.000000000139778E-6</v>
       </c>
     </row>
@@ -4039,11 +4096,11 @@
         <v>4.999999999970306E-9</v>
       </c>
       <c r="T62" s="1">
+        <f t="shared" si="3"/>
+        <v>-9.9999999969568876E-7</v>
+      </c>
+      <c r="U62" s="1">
         <f t="shared" si="2"/>
-        <v>-9.9999999969568876E-7</v>
-      </c>
-      <c r="U62" s="1">
-        <f t="shared" si="3"/>
         <v>1.000000000139778E-6</v>
       </c>
     </row>
@@ -4096,11 +4153,11 @@
         <v>9.9999999990732502E-10</v>
       </c>
       <c r="T63" s="1">
+        <f t="shared" si="3"/>
+        <v>2.9999999999752447E-6</v>
+      </c>
+      <c r="U63" s="1">
         <f t="shared" si="2"/>
-        <v>2.9999999999752447E-6</v>
-      </c>
-      <c r="U63" s="1">
-        <f t="shared" si="3"/>
         <v>-3.0000000004193339E-6</v>
       </c>
     </row>
@@ -4153,11 +4210,11 @@
         <v>-9.9999999990732502E-10</v>
       </c>
       <c r="T64" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.000000000139778E-6</v>
+      </c>
+      <c r="U64" s="1">
         <f t="shared" si="2"/>
-        <v>-1.000000000139778E-6</v>
-      </c>
-      <c r="U64" s="1">
-        <f t="shared" si="3"/>
         <v>9.9999999925159955E-7</v>
       </c>
     </row>
@@ -4210,11 +4267,11 @@
         <v>0</v>
       </c>
       <c r="T65" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.0000000002795559E-6</v>
+      </c>
+      <c r="U65" s="1">
         <f t="shared" si="2"/>
-        <v>-2.0000000002795559E-6</v>
-      </c>
-      <c r="U65" s="1">
-        <f t="shared" si="3"/>
         <v>1.9999999993913775E-6</v>
       </c>
     </row>
@@ -4267,11 +4324,11 @@
         <v>4.999999999970306E-9</v>
       </c>
       <c r="T66" s="1">
+        <f t="shared" si="3"/>
+        <v>2.9999999999752447E-6</v>
+      </c>
+      <c r="U66" s="1">
         <f t="shared" si="2"/>
-        <v>2.9999999999752447E-6</v>
-      </c>
-      <c r="U66" s="1">
-        <f t="shared" si="3"/>
         <v>-3.0000000004193339E-6</v>
       </c>
     </row>
@@ -4324,11 +4381,11 @@
         <v>3.0000000001556559E-9</v>
       </c>
       <c r="T67" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.0000000002795559E-6</v>
+      </c>
+      <c r="U67" s="1">
         <f t="shared" si="2"/>
-        <v>-2.0000000002795559E-6</v>
-      </c>
-      <c r="U67" s="1">
-        <f t="shared" si="3"/>
         <v>2.0000000002795559E-6</v>
       </c>
     </row>
@@ -4381,11 +4438,11 @@
         <v>4.000000000062981E-9</v>
       </c>
       <c r="T68" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9999999998107114E-6</v>
+      </c>
+      <c r="U68" s="1">
         <f t="shared" si="2"/>
-        <v>4.9999999998107114E-6</v>
-      </c>
-      <c r="U68" s="1">
-        <f t="shared" si="3"/>
         <v>-5.0000000006988898E-6</v>
       </c>
     </row>
@@ -29234,2572 +29291,4227 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:R53"/>
+  <dimension ref="A2:AC54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
     <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.42578125" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="4"/>
     <col min="18" max="18" width="11.42578125" style="1"/>
+    <col min="19" max="20" width="5.140625" customWidth="1"/>
+    <col min="21" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
-      <c r="B2" t="s">
+    <row r="2" spans="1:29" ht="21">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="8"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L3" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N3" t="s">
         <v>11</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O3" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="2:18">
-      <c r="B3">
+      <c r="T3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>9</v>
       </c>
-      <c r="F3">
+      <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1250</v>
-      </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3">
-        <v>9</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>5.1999999999999995E-4</v>
-      </c>
-      <c r="O3">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="Q3" s="1">
-        <f>F3-M3</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <f>E3-K3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="B4">
-        <v>0.1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>6.6734599999999998E-4</v>
-      </c>
-      <c r="D4">
-        <v>6.1733100000000004E-3</v>
-      </c>
-      <c r="E4">
-        <v>7.7166399999999999</v>
-      </c>
-      <c r="F4">
-        <v>1.2833600000000001</v>
-      </c>
-      <c r="H4">
-        <v>0.1</v>
-      </c>
-      <c r="I4">
-        <v>6.673464E-4</v>
       </c>
       <c r="J4">
         <v>1250</v>
       </c>
       <c r="K4">
-        <v>7.7137010000000004</v>
+        <v>9</v>
       </c>
       <c r="L4">
         <v>9</v>
       </c>
-      <c r="M4">
-        <v>1.2862990000000001</v>
+      <c r="M4" s="4">
+        <v>0</v>
       </c>
       <c r="N4">
         <v>5.1999999999999995E-4</v>
       </c>
       <c r="O4">
-        <v>6.1709599999999996E-3</v>
-      </c>
-      <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q53" si="0">F4-M4</f>
-        <v>-2.9390000000000249E-3</v>
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>F4-M4</f>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" ref="R4:R53" si="1">E4-K4</f>
-        <v>2.9389999999995808E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18">
-      <c r="B5">
-        <v>0.2</v>
-      </c>
-      <c r="C5">
-        <v>1.23953E-3</v>
+        <f>E4-K4</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>6.1709603999999998E-4</v>
+      </c>
+      <c r="V4">
+        <v>6.6734638099999997E-4</v>
+      </c>
+      <c r="W4">
+        <v>1.2833584258249999</v>
+      </c>
+      <c r="X4">
+        <v>7.7166415741750001</v>
+      </c>
+      <c r="Z4" s="4">
+        <f>F4-W4</f>
+        <v>-1.2833584258249999</v>
+      </c>
+      <c r="AA4">
+        <f>E4-X4</f>
+        <v>1.2833584258249999</v>
+      </c>
+      <c r="AB4">
+        <f>D4-U4</f>
+        <v>6.5829039599999998E-3</v>
+      </c>
+      <c r="AC4">
+        <f>C4-V4</f>
+        <v>-6.6734638099999997E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6.6734599999999998E-4</v>
       </c>
       <c r="D5">
-        <v>5.2930299999999998E-3</v>
+        <v>6.1733100000000004E-3</v>
       </c>
       <c r="E5">
-        <v>6.6162799999999997</v>
-      </c>
-      <c r="F5">
-        <v>2.3837199999999998</v>
+        <v>7.7166399999999999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.2833600000000001</v>
       </c>
       <c r="H5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I5">
-        <v>1.239532E-3</v>
+        <v>6.673464E-4</v>
       </c>
       <c r="J5">
         <v>1250</v>
       </c>
       <c r="K5">
-        <v>6.6137620000000004</v>
+        <v>7.7137010000000004</v>
       </c>
       <c r="L5">
         <v>9</v>
       </c>
-      <c r="M5">
-        <v>2.3862380000000001</v>
+      <c r="M5" s="4">
+        <v>1.2862990000000001</v>
       </c>
       <c r="N5">
         <v>5.1999999999999995E-4</v>
       </c>
       <c r="O5">
+        <v>6.1709599999999996E-3</v>
+      </c>
+      <c r="Q5" s="4">
+        <f t="shared" ref="Q5:Q54" si="0">F5-M5</f>
+        <v>-2.9390000000000249E-3</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" ref="R5:R54" si="1">E5-K5</f>
+        <v>2.9389999999995808E-3</v>
+      </c>
+      <c r="T5">
+        <v>0.1</v>
+      </c>
+      <c r="U5">
+        <v>5.2910099500000005E-4</v>
+      </c>
+      <c r="V5">
+        <v>1.2395322520000001E-3</v>
+      </c>
+      <c r="W5">
+        <v>2.3837158684130002</v>
+      </c>
+      <c r="X5">
+        <v>6.6162841315870002</v>
+      </c>
+      <c r="Z5" s="4">
+        <f>F5-W5</f>
+        <v>-1.1003558684130001</v>
+      </c>
+      <c r="AA5">
+        <f>E5-X5</f>
+        <v>1.1003558684129997</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" ref="AB5:AB54" si="2">D5-U5</f>
+        <v>5.6442090050000003E-3</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" ref="AC5:AC54" si="3">C5-V5</f>
+        <v>-5.721862520000001E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="B6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
+        <v>1.23953E-3</v>
+      </c>
+      <c r="D6">
+        <v>5.2930299999999998E-3</v>
+      </c>
+      <c r="E6">
+        <v>6.6162799999999997</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.3837199999999998</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+      <c r="I6">
+        <v>1.239532E-3</v>
+      </c>
+      <c r="J6">
+        <v>1250</v>
+      </c>
+      <c r="K6">
+        <v>6.6137620000000004</v>
+      </c>
+      <c r="L6">
+        <v>9</v>
+      </c>
+      <c r="M6" s="4">
+        <v>2.3862380000000001</v>
+      </c>
+      <c r="N6">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="O6">
         <v>5.2910099999999996E-3</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q6" s="4">
         <f t="shared" si="0"/>
         <v>-2.5180000000002423E-3</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R6" s="1">
         <f t="shared" si="1"/>
         <v>2.5179999999993541E-3</v>
       </c>
-    </row>
-    <row r="6" spans="2:18">
-      <c r="B6">
+      <c r="T6">
+        <v>0.2</v>
+      </c>
+      <c r="U6">
+        <v>4.5365363699999999E-4</v>
+      </c>
+      <c r="V6">
+        <v>1.7301270599999999E-3</v>
+      </c>
+      <c r="W6">
+        <v>3.3271674226269998</v>
+      </c>
+      <c r="X6">
+        <v>5.6728325773729997</v>
+      </c>
+      <c r="Z6" s="4">
+        <f>F6-W6</f>
+        <v>-0.94344742262699999</v>
+      </c>
+      <c r="AA6">
+        <f>E6-X6</f>
+        <v>0.94344742262699999</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="2"/>
+        <v>4.8393763630000001E-3</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="3"/>
+        <v>-4.9059705999999993E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="B7" s="3">
         <v>0.3</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>1.7301300000000001E-3</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>4.5382699999999996E-3</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>5.6728300000000003</v>
       </c>
-      <c r="F6">
+      <c r="F7" s="4">
         <v>3.3271700000000002</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>0.3</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>1.7301269999999999E-3</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>1250</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>5.6706700000000003</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>9</v>
       </c>
-      <c r="M6">
+      <c r="M7" s="4">
         <v>3.3293300000000001</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O6">
+      <c r="O7">
         <v>4.5365359999999999E-3</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q7" s="4">
         <f t="shared" si="0"/>
         <v>-2.1599999999999397E-3</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R7" s="1">
         <f t="shared" si="1"/>
         <v>2.1599999999999397E-3</v>
       </c>
-    </row>
-    <row r="7" spans="2:18">
-      <c r="B7">
+      <c r="T7">
+        <v>0.3</v>
+      </c>
+      <c r="U7">
+        <v>3.8896472399999998E-4</v>
+      </c>
+      <c r="V7">
+        <v>2.1507653149999998E-3</v>
+      </c>
+      <c r="W7">
+        <v>4.1360871433459998</v>
+      </c>
+      <c r="X7">
+        <v>4.8639128566540002</v>
+      </c>
+      <c r="Z7" s="4">
+        <f>F7-W7</f>
+        <v>-0.80891714334599962</v>
+      </c>
+      <c r="AA7">
+        <f>E7-X7</f>
+        <v>0.80891714334600007</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="2"/>
+        <v>4.1493052759999996E-3</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="3"/>
+        <v>-4.2063531499999976E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="B8" s="3">
         <v>0.4</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>2.1507700000000002E-3</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>3.89113E-3</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>4.8639099999999997</v>
       </c>
-      <c r="F7">
+      <c r="F8" s="4">
         <v>4.1360900000000003</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>0.4</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>2.1507649999999998E-3</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>1250</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>4.8620590000000004</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>9</v>
       </c>
-      <c r="M7">
+      <c r="M8" s="4">
         <v>4.1379409999999996</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O7">
+      <c r="O8">
         <v>3.889647E-3</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q8" s="4">
         <f t="shared" si="0"/>
         <v>-1.8509999999993809E-3</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R8" s="1">
         <f t="shared" si="1"/>
         <v>1.8509999999993809E-3</v>
       </c>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8">
+      <c r="T8">
+        <v>0.4</v>
+      </c>
+      <c r="U8">
+        <v>3.3350015100000002E-4</v>
+      </c>
+      <c r="V8">
+        <v>2.5114224969999999E-3</v>
+      </c>
+      <c r="W8">
+        <v>4.8296586485760002</v>
+      </c>
+      <c r="X8">
+        <v>4.1703413514239998</v>
+      </c>
+      <c r="Z8" s="4">
+        <f>F8-W8</f>
+        <v>-0.69356864857599998</v>
+      </c>
+      <c r="AA8">
+        <f>E8-X8</f>
+        <v>0.69356864857599998</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="2"/>
+        <v>3.5576298490000002E-3</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="3"/>
+        <v>-3.6065249699999968E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="B9" s="3">
         <v>0.5</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>2.5114199999999999E-3</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>3.3362700000000001E-3</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>4.1703400000000004</v>
       </c>
-      <c r="F8">
+      <c r="F9" s="4">
         <v>4.8296599999999996</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>0.5</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>2.5114220000000001E-3</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>1250</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>4.1687519999999996</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>9</v>
       </c>
-      <c r="M8">
+      <c r="M9" s="4">
         <v>4.8312480000000004</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O8">
+      <c r="O9">
         <v>3.3350020000000001E-3</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q9" s="4">
         <f t="shared" si="0"/>
         <v>-1.588000000000811E-3</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R9" s="1">
         <f t="shared" si="1"/>
         <v>1.588000000000811E-3</v>
       </c>
-    </row>
-    <row r="9" spans="2:18">
-      <c r="B9">
+      <c r="T9">
+        <v>0.5</v>
+      </c>
+      <c r="U9">
+        <v>2.8594457E-4</v>
+      </c>
+      <c r="V9">
+        <v>2.8206516320000001E-3</v>
+      </c>
+      <c r="W9">
+        <v>5.4243300610110001</v>
+      </c>
+      <c r="X9">
+        <v>3.5756699389889999</v>
+      </c>
+      <c r="Z9" s="4">
+        <f>F9-W9</f>
+        <v>-0.59467006101100051</v>
+      </c>
+      <c r="AA9">
+        <f>E9-X9</f>
+        <v>0.59467006101100051</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="2"/>
+        <v>3.05032543E-3</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="3"/>
+        <v>-3.0923163200000017E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="B10" s="3">
         <v>0.6</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>2.8206500000000001E-3</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>2.86054E-3</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>3.5756700000000001</v>
       </c>
-      <c r="F9">
+      <c r="F10" s="4">
         <v>5.4243300000000003</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>0.6</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>2.8206519999999999E-3</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>1250</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>3.5743070000000001</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>9</v>
       </c>
-      <c r="M9">
+      <c r="M10" s="4">
         <v>5.4256929999999999</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O9">
+      <c r="O10">
         <v>2.8594459999999999E-3</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q10" s="4">
         <f t="shared" si="0"/>
         <v>-1.362999999999559E-3</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R10" s="1">
         <f t="shared" si="1"/>
         <v>1.3630000000000031E-3</v>
       </c>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="B10">
+      <c r="T10">
+        <v>0.6</v>
+      </c>
+      <c r="U10">
+        <v>2.4517019599999999E-4</v>
+      </c>
+      <c r="V10">
+        <v>3.08578612E-3</v>
+      </c>
+      <c r="W10">
+        <v>5.9342040770300004</v>
+      </c>
+      <c r="X10">
+        <v>3.06579592297</v>
+      </c>
+      <c r="Z10" s="4">
+        <f>F10-W10</f>
+        <v>-0.50987407703000009</v>
+      </c>
+      <c r="AA10">
+        <f>E10-X10</f>
+        <v>0.50987407703000009</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="2"/>
+        <v>2.615369804E-3</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="3"/>
+        <v>-2.6513611999999997E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="B11" s="3">
         <v>0.7</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>3.0857900000000001E-3</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>2.4526399999999999E-3</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>3.0657999999999999</v>
       </c>
-      <c r="F10">
+      <c r="F11" s="4">
         <v>5.9341999999999997</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>0.7</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>3.0857860000000001E-3</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>1250</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>3.0646270000000002</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>9</v>
       </c>
-      <c r="M10">
+      <c r="M11" s="4">
         <v>5.9353730000000002</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O10">
+      <c r="O11">
         <v>2.451702E-3</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q11" s="4">
         <f t="shared" si="0"/>
         <v>-1.1730000000005347E-3</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R11" s="1">
         <f t="shared" si="1"/>
         <v>1.1729999999996465E-3</v>
       </c>
-    </row>
-    <row r="11" spans="2:18">
-      <c r="B11">
+      <c r="T11">
+        <v>0.7</v>
+      </c>
+      <c r="U11">
+        <v>2.1021005799999999E-4</v>
+      </c>
+      <c r="V11">
+        <v>3.3131136549999999E-3</v>
+      </c>
+      <c r="W11">
+        <v>6.3713724136529999</v>
+      </c>
+      <c r="X11">
+        <v>2.6286275863470001</v>
+      </c>
+      <c r="Z11" s="4">
+        <f>F11-W11</f>
+        <v>-0.43717241365300019</v>
+      </c>
+      <c r="AA11">
+        <f>E11-X11</f>
+        <v>0.43717241365299975</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="2"/>
+        <v>2.2424299419999999E-3</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="3"/>
+        <v>-2.2732365499999975E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="B12" s="3">
         <v>0.8</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>3.3131100000000002E-3</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>2.1029E-3</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>2.6286299999999998</v>
       </c>
-      <c r="F11">
+      <c r="F12" s="4">
         <v>6.3713699999999998</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>0.8</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>3.3131139999999998E-3</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>1250</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>2.6276259999999998</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>9</v>
       </c>
-      <c r="M11">
+      <c r="M12" s="4">
         <v>6.3723739999999998</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O11">
+      <c r="O12">
         <v>2.1021009999999999E-3</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q12" s="4">
         <f t="shared" si="0"/>
         <v>-1.0040000000000049E-3</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R12" s="1">
         <f t="shared" si="1"/>
         <v>1.0040000000000049E-3</v>
       </c>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12">
+      <c r="T12">
+        <v>0.8</v>
+      </c>
+      <c r="U12">
+        <v>1.80235075E-4</v>
+      </c>
+      <c r="V12">
+        <v>3.5080253340000001E-3</v>
+      </c>
+      <c r="W12">
+        <v>6.7462025649079997</v>
+      </c>
+      <c r="X12">
+        <v>2.2537974350919998</v>
+      </c>
+      <c r="Z12" s="4">
+        <f>F12-W12</f>
+        <v>-0.37483256490799999</v>
+      </c>
+      <c r="AA12">
+        <f>E12-X12</f>
+        <v>0.37483256490799999</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="2"/>
+        <v>1.9226649249999999E-3</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="3"/>
+        <v>-1.949153339999999E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="B13" s="3">
         <v>0.9</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>3.5080300000000001E-3</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>1.8030399999999999E-3</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>2.2538</v>
       </c>
-      <c r="F12">
+      <c r="F13" s="4">
         <v>6.7462</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>0.9</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>3.5080250000000001E-3</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>1250</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>2.2529379999999999</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>9</v>
       </c>
-      <c r="M12">
+      <c r="M13" s="4">
         <v>6.7470619999999997</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O12">
+      <c r="O13">
         <v>1.802351E-3</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q13" s="4">
         <f t="shared" si="0"/>
         <v>-8.6199999999969634E-4</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R13" s="1">
         <f t="shared" si="1"/>
         <v>8.6200000000014043E-4</v>
       </c>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13">
+      <c r="T13">
+        <v>0.9</v>
+      </c>
+      <c r="U13">
+        <v>1.5453438600000001E-4</v>
+      </c>
+      <c r="V13">
+        <v>3.6751435070000002E-3</v>
+      </c>
+      <c r="W13">
+        <v>7.0675836680669999</v>
+      </c>
+      <c r="X13">
+        <v>1.9324163319330001</v>
+      </c>
+      <c r="Z13" s="4">
+        <f>F13-W13</f>
+        <v>-0.32138366806699992</v>
+      </c>
+      <c r="AA13">
+        <f>E13-X13</f>
+        <v>0.32138366806699992</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="2"/>
+        <v>1.6485056139999999E-3</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="3"/>
+        <v>-1.6711350700000013E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>3.6751399999999999E-3</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>1.54593E-3</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>1.93242</v>
       </c>
-      <c r="F13">
+      <c r="F14" s="4">
         <v>7.0675800000000004</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>1</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>3.675144E-3</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>1250</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>1.9316800000000001</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>9</v>
       </c>
-      <c r="M13">
+      <c r="M14" s="4">
         <v>7.0683199999999999</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O13">
+      <c r="O14">
         <v>1.5453439999999999E-3</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q14" s="4">
         <f t="shared" si="0"/>
         <v>-7.3999999999951882E-4</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R14" s="1">
         <f t="shared" si="1"/>
         <v>7.3999999999996291E-4</v>
       </c>
-    </row>
-    <row r="14" spans="2:18">
-      <c r="B14">
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1.3249849599999999E-4</v>
+      </c>
+      <c r="V14">
+        <v>3.8184314009999999E-3</v>
+      </c>
+      <c r="W14">
+        <v>7.3431373104880002</v>
+      </c>
+      <c r="X14">
+        <v>1.656862689512</v>
+      </c>
+      <c r="Z14" s="4">
+        <f>F14-W14</f>
+        <v>-0.27555731048799981</v>
+      </c>
+      <c r="AA14">
+        <f>E14-X14</f>
+        <v>0.27555731048800003</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="2"/>
+        <v>1.4134315040000001E-3</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="3"/>
+        <v>-1.4329140099999995E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="B15" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>3.8184299999999998E-3</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>1.3254899999999999E-3</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>1.65686</v>
       </c>
-      <c r="F14">
+      <c r="F15" s="4">
         <v>7.34314</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>3.8184310000000002E-3</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>1250</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>1.656231</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>9</v>
       </c>
-      <c r="M14">
+      <c r="M15" s="4">
         <v>7.343769</v>
       </c>
-      <c r="N14">
+      <c r="N15">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O14">
+      <c r="O15">
         <v>1.3249850000000001E-3</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q15" s="4">
         <f t="shared" si="0"/>
         <v>-6.2899999999999068E-4</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R15" s="1">
         <f t="shared" si="1"/>
         <v>6.2899999999999068E-4</v>
       </c>
-    </row>
-    <row r="15" spans="2:18">
-      <c r="B15">
+      <c r="T15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U15">
+        <v>1.13604823E-4</v>
+      </c>
+      <c r="V15">
+        <v>3.9412871040000004E-3</v>
+      </c>
+      <c r="W15">
+        <v>7.579398276379</v>
+      </c>
+      <c r="X15">
+        <v>1.420601723621</v>
+      </c>
+      <c r="Z15" s="4">
+        <f>F15-W15</f>
+        <v>-0.23625827637899999</v>
+      </c>
+      <c r="AA15">
+        <f>E15-X15</f>
+        <v>0.23625827637899999</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="2"/>
+        <v>1.2118851769999999E-3</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="3"/>
+        <v>-1.2285710400000054E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="B16" s="3">
         <v>1.2</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>3.9412900000000001E-3</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>1.13648E-3</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>1.4206000000000001</v>
       </c>
-      <c r="F15">
+      <c r="F16" s="4">
         <v>7.5793999999999997</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>1.2</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>3.9412869999999999E-3</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>1250</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>1.4200600000000001</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>9</v>
       </c>
-      <c r="M15">
+      <c r="M16" s="4">
         <v>7.5799399999999997</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O15">
+      <c r="O16">
         <v>1.136048E-3</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q16" s="4">
         <f t="shared" si="0"/>
         <v>-5.3999999999998494E-4</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R16" s="1">
         <f t="shared" si="1"/>
         <v>5.3999999999998494E-4</v>
       </c>
-    </row>
-    <row r="16" spans="2:18">
-      <c r="B16">
+      <c r="T16">
+        <v>1.2</v>
+      </c>
+      <c r="U16">
+        <v>9.7405300000000001E-5</v>
+      </c>
+      <c r="V16">
+        <v>4.0466241499999998E-3</v>
+      </c>
+      <c r="W16">
+        <v>7.7819695199070003</v>
+      </c>
+      <c r="X16">
+        <v>1.218030480093</v>
+      </c>
+      <c r="Z16" s="4">
+        <f>F16-W16</f>
+        <v>-0.20256951990700056</v>
+      </c>
+      <c r="AA16">
+        <f>E16-X16</f>
+        <v>0.20256951990700012</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="2"/>
+        <v>1.0390747000000001E-3</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="3"/>
+        <v>-1.0533414999999973E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29">
+      <c r="B17" s="3">
         <v>1.3</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>4.0466199999999999E-3</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="2">
         <v>9.7442399999999999E-4</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>1.2180299999999999</v>
       </c>
-      <c r="F16">
+      <c r="F17" s="4">
         <v>7.7819700000000003</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>1.3</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>4.0466240000000004E-3</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>1250</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <v>1.2175659999999999</v>
       </c>
-      <c r="L16">
+      <c r="L17">
         <v>9</v>
       </c>
-      <c r="M16">
+      <c r="M17" s="4">
         <v>7.7824340000000003</v>
       </c>
-      <c r="N16">
+      <c r="N17">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O16">
+      <c r="O17">
         <v>9.7405300000000001E-4</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q17" s="4">
         <f t="shared" si="0"/>
         <v>-4.6400000000001995E-4</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R17" s="1">
         <f t="shared" si="1"/>
         <v>4.6400000000001995E-4</v>
       </c>
-    </row>
-    <row r="17" spans="2:18">
-      <c r="B17">
+      <c r="T17">
+        <v>1.3</v>
+      </c>
+      <c r="U17">
+        <v>8.3515753999999998E-5</v>
+      </c>
+      <c r="V17">
+        <v>4.1369406210000001E-3</v>
+      </c>
+      <c r="W17">
+        <v>7.9556550398560004</v>
+      </c>
+      <c r="X17">
+        <v>1.044344960144</v>
+      </c>
+      <c r="Z17" s="4">
+        <f>F17-W17</f>
+        <v>-0.17368503985600015</v>
+      </c>
+      <c r="AA17">
+        <f>E17-X17</f>
+        <v>0.17368503985599992</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="2"/>
+        <v>8.9090824600000004E-4</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="3"/>
+        <v>-9.0320621000000191E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29">
+      <c r="B18" s="3">
         <v>1.4</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>4.1369400000000004E-3</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>8.3547600000000004E-4</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>1.04434</v>
       </c>
-      <c r="F17">
+      <c r="F18" s="4">
         <v>7.95566</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>1.4</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>4.1369409999999999E-3</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>1250</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>1.043947</v>
       </c>
-      <c r="L17">
+      <c r="L18">
         <v>9</v>
       </c>
-      <c r="M17">
+      <c r="M18" s="4">
         <v>7.9560529999999998</v>
       </c>
-      <c r="N17">
+      <c r="N18">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O17">
+      <c r="O18">
         <v>8.3515749999999995E-4</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q18" s="4">
         <f t="shared" si="0"/>
         <v>-3.9299999999986568E-4</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R18" s="1">
         <f t="shared" si="1"/>
         <v>3.9300000000008772E-4</v>
       </c>
-    </row>
-    <row r="18" spans="2:18">
-      <c r="B18">
+      <c r="T18">
+        <v>1.4</v>
+      </c>
+      <c r="U18">
+        <v>7.1606792999999994E-5</v>
+      </c>
+      <c r="V18">
+        <v>4.2143783799999997E-3</v>
+      </c>
+      <c r="W18">
+        <v>8.1045738069750008</v>
+      </c>
+      <c r="X18">
+        <v>0.89542619302500004</v>
+      </c>
+      <c r="Z18" s="4">
+        <f>F18-W18</f>
+        <v>-0.1489138069750009</v>
+      </c>
+      <c r="AA18">
+        <f>E18-X18</f>
+        <v>0.14891380697500001</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="2"/>
+        <v>7.6386920700000007E-4</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="3"/>
+        <v>-7.7438379999999335E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29">
+      <c r="B19" s="3">
         <v>1.5</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>4.2143800000000002E-3</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="2">
         <v>7.16341E-4</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>0.89542600000000006</v>
       </c>
-      <c r="F18">
+      <c r="F19" s="4">
         <v>8.1045700000000007</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>1.5</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>4.2143780000000004E-3</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>1250</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>0.89508489999999996</v>
       </c>
-      <c r="L18">
+      <c r="L19">
         <v>9</v>
       </c>
-      <c r="M18">
+      <c r="M19" s="4">
         <v>8.1049150000000001</v>
       </c>
-      <c r="N18">
+      <c r="N19">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O18">
+      <c r="O19">
         <v>7.1606790000000001E-4</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q19" s="4">
         <f t="shared" si="0"/>
         <v>-3.4499999999937359E-4</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R19" s="1">
         <f t="shared" si="1"/>
         <v>3.4110000000009411E-4</v>
       </c>
-    </row>
-    <row r="19" spans="2:18">
-      <c r="B19">
+      <c r="T19">
+        <v>1.5</v>
+      </c>
+      <c r="U19">
+        <v>6.1395994999999999E-5</v>
+      </c>
+      <c r="V19">
+        <v>4.2807738719999999E-3</v>
+      </c>
+      <c r="W19">
+        <v>8.2322574458109994</v>
+      </c>
+      <c r="X19">
+        <v>0.76774255418899995</v>
+      </c>
+      <c r="Z19" s="4">
+        <f>F19-W19</f>
+        <v>-0.12768744581099867</v>
+      </c>
+      <c r="AA19">
+        <f>E19-X19</f>
+        <v>0.12768344581100011</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="2"/>
+        <v>6.5494500499999996E-4</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="3"/>
+        <v>-6.6393871999999646E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29">
+      <c r="B20" s="3">
         <v>1.6</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>4.2807699999999997E-3</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="2">
         <v>6.1419399999999998E-4</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>0.76774299999999995</v>
       </c>
-      <c r="F19">
+      <c r="F20" s="4">
         <v>8.2322600000000001</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>1.6</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>4.2807740000000002E-3</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <v>1250</v>
       </c>
-      <c r="K19">
+      <c r="K20">
         <v>0.76744990000000002</v>
       </c>
-      <c r="L19">
+      <c r="L20">
         <v>9</v>
       </c>
-      <c r="M19">
+      <c r="M20" s="4">
         <v>8.2325499999999998</v>
       </c>
-      <c r="N19">
+      <c r="N20">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O19">
+      <c r="O20">
         <v>6.1395999999999998E-4</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q20" s="4">
         <f t="shared" si="0"/>
         <v>-2.899999999996794E-4</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R20" s="1">
         <f t="shared" si="1"/>
         <v>2.9309999999993508E-4</v>
       </c>
-    </row>
-    <row r="20" spans="2:18">
-      <c r="B20">
+      <c r="T20">
+        <v>1.6</v>
+      </c>
+      <c r="U20">
+        <v>5.2641210000000001E-5</v>
+      </c>
+      <c r="V20">
+        <v>4.3377016740000001E-3</v>
+      </c>
+      <c r="W20">
+        <v>8.341733987564</v>
+      </c>
+      <c r="X20">
+        <v>0.65826601243600003</v>
+      </c>
+      <c r="Z20" s="4">
+        <f>F20-W20</f>
+        <v>-0.10947398756399984</v>
+      </c>
+      <c r="AA20">
+        <f>E20-X20</f>
+        <v>0.10947698756399993</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="2"/>
+        <v>5.6155278999999998E-4</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="3"/>
+        <v>-5.6931674000000425E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29">
+      <c r="B21" s="3">
         <v>1.7</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>4.3376999999999999E-3</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="2">
         <v>5.2661299999999999E-4</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>0.65826600000000002</v>
       </c>
-      <c r="F20">
+      <c r="F21" s="4">
         <v>8.3417300000000001</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>1.7</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>4.3377019999999997E-3</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>1250</v>
       </c>
-      <c r="K20">
+      <c r="K21">
         <v>0.65801509999999996</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>9</v>
       </c>
-      <c r="M20">
+      <c r="M21" s="4">
         <v>8.3419849999999993</v>
       </c>
-      <c r="N20">
+      <c r="N21">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O20">
+      <c r="O21">
         <v>5.2641210000000001E-4</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q21" s="4">
         <f t="shared" si="0"/>
         <v>-2.5499999999922807E-4</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R21" s="1">
         <f t="shared" si="1"/>
         <v>2.5090000000005386E-4</v>
       </c>
-    </row>
-    <row r="21" spans="2:18">
-      <c r="B21">
+      <c r="T21">
+        <v>1.7</v>
+      </c>
+      <c r="U21">
+        <v>4.5134817E-5</v>
+      </c>
+      <c r="V21">
+        <v>4.3865118340000002E-3</v>
+      </c>
+      <c r="W21">
+        <v>8.4355996801750006</v>
+      </c>
+      <c r="X21">
+        <v>0.56440031982500005</v>
+      </c>
+      <c r="Z21" s="4">
+        <f>F21-W21</f>
+        <v>-9.3869680175000525E-2</v>
+      </c>
+      <c r="AA21">
+        <f>E21-X21</f>
+        <v>9.3865680174999966E-2</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="2"/>
+        <v>4.81478183E-4</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="3"/>
+        <v>-4.8811834000000304E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29">
+      <c r="B22" s="3">
         <v>1.8</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>4.3865099999999997E-3</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="2">
         <v>4.5152000000000001E-4</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>0.56440000000000001</v>
       </c>
-      <c r="F21">
+      <c r="F22" s="4">
         <v>8.4356000000000009</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>1.8</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>4.3865120000000004E-3</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <v>1250</v>
       </c>
-      <c r="K21">
+      <c r="K22">
         <v>0.56418520000000005</v>
       </c>
-      <c r="L21">
+      <c r="L22">
         <v>9</v>
       </c>
-      <c r="M21">
+      <c r="M22" s="4">
         <v>8.4358149999999998</v>
       </c>
-      <c r="N21">
+      <c r="N22">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O21">
+      <c r="O22">
         <v>4.5134819999999998E-4</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q22" s="4">
         <f t="shared" si="0"/>
         <v>-2.1499999999896602E-4</v>
       </c>
-      <c r="R21" s="1">
-        <f t="shared" si="1"/>
+      <c r="R22" s="1">
+        <f>E22-K22</f>
         <v>2.1479999999995947E-4</v>
       </c>
-    </row>
-    <row r="22" spans="2:18">
-      <c r="B22">
+      <c r="T22">
+        <v>1.8</v>
+      </c>
+      <c r="U22">
+        <v>3.8698800000000003E-5</v>
+      </c>
+      <c r="V22">
+        <v>4.4283618900000004E-3</v>
+      </c>
+      <c r="W22">
+        <v>8.5160805586180004</v>
+      </c>
+      <c r="X22">
+        <v>0.48391944138199999</v>
+      </c>
+      <c r="Z22" s="4">
+        <f>F22-W22</f>
+        <v>-8.048055861799952E-2</v>
+      </c>
+      <c r="AA22">
+        <f>E22-X22</f>
+        <v>8.048055861800002E-2</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="2"/>
+        <v>4.1282120000000002E-4</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="3"/>
+        <v>-4.1851890000000648E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29">
+      <c r="B23" s="3">
         <v>1.9</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>4.4283600000000001E-3</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="2">
         <v>3.87136E-4</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>0.48391899999999999</v>
       </c>
-      <c r="F22">
+      <c r="F23" s="4">
         <v>8.5160800000000005</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>1.9</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>4.4283619999999999E-3</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <v>1250</v>
       </c>
-      <c r="K22">
+      <c r="K23">
         <v>0.48373500000000003</v>
       </c>
-      <c r="L22">
+      <c r="L23">
         <v>9</v>
       </c>
-      <c r="M22">
+      <c r="M23" s="4">
         <v>8.5162650000000006</v>
       </c>
-      <c r="N22">
+      <c r="N23">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O22">
+      <c r="O23">
         <v>3.86988E-4</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q23" s="4">
         <f t="shared" si="0"/>
         <v>-1.8500000000010175E-4</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R23" s="1">
         <f t="shared" si="1"/>
         <v>1.8399999999996197E-4</v>
       </c>
-    </row>
-    <row r="23" spans="2:18">
-      <c r="B23">
+      <c r="T23">
+        <v>1.9</v>
+      </c>
+      <c r="U23">
+        <v>3.3180530000000001E-5</v>
+      </c>
+      <c r="V23">
+        <v>4.4642443219999996E-3</v>
+      </c>
+      <c r="W23">
+        <v>8.5850852355639997</v>
+      </c>
+      <c r="X23">
+        <v>0.41491476443600001</v>
+      </c>
+      <c r="Z23" s="4">
+        <f>F23-W23</f>
+        <v>-6.9005235563999179E-2</v>
+      </c>
+      <c r="AA23">
+        <f>E23-X23</f>
+        <v>6.9004235563999983E-2</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="2"/>
+        <v>3.5395547E-4</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="3"/>
+        <v>-3.5884321999999497E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29">
+      <c r="B24" s="3">
         <v>2</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>4.4642400000000004E-3</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="2">
         <v>3.3193200000000001E-4</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>0.41491499999999998</v>
       </c>
-      <c r="F23">
+      <c r="F24" s="4">
         <v>8.5850799999999996</v>
       </c>
-      <c r="H23">
+      <c r="H24">
         <v>2</v>
       </c>
-      <c r="I23">
+      <c r="I24">
         <v>4.464244E-3</v>
       </c>
-      <c r="J23">
+      <c r="J24">
         <v>1250</v>
       </c>
-      <c r="K23">
+      <c r="K24">
         <v>0.41475659999999998</v>
       </c>
-      <c r="L23">
+      <c r="L24">
         <v>9</v>
       </c>
-      <c r="M23">
+      <c r="M24" s="4">
         <v>8.5852430000000002</v>
       </c>
-      <c r="N23">
+      <c r="N24">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O23">
+      <c r="O24">
         <v>3.3180530000000001E-4</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q24" s="4">
         <f t="shared" si="0"/>
         <v>-1.6300000000057935E-4</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R24" s="1">
         <f t="shared" si="1"/>
         <v>1.5840000000000298E-4</v>
       </c>
-    </row>
-    <row r="24" spans="2:18">
-      <c r="B24">
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <v>2.8449140000000001E-5</v>
+      </c>
+      <c r="V24">
+        <v>4.4950100849999999E-3</v>
+      </c>
+      <c r="W24">
+        <v>8.6442501643350003</v>
+      </c>
+      <c r="X24">
+        <v>0.35574983566500001</v>
+      </c>
+      <c r="Z24" s="4">
+        <f>F24-W24</f>
+        <v>-5.9170164335000663E-2</v>
+      </c>
+      <c r="AA24">
+        <f>E24-X24</f>
+        <v>5.9165164334999965E-2</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="2"/>
+        <v>3.0348286000000003E-4</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="3"/>
+        <v>-3.0770084999999503E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29">
+      <c r="B25" s="3">
         <v>2.1</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>4.4950099999999998E-3</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="2">
         <v>2.8459999999999998E-4</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>0.35575000000000001</v>
       </c>
-      <c r="F24">
+      <c r="F25" s="4">
         <v>8.6442499999999995</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>2.1</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>4.4950099999999998E-3</v>
       </c>
-      <c r="J24">
+      <c r="J25">
         <v>1250</v>
       </c>
-      <c r="K24">
+      <c r="K25">
         <v>0.35561419999999999</v>
       </c>
-      <c r="L24">
+      <c r="L25">
         <v>9</v>
       </c>
-      <c r="M24">
+      <c r="M25" s="4">
         <v>8.6443860000000008</v>
       </c>
-      <c r="N24">
+      <c r="N25">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O24">
+      <c r="O25">
         <v>2.8449140000000003E-4</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q25" s="4">
         <f t="shared" si="0"/>
         <v>-1.3600000000124624E-4</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R25" s="1">
         <f t="shared" si="1"/>
         <v>1.3580000000001924E-4</v>
       </c>
-    </row>
-    <row r="25" spans="2:18">
-      <c r="B25">
+      <c r="T25">
+        <v>2.1</v>
+      </c>
+      <c r="U25">
+        <v>2.4392423999999999E-5</v>
+      </c>
+      <c r="V25">
+        <v>4.5213887930000002E-3</v>
+      </c>
+      <c r="W25">
+        <v>8.6949784475669993</v>
+      </c>
+      <c r="X25">
+        <v>0.305021552433</v>
+      </c>
+      <c r="Z25" s="4">
+        <f>F25-W25</f>
+        <v>-5.072844756699979E-2</v>
+      </c>
+      <c r="AA25">
+        <f>E25-X25</f>
+        <v>5.0728447567000012E-2</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="2"/>
+        <v>2.6020757599999996E-4</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="3"/>
+        <v>-2.6378793000000379E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29">
+      <c r="B26" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>4.5213900000000001E-3</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="2">
         <v>2.4401699999999999E-4</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>0.30502200000000002</v>
       </c>
-      <c r="F25">
+      <c r="F26" s="4">
         <v>8.6949799999999993</v>
       </c>
-      <c r="H25">
+      <c r="H26">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I25">
+      <c r="I26">
         <v>4.5213889999999998E-3</v>
       </c>
-      <c r="J25">
+      <c r="J26">
         <v>1250</v>
       </c>
-      <c r="K25">
+      <c r="K26">
         <v>0.30490529999999999</v>
       </c>
-      <c r="L25">
+      <c r="L26">
         <v>9</v>
       </c>
-      <c r="M25">
+      <c r="M26" s="4">
         <v>8.6950950000000002</v>
       </c>
-      <c r="N25">
+      <c r="N26">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O25">
+      <c r="O26">
         <v>2.439242E-4</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q26" s="4">
         <f t="shared" si="0"/>
         <v>-1.1500000000097543E-4</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R26" s="1">
         <f t="shared" si="1"/>
         <v>1.1670000000002512E-4</v>
       </c>
-    </row>
-    <row r="26" spans="2:18">
-      <c r="B26">
+      <c r="T26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U26">
+        <v>2.0914177000000001E-5</v>
+      </c>
+      <c r="V26">
+        <v>4.5440060179999997E-3</v>
+      </c>
+      <c r="W26">
+        <v>8.7384731119419996</v>
+      </c>
+      <c r="X26">
+        <v>0.26152688805800001</v>
+      </c>
+      <c r="Z26" s="4">
+        <f>F26-W26</f>
+        <v>-4.349311194200034E-2</v>
+      </c>
+      <c r="AA26">
+        <f>E26-X26</f>
+        <v>4.3495111942000009E-2</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="2"/>
+        <v>2.23102823E-4</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="3"/>
+        <v>-2.2616017999999537E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29">
+      <c r="B27" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>4.5440100000000002E-3</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D27" s="2">
         <v>2.0922200000000001E-4</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>0.26152700000000001</v>
       </c>
-      <c r="F26">
+      <c r="F27" s="4">
         <v>8.7384699999999995</v>
       </c>
-      <c r="H26">
+      <c r="H27">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I26">
+      <c r="I27">
         <v>4.5440059999999997E-3</v>
       </c>
-      <c r="J26">
+      <c r="J27">
         <v>1250</v>
       </c>
-      <c r="K26">
+      <c r="K27">
         <v>0.26142720000000003</v>
       </c>
-      <c r="L26">
+      <c r="L27">
         <v>9</v>
       </c>
-      <c r="M26">
+      <c r="M27" s="4">
         <v>8.7385730000000006</v>
       </c>
-      <c r="N26">
+      <c r="N27">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O26">
+      <c r="O27">
         <v>2.0914180000000001E-4</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q27" s="4">
         <f t="shared" si="0"/>
         <v>-1.0300000000107445E-4</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R27" s="1">
         <f t="shared" si="1"/>
         <v>9.9799999999983235E-5</v>
       </c>
-    </row>
-    <row r="27" spans="2:18">
-      <c r="B27">
+      <c r="T27">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="U27">
+        <v>1.7931912E-5</v>
+      </c>
+      <c r="V27">
+        <v>4.5633981320000001E-3</v>
+      </c>
+      <c r="W27">
+        <v>8.7757656380940006</v>
+      </c>
+      <c r="X27">
+        <v>0.22423436190599999</v>
+      </c>
+      <c r="Z27" s="4">
+        <f>F27-W27</f>
+        <v>-3.7295638094001049E-2</v>
+      </c>
+      <c r="AA27">
+        <f>E27-X27</f>
+        <v>3.7292638094000019E-2</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="2"/>
+        <v>1.9129008800000002E-4</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="3"/>
+        <v>-1.9388131999999864E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29">
+      <c r="B28" s="3">
         <v>2.4</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>4.5633999999999996E-3</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D28" s="2">
         <v>1.7938700000000001E-4</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>0.22423399999999999</v>
       </c>
-      <c r="F27">
+      <c r="F28" s="4">
         <v>8.7757699999999996</v>
       </c>
-      <c r="H27">
+      <c r="H28">
         <v>2.4</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <v>4.5633979999999998E-3</v>
       </c>
-      <c r="J27">
+      <c r="J28">
         <v>1250</v>
       </c>
-      <c r="K27">
+      <c r="K28">
         <v>0.22414890000000001</v>
       </c>
-      <c r="L27">
+      <c r="L28">
         <v>9</v>
       </c>
-      <c r="M27">
+      <c r="M28" s="4">
         <v>8.7758509999999994</v>
       </c>
-      <c r="N27">
+      <c r="N28">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O27">
+      <c r="O28">
         <v>1.793191E-4</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q28" s="4">
         <f t="shared" si="0"/>
         <v>-8.0999999999775696E-5</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R28" s="1">
         <f t="shared" si="1"/>
         <v>8.5099999999976861E-5</v>
       </c>
-    </row>
-    <row r="28" spans="2:18">
-      <c r="B28">
+      <c r="T28">
+        <v>2.4</v>
+      </c>
+      <c r="U28">
+        <v>1.5374903999999998E-5</v>
+      </c>
+      <c r="V28">
+        <v>4.5800250199999996E-3</v>
+      </c>
+      <c r="W28">
+        <v>8.8077404222840006</v>
+      </c>
+      <c r="X28">
+        <v>0.192259577716</v>
+      </c>
+      <c r="Z28" s="4">
+        <f>F28-W28</f>
+        <v>-3.1970422284000932E-2</v>
+      </c>
+      <c r="AA28">
+        <f>E28-X28</f>
+        <v>3.1974422283999993E-2</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="2"/>
+        <v>1.64012096E-4</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="3"/>
+        <v>-1.6625020000000067E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29">
+      <c r="B29" s="3">
         <v>2.5</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>4.5800299999999997E-3</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D29" s="2">
         <v>1.5380799999999999E-4</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>0.19225999999999999</v>
       </c>
-      <c r="F28">
+      <c r="F29" s="4">
         <v>8.8077400000000008</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>2.5</v>
       </c>
-      <c r="I28">
+      <c r="I29">
         <v>4.5800249999999997E-3</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>1250</v>
       </c>
-      <c r="K28">
+      <c r="K29">
         <v>0.1921863</v>
       </c>
-      <c r="L28">
+      <c r="L29">
         <v>9</v>
       </c>
-      <c r="M28">
+      <c r="M29" s="4">
         <v>8.8078140000000005</v>
       </c>
-      <c r="N28">
+      <c r="N29">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O28">
+      <c r="O29">
         <v>1.5374900000000001E-4</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q29" s="4">
         <f t="shared" si="0"/>
         <v>-7.3999999999685429E-5</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R29" s="1">
         <f t="shared" si="1"/>
         <v>7.3699999999982113E-5</v>
       </c>
-    </row>
-    <row r="29" spans="2:18">
-      <c r="B29">
+      <c r="T29">
+        <v>2.5</v>
+      </c>
+      <c r="U29">
+        <v>1.3182514E-5</v>
+      </c>
+      <c r="V29">
+        <v>4.5942809899999996E-3</v>
+      </c>
+      <c r="W29">
+        <v>8.8351557499519995</v>
+      </c>
+      <c r="X29">
+        <v>0.16484425004799999</v>
+      </c>
+      <c r="Z29" s="4">
+        <f>F29-W29</f>
+        <v>-2.7415749951998691E-2</v>
+      </c>
+      <c r="AA29">
+        <f>E29-X29</f>
+        <v>2.7415749951999996E-2</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="2"/>
+        <v>1.40625486E-4</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="3"/>
+        <v>-1.4250989999999887E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29">
+      <c r="B30" s="3">
         <v>2.6</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>4.5942800000000001E-3</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D30" s="2">
         <v>1.3187499999999999E-4</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>0.16484399999999999</v>
       </c>
-      <c r="F29">
+      <c r="F30" s="4">
         <v>8.8351600000000001</v>
       </c>
-      <c r="H29">
+      <c r="H30">
         <v>2.6</v>
       </c>
-      <c r="I29">
+      <c r="I30">
         <v>4.5942810000000004E-3</v>
       </c>
-      <c r="J29">
+      <c r="J30">
         <v>1250</v>
       </c>
-      <c r="K29">
+      <c r="K30">
         <v>0.16478139999999999</v>
       </c>
-      <c r="L29">
+      <c r="L30">
         <v>9</v>
       </c>
-      <c r="M29">
+      <c r="M30" s="4">
         <v>8.8352190000000004</v>
       </c>
-      <c r="N29">
+      <c r="N30">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O29">
+      <c r="O30">
         <v>1.318251E-4</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q30" s="4">
         <f t="shared" si="0"/>
         <v>-5.9000000000253294E-5</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R30" s="1">
         <f t="shared" si="1"/>
         <v>6.2599999999995992E-5</v>
       </c>
-    </row>
-    <row r="30" spans="2:18">
-      <c r="B30">
+      <c r="T30">
+        <v>2.6</v>
+      </c>
+      <c r="U30">
+        <v>1.1302748000000001E-5</v>
+      </c>
+      <c r="V30">
+        <v>4.6065041249999999E-3</v>
+      </c>
+      <c r="W30">
+        <v>8.8586617785349997</v>
+      </c>
+      <c r="X30">
+        <v>0.141338221465</v>
+      </c>
+      <c r="Z30" s="4">
+        <f>F30-W30</f>
+        <v>-2.3501778534999573E-2</v>
+      </c>
+      <c r="AA30">
+        <f>E30-X30</f>
+        <v>2.3505778534999994E-2</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="2"/>
+        <v>1.2057225199999999E-4</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="3"/>
+        <v>-1.222412499999985E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29">
+      <c r="B31" s="3">
         <v>2.7</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>4.6065000000000004E-3</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D31" s="2">
         <v>1.13071E-4</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>0.14133799999999999</v>
       </c>
-      <c r="F30">
+      <c r="F31" s="4">
         <v>8.8586600000000004</v>
       </c>
-      <c r="H30">
+      <c r="H31">
         <v>2.7</v>
       </c>
-      <c r="I30">
+      <c r="I31">
         <v>4.606504E-3</v>
       </c>
-      <c r="J30">
+      <c r="J31">
         <v>1250</v>
       </c>
-      <c r="K30">
+      <c r="K31">
         <v>0.1412844</v>
       </c>
-      <c r="L30">
+      <c r="L31">
         <v>9</v>
       </c>
-      <c r="M30">
+      <c r="M31" s="4">
         <v>8.8587159999999994</v>
       </c>
-      <c r="N30">
+      <c r="N31">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O30">
+      <c r="O31">
         <v>1.1302749999999999E-4</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q31" s="4">
         <f t="shared" si="0"/>
         <v>-5.5999999998945782E-5</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R31" s="1">
         <f t="shared" si="1"/>
         <v>5.3599999999986991E-5</v>
       </c>
-    </row>
-    <row r="31" spans="2:18">
-      <c r="B31">
+      <c r="T31">
+        <v>2.7</v>
+      </c>
+      <c r="U31">
+        <v>9.6910290000000002E-6</v>
+      </c>
+      <c r="V31">
+        <v>4.6169842970000003E-3</v>
+      </c>
+      <c r="W31">
+        <v>8.8788159560250008</v>
+      </c>
+      <c r="X31">
+        <v>0.121184043975</v>
+      </c>
+      <c r="Z31" s="4">
+        <f>F31-W31</f>
+        <v>-2.0155956025000421E-2</v>
+      </c>
+      <c r="AA31">
+        <f>E31-X31</f>
+        <v>2.0153956024999989E-2</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="2"/>
+        <v>1.03379971E-4</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="3"/>
+        <v>-1.0484296999999955E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29">
+      <c r="B32" s="3">
         <v>2.8</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>4.6169799999999997E-3</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D32" s="2">
         <v>9.6947200000000006E-5</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>0.121184</v>
       </c>
-      <c r="F31">
+      <c r="F32" s="4">
         <v>8.8788199999999993</v>
       </c>
-      <c r="H31">
+      <c r="H32">
         <v>2.8</v>
       </c>
-      <c r="I31">
+      <c r="I32">
         <v>4.6169840000000002E-3</v>
       </c>
-      <c r="J31">
+      <c r="J32">
         <v>1250</v>
       </c>
-      <c r="K31">
+      <c r="K32">
         <v>0.12113790000000001</v>
       </c>
-      <c r="L31">
+      <c r="L32">
         <v>9</v>
       </c>
-      <c r="M31">
+      <c r="M32" s="4">
         <v>8.8788619999999998</v>
       </c>
-      <c r="N31">
+      <c r="N32">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O31">
+      <c r="O32">
         <v>9.6910289999999999E-5</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q32" s="4">
         <f t="shared" si="0"/>
         <v>-4.2000000000541604E-5</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R32" s="1">
         <f t="shared" si="1"/>
         <v>4.6099999999993369E-5</v>
       </c>
-    </row>
-    <row r="32" spans="2:18">
-      <c r="B32">
+      <c r="T32">
+        <v>2.8</v>
+      </c>
+      <c r="U32">
+        <v>8.3091330000000001E-6</v>
+      </c>
+      <c r="V32">
+        <v>4.6259700450000003E-3</v>
+      </c>
+      <c r="W32">
+        <v>8.8960962409040008</v>
+      </c>
+      <c r="X32">
+        <v>0.103903759096</v>
+      </c>
+      <c r="Z32" s="4">
+        <f>F32-W32</f>
+        <v>-1.7276240904001483E-2</v>
+      </c>
+      <c r="AA32">
+        <f>E32-X32</f>
+        <v>1.7280240904000002E-2</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="2"/>
+        <v>8.8638067000000004E-5</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="3"/>
+        <v>-8.9900450000006404E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29">
+      <c r="B33" s="3">
         <v>2.9</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>4.6259700000000001E-3</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D33" s="2">
         <v>8.3122999999999997E-5</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>0.103904</v>
       </c>
-      <c r="F32">
+      <c r="F33" s="4">
         <v>8.8961000000000006</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <v>2.9</v>
       </c>
-      <c r="I32">
+      <c r="I33">
         <v>4.6259700000000001E-3</v>
       </c>
-      <c r="J32">
+      <c r="J33">
         <v>1250</v>
       </c>
-      <c r="K32">
+      <c r="K33">
         <v>0.1038642</v>
       </c>
-      <c r="L32">
+      <c r="L33">
         <v>9</v>
       </c>
-      <c r="M32">
+      <c r="M33" s="4">
         <v>8.8961360000000003</v>
       </c>
-      <c r="N32">
+      <c r="N33">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O32">
+      <c r="O33">
         <v>8.3091330000000004E-5</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q33" s="4">
         <f t="shared" si="0"/>
         <v>-3.5999999999702936E-5</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R33" s="1">
         <f t="shared" si="1"/>
         <v>3.9799999999992619E-5</v>
       </c>
-    </row>
-    <row r="33" spans="2:18">
-      <c r="B33">
+      <c r="T33">
+        <v>2.9</v>
+      </c>
+      <c r="U33">
+        <v>7.1242889999999996E-6</v>
+      </c>
+      <c r="V33">
+        <v>4.6336744670000003E-3</v>
+      </c>
+      <c r="W33">
+        <v>8.9109124369830006</v>
+      </c>
+      <c r="X33">
+        <v>8.9087563016999993E-2</v>
+      </c>
+      <c r="Z33" s="4">
+        <f>F33-W33</f>
+        <v>-1.4812436983000055E-2</v>
+      </c>
+      <c r="AA33">
+        <f>E33-X33</f>
+        <v>1.4816436983000003E-2</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="2"/>
+        <v>7.5998710999999991E-5</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="3"/>
+        <v>-7.704467000000173E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29">
+      <c r="B34" s="3">
         <v>3</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>4.6336700000000003E-3</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D34" s="2">
         <v>7.127E-5</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <v>8.9087600000000003E-2</v>
       </c>
-      <c r="F33">
+      <c r="F34" s="4">
         <v>8.9109099999999994</v>
       </c>
-      <c r="H33">
+      <c r="H34">
         <v>3</v>
       </c>
-      <c r="I33">
+      <c r="I34">
         <v>4.633674E-3</v>
       </c>
-      <c r="J33">
+      <c r="J34">
         <v>1250</v>
       </c>
-      <c r="K33">
+      <c r="K34">
         <v>8.9053610000000005E-2</v>
       </c>
-      <c r="L33">
+      <c r="L34">
         <v>9</v>
       </c>
-      <c r="M33">
+      <c r="M34" s="4">
         <v>8.9109459999999991</v>
       </c>
-      <c r="N33">
+      <c r="N34">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O33">
+      <c r="O34">
         <v>7.1242890000000001E-5</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q34" s="4">
         <f t="shared" si="0"/>
         <v>-3.5999999999702936E-5</v>
       </c>
-      <c r="R33" s="1">
+      <c r="R34" s="1">
         <f t="shared" si="1"/>
         <v>3.3989999999997633E-5</v>
       </c>
-    </row>
-    <row r="34" spans="2:18">
-      <c r="B34">
+      <c r="T34">
+        <v>3</v>
+      </c>
+      <c r="U34">
+        <v>6.1083980000000002E-6</v>
+      </c>
+      <c r="V34">
+        <v>4.6402802739999999E-3</v>
+      </c>
+      <c r="W34">
+        <v>8.9236159119420009</v>
+      </c>
+      <c r="X34">
+        <v>7.6384088057999996E-2</v>
+      </c>
+      <c r="Z34" s="4">
+        <f>F34-W34</f>
+        <v>-1.2705911942001435E-2</v>
+      </c>
+      <c r="AA34">
+        <f>E34-X34</f>
+        <v>1.2703511942000006E-2</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="2"/>
+        <v>6.5161602000000002E-5</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="3"/>
+        <v>-6.6102739999995483E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29">
+      <c r="B35" s="3">
         <v>3.1</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>4.6402800000000001E-3</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D35" s="2">
         <v>6.1107300000000004E-5</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>7.6384099999999996E-2</v>
       </c>
-      <c r="F34">
+      <c r="F35" s="4">
         <v>8.9236199999999997</v>
       </c>
-      <c r="H34">
+      <c r="H35">
         <v>3.1</v>
       </c>
-      <c r="I34">
+      <c r="I35">
         <v>4.6402800000000001E-3</v>
       </c>
-      <c r="J34">
+      <c r="J35">
         <v>1250</v>
       </c>
-      <c r="K34">
+      <c r="K35">
         <v>7.6354980000000003E-2</v>
       </c>
-      <c r="L34">
+      <c r="L35">
         <v>9</v>
       </c>
-      <c r="M34">
+      <c r="M35" s="4">
         <v>8.9236450000000005</v>
       </c>
-      <c r="N34">
+      <c r="N35">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O34">
+      <c r="O35">
         <v>6.1083979999999999E-5</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q35" s="4">
         <f t="shared" si="0"/>
         <v>-2.5000000000829914E-5</v>
       </c>
-      <c r="R34" s="1">
+      <c r="R35" s="1">
         <f t="shared" si="1"/>
         <v>2.9119999999993595E-5</v>
       </c>
-    </row>
-    <row r="35" spans="2:18">
-      <c r="B35">
+      <c r="T35">
+        <v>3.1</v>
+      </c>
+      <c r="U35">
+        <v>5.2373690000000002E-6</v>
+      </c>
+      <c r="V35">
+        <v>4.6459441240000003E-3</v>
+      </c>
+      <c r="W35">
+        <v>8.934507930054</v>
+      </c>
+      <c r="X35">
+        <v>6.5492069946000001E-2</v>
+      </c>
+      <c r="Z35" s="4">
+        <f>F35-W35</f>
+        <v>-1.088793005400035E-2</v>
+      </c>
+      <c r="AA35">
+        <f>E35-X35</f>
+        <v>1.0892030053999996E-2</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="2"/>
+        <v>5.5869931000000003E-5</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="3"/>
+        <v>-5.6641240000002147E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29">
+      <c r="B36" s="3">
         <v>3.2</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>4.6459400000000003E-3</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D36" s="2">
         <v>5.2393699999999999E-5</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <v>6.5492099999999998E-2</v>
       </c>
-      <c r="F35">
+      <c r="F36" s="4">
         <v>8.9345099999999995</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <v>3.2</v>
       </c>
-      <c r="I35">
+      <c r="I36">
         <v>4.6459439999999999E-3</v>
       </c>
-      <c r="J35">
+      <c r="J36">
         <v>1250</v>
       </c>
-      <c r="K35">
+      <c r="K36">
         <v>6.5467109999999995E-2</v>
       </c>
-      <c r="L35">
+      <c r="L36">
         <v>9</v>
       </c>
-      <c r="M35">
+      <c r="M36" s="4">
         <v>8.9345330000000001</v>
       </c>
-      <c r="N35">
+      <c r="N36">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O35">
+      <c r="O36">
         <v>5.2373690000000002E-5</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q36" s="4">
         <f t="shared" si="0"/>
         <v>-2.3000000000550358E-5</v>
       </c>
-      <c r="R35" s="1">
+      <c r="R36" s="1">
         <f t="shared" si="1"/>
         <v>2.499000000000251E-5</v>
       </c>
-    </row>
-    <row r="36" spans="2:18">
-      <c r="B36">
+      <c r="T36">
+        <v>3.2</v>
+      </c>
+      <c r="U36">
+        <v>4.490544E-6</v>
+      </c>
+      <c r="V36">
+        <v>4.6508003339999996E-3</v>
+      </c>
+      <c r="W36">
+        <v>8.9438467966970006</v>
+      </c>
+      <c r="X36">
+        <v>5.6153203302999999E-2</v>
+      </c>
+      <c r="Z36" s="4">
+        <f>F36-W36</f>
+        <v>-9.3367966970010485E-3</v>
+      </c>
+      <c r="AA36">
+        <f>E36-X36</f>
+        <v>9.3388966969999987E-3</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="2"/>
+        <v>4.7903155999999999E-5</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="3"/>
+        <v>-4.8603339999992931E-6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29">
+      <c r="B37" s="3">
         <v>3.3</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>4.6508000000000001E-3</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D37" s="2">
         <v>4.4922600000000003E-5</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <v>5.61532E-2</v>
       </c>
-      <c r="F36">
+      <c r="F37" s="4">
         <v>8.9438499999999994</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <v>3.3</v>
       </c>
-      <c r="I36">
+      <c r="I37">
         <v>4.6508000000000001E-3</v>
       </c>
-      <c r="J36">
+      <c r="J37">
         <v>1250</v>
       </c>
-      <c r="K36">
+      <c r="K37">
         <v>5.6131800000000003E-2</v>
       </c>
-      <c r="L36">
+      <c r="L37">
         <v>9</v>
       </c>
-      <c r="M36">
+      <c r="M37" s="4">
         <v>8.9438680000000002</v>
       </c>
-      <c r="N36">
+      <c r="N37">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O36">
+      <c r="O37">
         <v>4.4905440000000001E-5</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q37" s="4">
         <f t="shared" si="0"/>
         <v>-1.8000000000739647E-5</v>
       </c>
-      <c r="R36" s="1">
+      <c r="R37" s="1">
         <f t="shared" si="1"/>
         <v>2.139999999999781E-5</v>
       </c>
-    </row>
-    <row r="37" spans="2:18">
-      <c r="B37">
+      <c r="T37">
+        <v>3.3</v>
+      </c>
+      <c r="U37">
+        <v>3.8502129999999997E-6</v>
+      </c>
+      <c r="V37">
+        <v>4.6549640719999999E-3</v>
+      </c>
+      <c r="W37">
+        <v>8.9518539840969993</v>
+      </c>
+      <c r="X37">
+        <v>4.8146015903000002E-2</v>
+      </c>
+      <c r="Z37" s="4">
+        <f>F37-W37</f>
+        <v>-8.0039840969998721E-3</v>
+      </c>
+      <c r="AA37">
+        <f>E37-X37</f>
+        <v>8.0071840969999988E-3</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="2"/>
+        <v>4.1072387000000001E-5</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="3"/>
+        <v>-4.1640719999997897E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29">
+      <c r="B38" s="3">
         <v>3.4</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>4.6549599999999997E-3</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D38" s="2">
         <v>3.8516799999999997E-5</v>
       </c>
-      <c r="E37">
+      <c r="E38">
         <v>4.8146000000000001E-2</v>
       </c>
-      <c r="F37">
+      <c r="F38" s="4">
         <v>8.9518500000000003</v>
       </c>
-      <c r="H37">
+      <c r="H38">
         <v>3.4</v>
       </c>
-      <c r="I37">
+      <c r="I38">
         <v>4.6549640000000002E-3</v>
       </c>
-      <c r="J37">
+      <c r="J38">
         <v>1250</v>
       </c>
-      <c r="K37">
+      <c r="K38">
         <v>4.8127669999999997E-2</v>
       </c>
-      <c r="L37">
+      <c r="L38">
         <v>9</v>
       </c>
-      <c r="M37">
+      <c r="M38" s="4">
         <v>8.9518719999999998</v>
       </c>
-      <c r="N37">
+      <c r="N38">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O37">
+      <c r="O38">
         <v>3.8502130000000001E-5</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q38" s="4">
         <f t="shared" si="0"/>
         <v>-2.1999999999522402E-5</v>
       </c>
-      <c r="R37" s="1">
+      <c r="R38" s="1">
         <f t="shared" si="1"/>
         <v>1.8330000000003899E-5</v>
       </c>
-    </row>
-    <row r="38" spans="2:18">
-      <c r="B38">
+      <c r="T38">
+        <v>3.4</v>
+      </c>
+      <c r="U38">
+        <v>3.3011909999999998E-6</v>
+      </c>
+      <c r="V38">
+        <v>4.6585340789999999E-3</v>
+      </c>
+      <c r="W38">
+        <v>8.9587193835610002</v>
+      </c>
+      <c r="X38">
+        <v>4.1280616439000002E-2</v>
+      </c>
+      <c r="Z38" s="4">
+        <f>F38-W38</f>
+        <v>-6.8693835609998644E-3</v>
+      </c>
+      <c r="AA38">
+        <f>E38-X38</f>
+        <v>6.8653835609999991E-3</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="2"/>
+        <v>3.5215609E-5</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="3"/>
+        <v>-3.5740790000002298E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29">
+      <c r="B39" s="3">
         <v>3.5</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>4.6585300000000001E-3</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D39" s="2">
         <v>3.3024500000000002E-5</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>4.1280600000000001E-2</v>
       </c>
-      <c r="F38">
+      <c r="F39" s="4">
         <v>8.9587199999999996</v>
       </c>
-      <c r="H38">
+      <c r="H39">
         <v>3.5</v>
       </c>
-      <c r="I38">
+      <c r="I39">
         <v>4.6585339999999998E-3</v>
       </c>
-      <c r="J38">
+      <c r="J39">
         <v>1250</v>
       </c>
-      <c r="K38">
+      <c r="K39">
         <v>4.1264879999999997E-2</v>
       </c>
-      <c r="L38">
+      <c r="L39">
         <v>9</v>
       </c>
-      <c r="M38">
+      <c r="M39" s="4">
         <v>8.9587350000000008</v>
       </c>
-      <c r="N38">
+      <c r="N39">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O38">
+      <c r="O39">
         <v>3.3011910000000002E-5</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q39" s="4">
         <f t="shared" si="0"/>
         <v>-1.5000000001208491E-5</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R39" s="1">
         <f t="shared" si="1"/>
         <v>1.5720000000003787E-5</v>
       </c>
-    </row>
-    <row r="39" spans="2:18">
-      <c r="B39">
+      <c r="T39">
+        <v>3.5</v>
+      </c>
+      <c r="U39">
+        <v>2.8304559999999999E-6</v>
+      </c>
+      <c r="V39">
+        <v>4.6615950209999996E-3</v>
+      </c>
+      <c r="W39">
+        <v>8.9646058087759997</v>
+      </c>
+      <c r="X39">
+        <v>3.5394191223999998E-2</v>
+      </c>
+      <c r="Z39" s="4">
+        <f>F39-W39</f>
+        <v>-5.8858087760000899E-3</v>
+      </c>
+      <c r="AA39">
+        <f>E39-X39</f>
+        <v>5.8864087760000031E-3</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="2"/>
+        <v>3.0194044000000003E-5</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="3"/>
+        <v>-3.0650209999994946E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29">
+      <c r="B40" s="3">
         <v>3.6</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>4.6615900000000002E-3</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D40" s="2">
         <v>2.83154E-5</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <v>3.5394200000000001E-2</v>
       </c>
-      <c r="F39">
+      <c r="F40" s="4">
         <v>8.9646100000000004</v>
       </c>
-      <c r="H39">
+      <c r="H40">
         <v>3.6</v>
       </c>
-      <c r="I39">
+      <c r="I40">
         <v>4.6615950000000001E-3</v>
       </c>
-      <c r="J39">
+      <c r="J40">
         <v>1250</v>
       </c>
-      <c r="K39">
+      <c r="K40">
         <v>3.5380700000000001E-2</v>
       </c>
-      <c r="L39">
+      <c r="L40">
         <v>9</v>
       </c>
-      <c r="M39">
+      <c r="M40" s="4">
         <v>8.9646190000000008</v>
       </c>
-      <c r="N39">
+      <c r="N40">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O39">
+      <c r="O40">
         <v>2.8304560000000001E-5</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="Q40" s="4">
         <f t="shared" si="0"/>
         <v>-9.0000000003698233E-6</v>
       </c>
-      <c r="R39" s="1">
+      <c r="R40" s="1">
         <f t="shared" si="1"/>
         <v>1.3499999999999623E-5</v>
       </c>
-    </row>
-    <row r="40" spans="2:18">
-      <c r="B40">
+      <c r="T40">
+        <v>3.6</v>
+      </c>
+      <c r="U40">
+        <v>2.4268460000000002E-6</v>
+      </c>
+      <c r="V40">
+        <v>4.6642194859999996E-3</v>
+      </c>
+      <c r="W40">
+        <v>8.9696528569460003</v>
+      </c>
+      <c r="X40">
+        <v>3.0347143053999999E-2</v>
+      </c>
+      <c r="Z40" s="4">
+        <f>F40-W40</f>
+        <v>-5.0428569459999295E-3</v>
+      </c>
+      <c r="AA40">
+        <f>E40-X40</f>
+        <v>5.0470569460000017E-3</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="2"/>
+        <v>2.5888553999999999E-5</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="3"/>
+        <v>-2.6294859999994452E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29">
+      <c r="B41" s="3">
         <v>3.7</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>4.6642200000000002E-3</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D41" s="2">
         <v>2.42777E-5</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <v>3.0347099999999998E-2</v>
       </c>
-      <c r="F40">
+      <c r="F41" s="4">
         <v>8.9696499999999997</v>
       </c>
-      <c r="H40">
+      <c r="H41">
         <v>3.7</v>
       </c>
-      <c r="I40">
+      <c r="I41">
         <v>4.6642189999999998E-3</v>
       </c>
-      <c r="J40">
+      <c r="J41">
         <v>1250</v>
       </c>
-      <c r="K40">
+      <c r="K41">
         <v>3.0335580000000001E-2</v>
       </c>
-      <c r="L40">
+      <c r="L41">
         <v>9</v>
       </c>
-      <c r="M40">
+      <c r="M41" s="4">
         <v>8.9696639999999999</v>
       </c>
-      <c r="N40">
+      <c r="N41">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O40">
+      <c r="O41">
         <v>2.426846E-5</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q41" s="4">
         <f t="shared" si="0"/>
         <v>-1.4000000000180535E-5</v>
       </c>
-      <c r="R40" s="1">
+      <c r="R41" s="1">
         <f t="shared" si="1"/>
         <v>1.1519999999997504E-5</v>
       </c>
-    </row>
-    <row r="41" spans="2:18">
-      <c r="B41">
+      <c r="T41">
+        <v>3.7</v>
+      </c>
+      <c r="U41">
+        <v>2.080789E-6</v>
+      </c>
+      <c r="V41">
+        <v>4.6664697140000001E-3</v>
+      </c>
+      <c r="W41">
+        <v>8.9739802193609997</v>
+      </c>
+      <c r="X41">
+        <v>2.6019780639000002E-2</v>
+      </c>
+      <c r="Z41" s="4">
+        <f>F41-W41</f>
+        <v>-4.3302193609999762E-3</v>
+      </c>
+      <c r="AA41">
+        <f>E41-X41</f>
+        <v>4.3273193609999969E-3</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="2"/>
+        <v>2.2196911000000001E-5</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="3"/>
+        <v>-2.2497139999999236E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29">
+      <c r="B42" s="3">
         <v>3.8</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>4.6664699999999998E-3</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D42" s="2">
         <v>2.0815800000000002E-5</v>
       </c>
-      <c r="E41">
+      <c r="E42">
         <v>2.6019799999999999E-2</v>
       </c>
-      <c r="F41">
+      <c r="F42" s="4">
         <v>8.9739799999999992</v>
       </c>
-      <c r="H41">
+      <c r="H42">
         <v>3.8</v>
       </c>
-      <c r="I41">
+      <c r="I42">
         <v>4.6664699999999998E-3</v>
       </c>
-      <c r="J41">
+      <c r="J42">
         <v>1250</v>
       </c>
-      <c r="K41">
+      <c r="K42">
         <v>2.6009859999999999E-2</v>
       </c>
-      <c r="L41">
+      <c r="L42">
         <v>9</v>
       </c>
-      <c r="M41">
+      <c r="M42" s="4">
         <v>8.9739900000000006</v>
       </c>
-      <c r="N41">
+      <c r="N42">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O41">
+      <c r="O42">
         <v>2.080789E-5</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q42" s="4">
         <f t="shared" si="0"/>
         <v>-1.000000000139778E-5</v>
       </c>
-      <c r="R41" s="1">
+      <c r="R42" s="1">
         <f t="shared" si="1"/>
         <v>9.9399999999999489E-6</v>
       </c>
-    </row>
-    <row r="42" spans="2:18">
-      <c r="B42">
+      <c r="T42">
+        <v>3.8</v>
+      </c>
+      <c r="U42">
+        <v>1.784078E-6</v>
+      </c>
+      <c r="V42">
+        <v>4.6683990699999999E-3</v>
+      </c>
+      <c r="W42">
+        <v>8.977690519886</v>
+      </c>
+      <c r="X42">
+        <v>2.2309480114E-2</v>
+      </c>
+      <c r="Z42" s="4">
+        <f>F42-W42</f>
+        <v>-3.710519886000796E-3</v>
+      </c>
+      <c r="AA42">
+        <f>E42-X42</f>
+        <v>3.7103198859999992E-3</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="2"/>
+        <v>1.9031722000000003E-5</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="3"/>
+        <v>-1.9290700000000605E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29">
+      <c r="B43" s="3">
         <v>3.9</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>4.6683999999999996E-3</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D43" s="2">
         <v>1.7847599999999998E-5</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <v>2.2309499999999999E-2</v>
       </c>
-      <c r="F42">
+      <c r="F43" s="4">
         <v>8.9776900000000008</v>
       </c>
-      <c r="H42">
+      <c r="H43">
         <v>3.9</v>
       </c>
-      <c r="I42">
+      <c r="I43">
         <v>4.6683990000000002E-3</v>
       </c>
-      <c r="J42">
+      <c r="J43">
         <v>1250</v>
       </c>
-      <c r="K42">
+      <c r="K43">
         <v>2.2300980000000001E-2</v>
       </c>
-      <c r="L42">
+      <c r="L43">
         <v>9</v>
       </c>
-      <c r="M42">
+      <c r="M43" s="4">
         <v>8.9776989999999994</v>
       </c>
-      <c r="N42">
+      <c r="N43">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O42">
+      <c r="O43">
         <v>1.7840779999999999E-5</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q43" s="4">
         <f t="shared" si="0"/>
         <v>-8.9999999985934664E-6</v>
       </c>
-      <c r="R42" s="1">
+      <c r="R43" s="1">
         <f t="shared" si="1"/>
         <v>8.5199999999979736E-6</v>
       </c>
-    </row>
-    <row r="43" spans="2:18">
-      <c r="B43">
+      <c r="T43">
+        <v>3.9</v>
+      </c>
+      <c r="U43">
+        <v>1.5296769999999999E-6</v>
+      </c>
+      <c r="V43">
+        <v>4.6700533089999996E-3</v>
+      </c>
+      <c r="W43">
+        <v>8.9808717486949998</v>
+      </c>
+      <c r="X43">
+        <v>1.9128251305E-2</v>
+      </c>
+      <c r="Z43" s="4">
+        <f>F43-W43</f>
+        <v>-3.181748694998987E-3</v>
+      </c>
+      <c r="AA43">
+        <f>E43-X43</f>
+        <v>3.1812486949999996E-3</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="2"/>
+        <v>1.6317922999999998E-5</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="3"/>
+        <v>-1.6533089999999639E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29">
+      <c r="B44" s="3">
         <v>4</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <v>4.6700500000000002E-3</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D44" s="2">
         <v>1.5302600000000002E-5</v>
       </c>
-      <c r="E43">
+      <c r="E44">
         <v>1.9128300000000001E-2</v>
       </c>
-      <c r="F43">
+      <c r="F44" s="4">
         <v>8.9808699999999995</v>
       </c>
-      <c r="H43">
+      <c r="H44">
         <v>4</v>
       </c>
-      <c r="I43">
+      <c r="I44">
         <v>4.6700530000000004E-3</v>
       </c>
-      <c r="J43">
+      <c r="J44">
         <v>1250</v>
       </c>
-      <c r="K43">
+      <c r="K44">
         <v>1.9120959999999999E-2</v>
       </c>
-      <c r="L43">
+      <c r="L44">
         <v>9</v>
       </c>
-      <c r="M43">
+      <c r="M44" s="4">
         <v>8.9808789999999998</v>
       </c>
-      <c r="N43">
+      <c r="N44">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O43">
+      <c r="O44">
         <v>1.529677E-5</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="Q44" s="4">
         <f t="shared" si="0"/>
         <v>-9.0000000003698233E-6</v>
       </c>
-      <c r="R43" s="1">
+      <c r="R44" s="1">
         <f t="shared" si="1"/>
         <v>7.340000000001512E-6</v>
       </c>
-    </row>
-    <row r="44" spans="2:18">
-      <c r="B44">
+      <c r="T44">
+        <v>4</v>
+      </c>
+      <c r="U44">
+        <v>1.311552E-6</v>
+      </c>
+      <c r="V44">
+        <v>4.6714716610000004E-3</v>
+      </c>
+      <c r="W44">
+        <v>8.9835993489709995</v>
+      </c>
+      <c r="X44">
+        <v>1.6400651028999999E-2</v>
+      </c>
+      <c r="Z44" s="4">
+        <f>F44-W44</f>
+        <v>-2.7293489710000784E-3</v>
+      </c>
+      <c r="AA44">
+        <f>E44-X44</f>
+        <v>2.7276489710000018E-3</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="2"/>
+        <v>1.3991048000000002E-5</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="3"/>
+        <v>-1.4216610000001087E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29">
+      <c r="B45" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <v>4.6714699999999996E-3</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D45" s="2">
         <v>1.3120500000000001E-5</v>
       </c>
-      <c r="E44">
+      <c r="E45">
         <v>1.6400700000000001E-2</v>
       </c>
-      <c r="F44">
+      <c r="F45" s="4">
         <v>8.9835999999999991</v>
       </c>
-      <c r="H44">
+      <c r="H45">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I44">
+      <c r="I45">
         <v>4.6714720000000003E-3</v>
       </c>
-      <c r="J44">
+      <c r="J45">
         <v>1250</v>
       </c>
-      <c r="K44">
+      <c r="K45">
         <v>1.63944E-2</v>
       </c>
-      <c r="L44">
+      <c r="L45">
         <v>9</v>
       </c>
-      <c r="M44">
+      <c r="M45" s="4">
         <v>8.983606</v>
       </c>
-      <c r="N44">
+      <c r="N45">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O44">
+      <c r="O45">
         <v>1.311552E-5</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="Q45" s="4">
         <f t="shared" si="0"/>
         <v>-6.0000000008386678E-6</v>
       </c>
-      <c r="R44" s="1">
+      <c r="R45" s="1">
         <f t="shared" si="1"/>
         <v>6.3000000000007494E-6</v>
       </c>
-    </row>
-    <row r="45" spans="2:18">
-      <c r="B45">
+      <c r="T45">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="U45">
+        <v>1.124531E-6</v>
+      </c>
+      <c r="V45">
+        <v>4.672687763E-3</v>
+      </c>
+      <c r="W45">
+        <v>8.9859380060470002</v>
+      </c>
+      <c r="X45">
+        <v>1.4061993953E-2</v>
+      </c>
+      <c r="Z45" s="4">
+        <f>F45-W45</f>
+        <v>-2.3380060470010733E-3</v>
+      </c>
+      <c r="AA45">
+        <f>E45-X45</f>
+        <v>2.3387060470000005E-3</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="2"/>
+        <v>1.1995969E-5</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="3"/>
+        <v>-1.2177630000003922E-6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29">
+      <c r="B46" s="3">
         <v>4.2</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <v>4.6726900000000002E-3</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D46" s="2">
         <v>1.12496E-5</v>
       </c>
-      <c r="E45">
+      <c r="E46">
         <v>1.4062E-2</v>
       </c>
-      <c r="F45">
+      <c r="F46" s="4">
         <v>8.9859399999999994</v>
       </c>
-      <c r="H45">
+      <c r="H46">
         <v>4.2</v>
       </c>
-      <c r="I45">
+      <c r="I46">
         <v>4.6726880000000004E-3</v>
       </c>
-      <c r="J45">
+      <c r="J46">
         <v>1250</v>
       </c>
-      <c r="K45">
+      <c r="K46">
         <v>1.4056630000000001E-2</v>
       </c>
-      <c r="L45">
+      <c r="L46">
         <v>9</v>
       </c>
-      <c r="M45">
+      <c r="M46" s="4">
         <v>8.9859430000000007</v>
       </c>
-      <c r="N45">
+      <c r="N46">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O45">
+      <c r="O46">
         <v>1.124531E-5</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="Q46" s="4">
         <f t="shared" si="0"/>
         <v>-3.0000000013075123E-6</v>
       </c>
-      <c r="R45" s="1">
+      <c r="R46" s="1">
         <f t="shared" si="1"/>
         <v>5.3699999999993336E-6</v>
       </c>
-    </row>
-    <row r="46" spans="2:18">
-      <c r="B46">
+      <c r="T46">
+        <v>4.2</v>
+      </c>
+      <c r="U46">
+        <v>9.6417800000000005E-7</v>
+      </c>
+      <c r="V46">
+        <v>4.673730454E-3</v>
+      </c>
+      <c r="W46">
+        <v>8.9879431814279993</v>
+      </c>
+      <c r="X46">
+        <v>1.2056818572E-2</v>
+      </c>
+      <c r="Z46" s="4">
+        <f>F46-W46</f>
+        <v>-2.0031814279999338E-3</v>
+      </c>
+      <c r="AA46">
+        <f>E46-X46</f>
+        <v>2.005181428E-3</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="2"/>
+        <v>1.0285422E-5</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="3"/>
+        <v>-1.0404539999998158E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29">
+      <c r="B47" s="3">
         <v>4.3</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <v>4.6737300000000001E-3</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D47" s="2">
         <v>9.64546E-6</v>
       </c>
-      <c r="E46">
+      <c r="E47">
         <v>1.2056799999999999E-2</v>
       </c>
-      <c r="F46">
+      <c r="F47" s="4">
         <v>8.98794</v>
       </c>
-      <c r="H46">
+      <c r="H47">
         <v>4.3</v>
       </c>
-      <c r="I46">
+      <c r="I47">
         <v>4.6737300000000001E-3</v>
       </c>
-      <c r="J46">
+      <c r="J47">
         <v>1250</v>
       </c>
-      <c r="K46">
+      <c r="K47">
         <v>1.2052220000000001E-2</v>
       </c>
-      <c r="L46">
+      <c r="L47">
         <v>9</v>
       </c>
-      <c r="M46">
+      <c r="M47" s="4">
         <v>8.9879479999999994</v>
       </c>
-      <c r="N46">
+      <c r="N47">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O46">
+      <c r="O47">
         <v>9.6417790000000006E-6</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="Q47" s="4">
         <f t="shared" si="0"/>
         <v>-7.9999999993418669E-6</v>
       </c>
-      <c r="R46" s="1">
+      <c r="R47" s="1">
         <f t="shared" si="1"/>
         <v>4.5799999999988211E-6</v>
       </c>
-    </row>
-    <row r="47" spans="2:18">
-      <c r="B47">
+      <c r="T47">
+        <v>4.3</v>
+      </c>
+      <c r="U47">
+        <v>8.2669100000000003E-7</v>
+      </c>
+      <c r="V47">
+        <v>4.6746244629999999E-3</v>
+      </c>
+      <c r="W47">
+        <v>8.9896624280609991</v>
+      </c>
+      <c r="X47">
+        <v>1.0337571939E-2</v>
+      </c>
+      <c r="Z47" s="4">
+        <f>F47-W47</f>
+        <v>-1.7224280609990927E-3</v>
+      </c>
+      <c r="AA47">
+        <f>E47-X47</f>
+        <v>1.7192280609999999E-3</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="2"/>
+        <v>8.8187689999999995E-6</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="3"/>
+        <v>-8.9446299999986628E-7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29">
+      <c r="B48" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>4.67462E-3</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D48" s="2">
         <v>8.2700599999999996E-6</v>
       </c>
-      <c r="E47">
+      <c r="E48">
         <v>1.0337600000000001E-2</v>
       </c>
-      <c r="F47">
+      <c r="F48" s="4">
         <v>8.9896600000000007</v>
       </c>
-      <c r="H47">
+      <c r="H48">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I47">
+      <c r="I48">
         <v>4.6746239999999996E-3</v>
       </c>
-      <c r="J47">
+      <c r="J48">
         <v>1250</v>
       </c>
-      <c r="K47">
+      <c r="K48">
         <v>1.033363E-2</v>
       </c>
-      <c r="L47">
+      <c r="L48">
         <v>9</v>
       </c>
-      <c r="M47">
+      <c r="M48" s="4">
         <v>8.9896659999999997</v>
       </c>
-      <c r="N47">
+      <c r="N48">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O47">
+      <c r="O48">
         <v>8.2669060000000002E-6</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="Q48" s="4">
         <f t="shared" si="0"/>
         <v>-5.999999999062311E-6</v>
       </c>
-      <c r="R47" s="1">
+      <c r="R48" s="1">
         <f t="shared" si="1"/>
         <v>3.9700000000007091E-6</v>
       </c>
-    </row>
-    <row r="48" spans="2:18">
-      <c r="B48">
+      <c r="T48">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U48">
+        <v>7.08808E-7</v>
+      </c>
+      <c r="V48">
+        <v>4.6753909889999997E-3</v>
+      </c>
+      <c r="W48">
+        <v>8.991136518067</v>
+      </c>
+      <c r="X48">
+        <v>8.8634819329999996E-3</v>
+      </c>
+      <c r="Z48" s="4">
+        <f>F48-W48</f>
+        <v>-1.4765180669993327E-3</v>
+      </c>
+      <c r="AA48">
+        <f>E48-X48</f>
+        <v>1.474118067000001E-3</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="2"/>
+        <v>7.5612519999999994E-6</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="3"/>
+        <v>-7.7098899999971521E-7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:29">
+      <c r="B49" s="3">
         <v>4.5</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <v>4.6753899999999998E-3</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D49" s="2">
         <v>7.0907900000000001E-6</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <v>8.86348E-3</v>
       </c>
-      <c r="F48">
+      <c r="F49" s="4">
         <v>8.9911399999999997</v>
       </c>
-      <c r="H48">
+      <c r="H49">
         <v>4.5</v>
       </c>
-      <c r="I48">
+      <c r="I49">
         <v>4.6753910000000001E-3</v>
       </c>
-      <c r="J48">
+      <c r="J49">
         <v>1250</v>
       </c>
-      <c r="K48">
+      <c r="K49">
         <v>8.8601040000000006E-3</v>
       </c>
-      <c r="L48">
+      <c r="L49">
         <v>9</v>
       </c>
-      <c r="M48">
+      <c r="M49" s="4">
         <v>8.9911399999999997</v>
       </c>
-      <c r="N48">
+      <c r="N49">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O48">
+      <c r="O49">
         <v>7.0880830000000001E-6</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="Q49" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R48" s="1">
+      <c r="R49" s="1">
         <f t="shared" si="1"/>
         <v>3.3759999999993795E-6</v>
       </c>
-    </row>
-    <row r="49" spans="2:18">
-      <c r="B49">
+      <c r="T49">
+        <v>4.5</v>
+      </c>
+      <c r="U49">
+        <v>6.0773599999999996E-7</v>
+      </c>
+      <c r="V49">
+        <v>4.6760482129999999E-3</v>
+      </c>
+      <c r="W49">
+        <v>8.9924004096470007</v>
+      </c>
+      <c r="X49">
+        <v>7.5995903529999997E-3</v>
+      </c>
+      <c r="Z49" s="4">
+        <f>F49-W49</f>
+        <v>-1.2604096470010262E-3</v>
+      </c>
+      <c r="AA49">
+        <f>E49-X49</f>
+        <v>1.2638896470000003E-3</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="2"/>
+        <v>6.4830539999999998E-6</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="3"/>
+        <v>-6.5821300000018512E-7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:29">
+      <c r="B50" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>4.6760500000000002E-3</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D50" s="2">
         <v>6.07967E-6</v>
       </c>
-      <c r="E49">
+      <c r="E50">
         <v>7.5995899999999998E-3</v>
       </c>
-      <c r="F49">
+      <c r="F50" s="4">
         <v>8.9923999999999999</v>
       </c>
-      <c r="H49">
+      <c r="H50">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I49">
+      <c r="I50">
         <v>4.6760480000000004E-3</v>
       </c>
-      <c r="J49">
+      <c r="J50">
         <v>1250</v>
       </c>
-      <c r="K49">
+      <c r="K50">
         <v>7.5966940000000002E-3</v>
       </c>
-      <c r="L49">
+      <c r="L50">
         <v>9</v>
       </c>
-      <c r="M49">
+      <c r="M50" s="4">
         <v>8.9924029999999995</v>
       </c>
-      <c r="N49">
+      <c r="N50">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O49">
+      <c r="O50">
         <v>6.0773549999999999E-6</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="Q50" s="4">
         <f t="shared" si="0"/>
         <v>-2.9999999995311555E-6</v>
       </c>
-      <c r="R49" s="1">
+      <c r="R50" s="1">
         <f t="shared" si="1"/>
         <v>2.895999999999628E-6</v>
       </c>
-    </row>
-    <row r="50" spans="2:18">
-      <c r="B50">
+      <c r="T50">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="U50">
+        <v>5.2107500000000003E-7</v>
+      </c>
+      <c r="V50">
+        <v>4.6766117200000004E-3</v>
+      </c>
+      <c r="W50">
+        <v>8.9934840761260002</v>
+      </c>
+      <c r="X50">
+        <v>6.5159238739999998E-3</v>
+      </c>
+      <c r="Z50" s="4">
+        <f>F50-W50</f>
+        <v>-1.0840761260002552E-3</v>
+      </c>
+      <c r="AA50">
+        <f>E50-X50</f>
+        <v>1.083666126E-3</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="2"/>
+        <v>5.5585950000000001E-6</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="3"/>
+        <v>-5.6172000000020983E-7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:29">
+      <c r="B51" s="3">
         <v>4.7</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>4.6766100000000003E-3</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D51" s="2">
         <v>5.2127400000000003E-6</v>
       </c>
-      <c r="E50">
+      <c r="E51">
         <v>6.5159199999999997E-3</v>
       </c>
-      <c r="F50">
+      <c r="F51" s="4">
         <v>8.9934799999999999</v>
       </c>
-      <c r="H50">
+      <c r="H51">
         <v>4.7</v>
       </c>
-      <c r="I50">
+      <c r="I51">
         <v>4.6766120000000001E-3</v>
       </c>
-      <c r="J50">
+      <c r="J51">
         <v>1250</v>
       </c>
-      <c r="K50">
+      <c r="K51">
         <v>6.5134399999999997E-3</v>
       </c>
-      <c r="L50">
+      <c r="L51">
         <v>9</v>
       </c>
-      <c r="M50">
+      <c r="M51" s="4">
         <v>8.993487</v>
       </c>
-      <c r="N50">
+      <c r="N51">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O50">
+      <c r="O51">
         <v>5.2107519999999997E-6</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="Q51" s="4">
         <f t="shared" si="0"/>
         <v>-7.0000000000902673E-6</v>
       </c>
-      <c r="R50" s="1">
+      <c r="R51" s="1">
         <f t="shared" si="1"/>
         <v>2.4800000000000169E-6</v>
       </c>
-    </row>
-    <row r="51" spans="2:18">
-      <c r="B51">
+      <c r="T51">
+        <v>4.7</v>
+      </c>
+      <c r="U51">
+        <v>4.4677200000000003E-7</v>
+      </c>
+      <c r="V51">
+        <v>4.6770948730000001E-3</v>
+      </c>
+      <c r="W51">
+        <v>8.9944132167709991</v>
+      </c>
+      <c r="X51">
+        <v>5.5867832290000001E-3</v>
+      </c>
+      <c r="Z51" s="4">
+        <f>F51-W51</f>
+        <v>-9.332167709992234E-4</v>
+      </c>
+      <c r="AA51">
+        <f>E51-X51</f>
+        <v>9.2913677099999963E-4</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="2"/>
+        <v>4.7659680000000006E-6</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="3"/>
+        <v>-4.8487299999979555E-7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:29">
+      <c r="B52" s="3">
         <v>4.8</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>4.6770900000000001E-3</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D52" s="2">
         <v>4.4694300000000003E-6</v>
       </c>
-      <c r="E51">
+      <c r="E52">
         <v>5.5867800000000004E-3</v>
       </c>
-      <c r="F51">
+      <c r="F52" s="4">
         <v>8.9944100000000002</v>
       </c>
-      <c r="H51">
+      <c r="H52">
         <v>4.8</v>
       </c>
-      <c r="I51">
+      <c r="I52">
         <v>4.677095E-3</v>
       </c>
-      <c r="J51">
+      <c r="J52">
         <v>1250</v>
       </c>
-      <c r="K51">
+      <c r="K52">
         <v>5.5846539999999997E-3</v>
       </c>
-      <c r="L51">
+      <c r="L52">
         <v>9</v>
       </c>
-      <c r="M51">
+      <c r="M52" s="4">
         <v>8.994415</v>
       </c>
-      <c r="N51">
+      <c r="N52">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O51">
+      <c r="O52">
         <v>4.467723E-6</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="Q52" s="4">
         <f t="shared" si="0"/>
         <v>-4.9999999998107114E-6</v>
       </c>
-      <c r="R51" s="1">
+      <c r="R52" s="1">
         <f t="shared" si="1"/>
         <v>2.1260000000007315E-6</v>
       </c>
-    </row>
-    <row r="52" spans="2:18">
-      <c r="B52">
+      <c r="T52">
+        <v>4.8</v>
+      </c>
+      <c r="U52">
+        <v>3.8306500000000002E-7</v>
+      </c>
+      <c r="V52">
+        <v>4.6775091300000002E-3</v>
+      </c>
+      <c r="W52">
+        <v>8.9952098662520008</v>
+      </c>
+      <c r="X52">
+        <v>4.7901337479999999E-3</v>
+      </c>
+      <c r="Z52" s="4">
+        <f>F52-W52</f>
+        <v>-7.9986625200056949E-4</v>
+      </c>
+      <c r="AA52">
+        <f>E52-X52</f>
+        <v>7.9664625200000054E-4</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="2"/>
+        <v>4.0863650000000005E-6</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="3"/>
+        <v>-4.1913000000011469E-7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:29">
+      <c r="B53" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>4.6775100000000002E-3</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D53" s="2">
         <v>3.83211E-6</v>
       </c>
-      <c r="E52">
+      <c r="E53">
         <v>4.7901300000000001E-3</v>
       </c>
-      <c r="F52">
+      <c r="F53" s="4">
         <v>8.9952100000000002</v>
       </c>
-      <c r="H52">
+      <c r="H53">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I52">
+      <c r="I53">
         <v>4.6775089999999998E-3</v>
       </c>
-      <c r="J52">
+      <c r="J53">
         <v>1250</v>
       </c>
-      <c r="K52">
+      <c r="K53">
         <v>4.7883079999999998E-3</v>
       </c>
-      <c r="L52">
+      <c r="L53">
         <v>9</v>
       </c>
-      <c r="M52">
+      <c r="M53" s="4">
         <v>8.9952120000000004</v>
       </c>
-      <c r="N52">
+      <c r="N53">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O52">
+      <c r="O53">
         <v>3.8306460000000002E-6</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="Q53" s="4">
         <f t="shared" si="0"/>
         <v>-2.0000000002795559E-6</v>
       </c>
-      <c r="R52" s="1">
+      <c r="R53" s="1">
         <f t="shared" si="1"/>
         <v>1.8220000000002817E-6</v>
       </c>
-    </row>
-    <row r="53" spans="2:18">
-      <c r="B53">
+      <c r="T53">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="U53">
+        <v>3.2844100000000002E-7</v>
+      </c>
+      <c r="V53">
+        <v>4.6778643170000004E-3</v>
+      </c>
+      <c r="W53">
+        <v>8.9958929171970006</v>
+      </c>
+      <c r="X53">
+        <v>4.1070828029999996E-3</v>
+      </c>
+      <c r="Z53" s="4">
+        <f>F53-W53</f>
+        <v>-6.8291719700042108E-4</v>
+      </c>
+      <c r="AA53">
+        <f>E53-X53</f>
+        <v>6.8304719700000051E-4</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="2"/>
+        <v>3.5036689999999998E-6</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="3"/>
+        <v>-3.5431700000018718E-7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:29">
+      <c r="B54" s="3">
         <v>5</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>4.6778599999999998E-3</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D54" s="2">
         <v>3.2856700000000002E-6</v>
       </c>
-      <c r="E53">
+      <c r="E54">
         <v>4.1070799999999999E-3</v>
       </c>
-      <c r="F53">
+      <c r="F54" s="4">
         <v>8.9958899999999993</v>
       </c>
-      <c r="H53">
+      <c r="H54">
         <v>5</v>
       </c>
-      <c r="I53">
+      <c r="I54">
         <v>4.6778640000000003E-3</v>
       </c>
-      <c r="J53">
+      <c r="J54">
         <v>1250</v>
       </c>
-      <c r="K53">
+      <c r="K54">
         <v>4.1055170000000004E-3</v>
       </c>
-      <c r="L53">
+      <c r="L54">
         <v>9</v>
       </c>
-      <c r="M53">
+      <c r="M54" s="4">
         <v>8.9958939999999998</v>
       </c>
-      <c r="N53">
+      <c r="N54">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="O53">
+      <c r="O54">
         <v>3.2844139999999998E-6</v>
       </c>
-      <c r="Q53" s="1">
+      <c r="Q54" s="4">
         <f t="shared" si="0"/>
         <v>-4.0000000005591119E-6</v>
       </c>
-      <c r="R53" s="1">
+      <c r="R54" s="1">
         <f t="shared" si="1"/>
         <v>1.5629999999995647E-6</v>
+      </c>
+      <c r="T54">
+        <v>5</v>
+      </c>
+      <c r="U54">
+        <v>2.8160700000000001E-7</v>
+      </c>
+      <c r="V54">
+        <v>4.6781688550000004E-3</v>
+      </c>
+      <c r="W54">
+        <v>8.996478568233</v>
+      </c>
+      <c r="X54">
+        <v>3.5214317670000002E-3</v>
+      </c>
+      <c r="Z54" s="4">
+        <f>F54-W54</f>
+        <v>-5.8856823300068584E-4</v>
+      </c>
+      <c r="AA54">
+        <f>E54-X54</f>
+        <v>5.8564823299999975E-4</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="2"/>
+        <v>3.0040630000000002E-6</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="3"/>
+        <v>-3.0885500000056576E-7</v>
       </c>
     </row>
   </sheetData>
@@ -32013,7 +33725,7 @@
         <v>-1.0000000003410059E-10</v>
       </c>
       <c r="V4" s="1">
-        <f t="shared" ref="V4:W67" si="1">H4-R4</f>
+        <f t="shared" ref="V4:V67" si="1">H4-R4</f>
         <v>9.9999999947364415E-9</v>
       </c>
     </row>

--- a/doc/AB2 vs Berkeley Madonnaxlsx.xlsx
+++ b/doc/AB2 vs Berkeley Madonnaxlsx.xlsx
@@ -281,7 +281,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,13 +297,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -318,16 +332,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -346,15 +371,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="kondensator table2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="intern_kondensator" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sim_kondensator2" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="kondensator table2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29291,146 +29316,155 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:AC54"/>
+  <dimension ref="A1:AC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
     <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.42578125" customWidth="1"/>
     <col min="17" max="17" width="11.42578125" style="4"/>
-    <col min="18" max="18" width="11.42578125" style="1"/>
+    <col min="18" max="18" width="11.42578125" style="6"/>
     <col min="19" max="20" width="5.140625" customWidth="1"/>
     <col min="21" max="24" width="12" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7.5703125" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" ht="21">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="1:29" s="7" customFormat="1">
+      <c r="B1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="10"/>
+    </row>
+    <row r="2" spans="1:29" s="7" customFormat="1" ht="21">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="7" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5" t="s">
+      <c r="R2" s="14"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5" t="s">
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-    </row>
-    <row r="3" spans="1:29">
-      <c r="B3" s="3" t="s">
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+    </row>
+    <row r="3" spans="1:29" s="15" customFormat="1" ht="15.75">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -29444,7 +29478,7 @@
       <c r="D4">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>9</v>
       </c>
       <c r="F4" s="4">
@@ -29459,7 +29493,7 @@
       <c r="J4">
         <v>1250</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="5">
         <v>9</v>
       </c>
       <c r="L4">
@@ -29478,7 +29512,7 @@
         <f>F4-M4</f>
         <v>0</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="6">
         <f>E4-K4</f>
         <v>0</v>
       </c>
@@ -29498,11 +29532,11 @@
         <v>7.7166415741750001</v>
       </c>
       <c r="Z4" s="4">
-        <f>F4-W4</f>
+        <f t="shared" ref="Z4:Z35" si="0">F4-W4</f>
         <v>-1.2833584258249999</v>
       </c>
-      <c r="AA4">
-        <f>E4-X4</f>
+      <c r="AA4" s="5">
+        <f t="shared" ref="AA4:AA35" si="1">E4-X4</f>
         <v>1.2833584258249999</v>
       </c>
       <c r="AB4">
@@ -29524,7 +29558,7 @@
       <c r="D5">
         <v>6.1733100000000004E-3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>7.7166399999999999</v>
       </c>
       <c r="F5" s="4">
@@ -29539,7 +29573,7 @@
       <c r="J5">
         <v>1250</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="5">
         <v>7.7137010000000004</v>
       </c>
       <c r="L5">
@@ -29555,11 +29589,11 @@
         <v>6.1709599999999996E-3</v>
       </c>
       <c r="Q5" s="4">
-        <f t="shared" ref="Q5:Q54" si="0">F5-M5</f>
+        <f t="shared" ref="Q5:Q54" si="2">F5-M5</f>
         <v>-2.9390000000000249E-3</v>
       </c>
-      <c r="R5" s="1">
-        <f t="shared" ref="R5:R54" si="1">E5-K5</f>
+      <c r="R5" s="6">
+        <f t="shared" ref="R5:R54" si="3">E5-K5</f>
         <v>2.9389999999995808E-3</v>
       </c>
       <c r="T5">
@@ -29578,19 +29612,19 @@
         <v>6.6162841315870002</v>
       </c>
       <c r="Z5" s="4">
-        <f>F5-W5</f>
+        <f t="shared" si="0"/>
         <v>-1.1003558684130001</v>
       </c>
-      <c r="AA5">
-        <f>E5-X5</f>
+      <c r="AA5" s="5">
+        <f t="shared" si="1"/>
         <v>1.1003558684129997</v>
       </c>
       <c r="AB5">
-        <f t="shared" ref="AB5:AB54" si="2">D5-U5</f>
+        <f t="shared" ref="AB5:AB54" si="4">D5-U5</f>
         <v>5.6442090050000003E-3</v>
       </c>
       <c r="AC5">
-        <f t="shared" ref="AC5:AC54" si="3">C5-V5</f>
+        <f t="shared" ref="AC5:AC54" si="5">C5-V5</f>
         <v>-5.721862520000001E-4</v>
       </c>
     </row>
@@ -29604,7 +29638,7 @@
       <c r="D6">
         <v>5.2930299999999998E-3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>6.6162799999999997</v>
       </c>
       <c r="F6" s="4">
@@ -29619,7 +29653,7 @@
       <c r="J6">
         <v>1250</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="5">
         <v>6.6137620000000004</v>
       </c>
       <c r="L6">
@@ -29635,11 +29669,11 @@
         <v>5.2910099999999996E-3</v>
       </c>
       <c r="Q6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.5180000000002423E-3</v>
       </c>
-      <c r="R6" s="1">
-        <f t="shared" si="1"/>
+      <c r="R6" s="6">
+        <f t="shared" si="3"/>
         <v>2.5179999999993541E-3</v>
       </c>
       <c r="T6">
@@ -29658,19 +29692,19 @@
         <v>5.6728325773729997</v>
       </c>
       <c r="Z6" s="4">
-        <f>F6-W6</f>
+        <f t="shared" si="0"/>
         <v>-0.94344742262699999</v>
       </c>
-      <c r="AA6">
-        <f>E6-X6</f>
+      <c r="AA6" s="5">
+        <f t="shared" si="1"/>
         <v>0.94344742262699999</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.8393763630000001E-3</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4.9059705999999993E-4</v>
       </c>
     </row>
@@ -29684,7 +29718,7 @@
       <c r="D7">
         <v>4.5382699999999996E-3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>5.6728300000000003</v>
       </c>
       <c r="F7" s="4">
@@ -29699,7 +29733,7 @@
       <c r="J7">
         <v>1250</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="5">
         <v>5.6706700000000003</v>
       </c>
       <c r="L7">
@@ -29715,11 +29749,11 @@
         <v>4.5365359999999999E-3</v>
       </c>
       <c r="Q7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.1599999999999397E-3</v>
       </c>
-      <c r="R7" s="1">
-        <f t="shared" si="1"/>
+      <c r="R7" s="6">
+        <f t="shared" si="3"/>
         <v>2.1599999999999397E-3</v>
       </c>
       <c r="T7">
@@ -29738,19 +29772,19 @@
         <v>4.8639128566540002</v>
       </c>
       <c r="Z7" s="4">
-        <f>F7-W7</f>
+        <f t="shared" si="0"/>
         <v>-0.80891714334599962</v>
       </c>
-      <c r="AA7">
-        <f>E7-X7</f>
+      <c r="AA7" s="5">
+        <f t="shared" si="1"/>
         <v>0.80891714334600007</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.1493052759999996E-3</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4.2063531499999976E-4</v>
       </c>
     </row>
@@ -29764,7 +29798,7 @@
       <c r="D8">
         <v>3.89113E-3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>4.8639099999999997</v>
       </c>
       <c r="F8" s="4">
@@ -29779,7 +29813,7 @@
       <c r="J8">
         <v>1250</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="5">
         <v>4.8620590000000004</v>
       </c>
       <c r="L8">
@@ -29795,11 +29829,11 @@
         <v>3.889647E-3</v>
       </c>
       <c r="Q8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.8509999999993809E-3</v>
       </c>
-      <c r="R8" s="1">
-        <f t="shared" si="1"/>
+      <c r="R8" s="6">
+        <f t="shared" si="3"/>
         <v>1.8509999999993809E-3</v>
       </c>
       <c r="T8">
@@ -29818,19 +29852,19 @@
         <v>4.1703413514239998</v>
       </c>
       <c r="Z8" s="4">
-        <f>F8-W8</f>
+        <f t="shared" si="0"/>
         <v>-0.69356864857599998</v>
       </c>
-      <c r="AA8">
-        <f>E8-X8</f>
+      <c r="AA8" s="5">
+        <f t="shared" si="1"/>
         <v>0.69356864857599998</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.5576298490000002E-3</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3.6065249699999968E-4</v>
       </c>
     </row>
@@ -29844,7 +29878,7 @@
       <c r="D9">
         <v>3.3362700000000001E-3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>4.1703400000000004</v>
       </c>
       <c r="F9" s="4">
@@ -29859,7 +29893,7 @@
       <c r="J9">
         <v>1250</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="5">
         <v>4.1687519999999996</v>
       </c>
       <c r="L9">
@@ -29875,11 +29909,11 @@
         <v>3.3350020000000001E-3</v>
       </c>
       <c r="Q9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.588000000000811E-3</v>
       </c>
-      <c r="R9" s="1">
-        <f t="shared" si="1"/>
+      <c r="R9" s="6">
+        <f t="shared" si="3"/>
         <v>1.588000000000811E-3</v>
       </c>
       <c r="T9">
@@ -29898,19 +29932,19 @@
         <v>3.5756699389889999</v>
       </c>
       <c r="Z9" s="4">
-        <f>F9-W9</f>
+        <f t="shared" si="0"/>
         <v>-0.59467006101100051</v>
       </c>
-      <c r="AA9">
-        <f>E9-X9</f>
+      <c r="AA9" s="5">
+        <f t="shared" si="1"/>
         <v>0.59467006101100051</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.05032543E-3</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3.0923163200000017E-4</v>
       </c>
     </row>
@@ -29924,7 +29958,7 @@
       <c r="D10">
         <v>2.86054E-3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>3.5756700000000001</v>
       </c>
       <c r="F10" s="4">
@@ -29939,7 +29973,7 @@
       <c r="J10">
         <v>1250</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="5">
         <v>3.5743070000000001</v>
       </c>
       <c r="L10">
@@ -29955,11 +29989,11 @@
         <v>2.8594459999999999E-3</v>
       </c>
       <c r="Q10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.362999999999559E-3</v>
       </c>
-      <c r="R10" s="1">
-        <f t="shared" si="1"/>
+      <c r="R10" s="6">
+        <f t="shared" si="3"/>
         <v>1.3630000000000031E-3</v>
       </c>
       <c r="T10">
@@ -29978,19 +30012,19 @@
         <v>3.06579592297</v>
       </c>
       <c r="Z10" s="4">
-        <f>F10-W10</f>
+        <f t="shared" si="0"/>
         <v>-0.50987407703000009</v>
       </c>
-      <c r="AA10">
-        <f>E10-X10</f>
+      <c r="AA10" s="5">
+        <f t="shared" si="1"/>
         <v>0.50987407703000009</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.615369804E-3</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.6513611999999997E-4</v>
       </c>
     </row>
@@ -30004,7 +30038,7 @@
       <c r="D11">
         <v>2.4526399999999999E-3</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>3.0657999999999999</v>
       </c>
       <c r="F11" s="4">
@@ -30019,7 +30053,7 @@
       <c r="J11">
         <v>1250</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="5">
         <v>3.0646270000000002</v>
       </c>
       <c r="L11">
@@ -30035,11 +30069,11 @@
         <v>2.451702E-3</v>
       </c>
       <c r="Q11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.1730000000005347E-3</v>
       </c>
-      <c r="R11" s="1">
-        <f t="shared" si="1"/>
+      <c r="R11" s="6">
+        <f t="shared" si="3"/>
         <v>1.1729999999996465E-3</v>
       </c>
       <c r="T11">
@@ -30058,19 +30092,19 @@
         <v>2.6286275863470001</v>
       </c>
       <c r="Z11" s="4">
-        <f>F11-W11</f>
+        <f t="shared" si="0"/>
         <v>-0.43717241365300019</v>
       </c>
-      <c r="AA11">
-        <f>E11-X11</f>
+      <c r="AA11" s="5">
+        <f t="shared" si="1"/>
         <v>0.43717241365299975</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.2424299419999999E-3</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.2732365499999975E-4</v>
       </c>
     </row>
@@ -30084,7 +30118,7 @@
       <c r="D12">
         <v>2.1029E-3</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>2.6286299999999998</v>
       </c>
       <c r="F12" s="4">
@@ -30099,7 +30133,7 @@
       <c r="J12">
         <v>1250</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="5">
         <v>2.6276259999999998</v>
       </c>
       <c r="L12">
@@ -30115,11 +30149,11 @@
         <v>2.1021009999999999E-3</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.0040000000000049E-3</v>
       </c>
-      <c r="R12" s="1">
-        <f t="shared" si="1"/>
+      <c r="R12" s="6">
+        <f t="shared" si="3"/>
         <v>1.0040000000000049E-3</v>
       </c>
       <c r="T12">
@@ -30138,19 +30172,19 @@
         <v>2.2537974350919998</v>
       </c>
       <c r="Z12" s="4">
-        <f>F12-W12</f>
+        <f t="shared" si="0"/>
         <v>-0.37483256490799999</v>
       </c>
-      <c r="AA12">
-        <f>E12-X12</f>
+      <c r="AA12" s="5">
+        <f t="shared" si="1"/>
         <v>0.37483256490799999</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.9226649249999999E-3</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.949153339999999E-4</v>
       </c>
     </row>
@@ -30164,7 +30198,7 @@
       <c r="D13">
         <v>1.8030399999999999E-3</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>2.2538</v>
       </c>
       <c r="F13" s="4">
@@ -30179,7 +30213,7 @@
       <c r="J13">
         <v>1250</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="5">
         <v>2.2529379999999999</v>
       </c>
       <c r="L13">
@@ -30195,11 +30229,11 @@
         <v>1.802351E-3</v>
       </c>
       <c r="Q13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-8.6199999999969634E-4</v>
       </c>
-      <c r="R13" s="1">
-        <f t="shared" si="1"/>
+      <c r="R13" s="6">
+        <f t="shared" si="3"/>
         <v>8.6200000000014043E-4</v>
       </c>
       <c r="T13">
@@ -30218,19 +30252,19 @@
         <v>1.9324163319330001</v>
       </c>
       <c r="Z13" s="4">
-        <f>F13-W13</f>
+        <f t="shared" si="0"/>
         <v>-0.32138366806699992</v>
       </c>
-      <c r="AA13">
-        <f>E13-X13</f>
+      <c r="AA13" s="5">
+        <f t="shared" si="1"/>
         <v>0.32138366806699992</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.6485056139999999E-3</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.6711350700000013E-4</v>
       </c>
     </row>
@@ -30244,7 +30278,7 @@
       <c r="D14">
         <v>1.54593E-3</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>1.93242</v>
       </c>
       <c r="F14" s="4">
@@ -30259,7 +30293,7 @@
       <c r="J14">
         <v>1250</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="5">
         <v>1.9316800000000001</v>
       </c>
       <c r="L14">
@@ -30275,11 +30309,11 @@
         <v>1.5453439999999999E-3</v>
       </c>
       <c r="Q14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-7.3999999999951882E-4</v>
       </c>
-      <c r="R14" s="1">
-        <f t="shared" si="1"/>
+      <c r="R14" s="6">
+        <f t="shared" si="3"/>
         <v>7.3999999999996291E-4</v>
       </c>
       <c r="T14">
@@ -30298,19 +30332,19 @@
         <v>1.656862689512</v>
       </c>
       <c r="Z14" s="4">
-        <f>F14-W14</f>
+        <f t="shared" si="0"/>
         <v>-0.27555731048799981</v>
       </c>
-      <c r="AA14">
-        <f>E14-X14</f>
+      <c r="AA14" s="5">
+        <f t="shared" si="1"/>
         <v>0.27555731048800003</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4134315040000001E-3</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.4329140099999995E-4</v>
       </c>
     </row>
@@ -30324,7 +30358,7 @@
       <c r="D15">
         <v>1.3254899999999999E-3</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>1.65686</v>
       </c>
       <c r="F15" s="4">
@@ -30339,7 +30373,7 @@
       <c r="J15">
         <v>1250</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="5">
         <v>1.656231</v>
       </c>
       <c r="L15">
@@ -30355,11 +30389,11 @@
         <v>1.3249850000000001E-3</v>
       </c>
       <c r="Q15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-6.2899999999999068E-4</v>
       </c>
-      <c r="R15" s="1">
-        <f t="shared" si="1"/>
+      <c r="R15" s="6">
+        <f t="shared" si="3"/>
         <v>6.2899999999999068E-4</v>
       </c>
       <c r="T15">
@@ -30378,19 +30412,19 @@
         <v>1.420601723621</v>
       </c>
       <c r="Z15" s="4">
-        <f>F15-W15</f>
+        <f t="shared" si="0"/>
         <v>-0.23625827637899999</v>
       </c>
-      <c r="AA15">
-        <f>E15-X15</f>
+      <c r="AA15" s="5">
+        <f t="shared" si="1"/>
         <v>0.23625827637899999</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.2118851769999999E-3</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.2285710400000054E-4</v>
       </c>
     </row>
@@ -30404,7 +30438,7 @@
       <c r="D16">
         <v>1.13648E-3</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>1.4206000000000001</v>
       </c>
       <c r="F16" s="4">
@@ -30419,7 +30453,7 @@
       <c r="J16">
         <v>1250</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="5">
         <v>1.4200600000000001</v>
       </c>
       <c r="L16">
@@ -30435,11 +30469,11 @@
         <v>1.136048E-3</v>
       </c>
       <c r="Q16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.3999999999998494E-4</v>
       </c>
-      <c r="R16" s="1">
-        <f t="shared" si="1"/>
+      <c r="R16" s="6">
+        <f t="shared" si="3"/>
         <v>5.3999999999998494E-4</v>
       </c>
       <c r="T16">
@@ -30458,19 +30492,19 @@
         <v>1.218030480093</v>
       </c>
       <c r="Z16" s="4">
-        <f>F16-W16</f>
+        <f t="shared" si="0"/>
         <v>-0.20256951990700056</v>
       </c>
-      <c r="AA16">
-        <f>E16-X16</f>
+      <c r="AA16" s="5">
+        <f t="shared" si="1"/>
         <v>0.20256951990700012</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0390747000000001E-3</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.0533414999999973E-4</v>
       </c>
     </row>
@@ -30484,7 +30518,7 @@
       <c r="D17" s="2">
         <v>9.7442399999999999E-4</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>1.2180299999999999</v>
       </c>
       <c r="F17" s="4">
@@ -30499,7 +30533,7 @@
       <c r="J17">
         <v>1250</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="5">
         <v>1.2175659999999999</v>
       </c>
       <c r="L17">
@@ -30515,11 +30549,11 @@
         <v>9.7405300000000001E-4</v>
       </c>
       <c r="Q17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-4.6400000000001995E-4</v>
       </c>
-      <c r="R17" s="1">
-        <f t="shared" si="1"/>
+      <c r="R17" s="6">
+        <f t="shared" si="3"/>
         <v>4.6400000000001995E-4</v>
       </c>
       <c r="T17">
@@ -30538,19 +30572,19 @@
         <v>1.044344960144</v>
       </c>
       <c r="Z17" s="4">
-        <f>F17-W17</f>
+        <f t="shared" si="0"/>
         <v>-0.17368503985600015</v>
       </c>
-      <c r="AA17">
-        <f>E17-X17</f>
+      <c r="AA17" s="5">
+        <f t="shared" si="1"/>
         <v>0.17368503985599992</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.9090824600000004E-4</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-9.0320621000000191E-5</v>
       </c>
     </row>
@@ -30564,7 +30598,7 @@
       <c r="D18" s="2">
         <v>8.3547600000000004E-4</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>1.04434</v>
       </c>
       <c r="F18" s="4">
@@ -30579,7 +30613,7 @@
       <c r="J18">
         <v>1250</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="5">
         <v>1.043947</v>
       </c>
       <c r="L18">
@@ -30595,11 +30629,11 @@
         <v>8.3515749999999995E-4</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.9299999999986568E-4</v>
       </c>
-      <c r="R18" s="1">
-        <f t="shared" si="1"/>
+      <c r="R18" s="6">
+        <f t="shared" si="3"/>
         <v>3.9300000000008772E-4</v>
       </c>
       <c r="T18">
@@ -30618,19 +30652,19 @@
         <v>0.89542619302500004</v>
       </c>
       <c r="Z18" s="4">
-        <f>F18-W18</f>
+        <f t="shared" si="0"/>
         <v>-0.1489138069750009</v>
       </c>
-      <c r="AA18">
-        <f>E18-X18</f>
+      <c r="AA18" s="5">
+        <f t="shared" si="1"/>
         <v>0.14891380697500001</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.6386920700000007E-4</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7.7438379999999335E-5</v>
       </c>
     </row>
@@ -30644,7 +30678,7 @@
       <c r="D19" s="2">
         <v>7.16341E-4</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>0.89542600000000006</v>
       </c>
       <c r="F19" s="4">
@@ -30659,7 +30693,7 @@
       <c r="J19">
         <v>1250</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="5">
         <v>0.89508489999999996</v>
       </c>
       <c r="L19">
@@ -30675,11 +30709,11 @@
         <v>7.1606790000000001E-4</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.4499999999937359E-4</v>
       </c>
-      <c r="R19" s="1">
-        <f t="shared" si="1"/>
+      <c r="R19" s="6">
+        <f t="shared" si="3"/>
         <v>3.4110000000009411E-4</v>
       </c>
       <c r="T19">
@@ -30698,19 +30732,19 @@
         <v>0.76774255418899995</v>
       </c>
       <c r="Z19" s="4">
-        <f>F19-W19</f>
+        <f t="shared" si="0"/>
         <v>-0.12768744581099867</v>
       </c>
-      <c r="AA19">
-        <f>E19-X19</f>
+      <c r="AA19" s="5">
+        <f t="shared" si="1"/>
         <v>0.12768344581100011</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.5494500499999996E-4</v>
       </c>
       <c r="AC19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-6.6393871999999646E-5</v>
       </c>
     </row>
@@ -30724,7 +30758,7 @@
       <c r="D20" s="2">
         <v>6.1419399999999998E-4</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>0.76774299999999995</v>
       </c>
       <c r="F20" s="4">
@@ -30739,7 +30773,7 @@
       <c r="J20">
         <v>1250</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="5">
         <v>0.76744990000000002</v>
       </c>
       <c r="L20">
@@ -30755,11 +30789,11 @@
         <v>6.1395999999999998E-4</v>
       </c>
       <c r="Q20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.899999999996794E-4</v>
       </c>
-      <c r="R20" s="1">
-        <f t="shared" si="1"/>
+      <c r="R20" s="6">
+        <f t="shared" si="3"/>
         <v>2.9309999999993508E-4</v>
       </c>
       <c r="T20">
@@ -30778,19 +30812,19 @@
         <v>0.65826601243600003</v>
       </c>
       <c r="Z20" s="4">
-        <f>F20-W20</f>
+        <f t="shared" si="0"/>
         <v>-0.10947398756399984</v>
       </c>
-      <c r="AA20">
-        <f>E20-X20</f>
+      <c r="AA20" s="5">
+        <f t="shared" si="1"/>
         <v>0.10947698756399993</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.6155278999999998E-4</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-5.6931674000000425E-5</v>
       </c>
     </row>
@@ -30804,7 +30838,7 @@
       <c r="D21" s="2">
         <v>5.2661299999999999E-4</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="5">
         <v>0.65826600000000002</v>
       </c>
       <c r="F21" s="4">
@@ -30819,7 +30853,7 @@
       <c r="J21">
         <v>1250</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="5">
         <v>0.65801509999999996</v>
       </c>
       <c r="L21">
@@ -30835,11 +30869,11 @@
         <v>5.2641210000000001E-4</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.5499999999922807E-4</v>
       </c>
-      <c r="R21" s="1">
-        <f t="shared" si="1"/>
+      <c r="R21" s="6">
+        <f t="shared" si="3"/>
         <v>2.5090000000005386E-4</v>
       </c>
       <c r="T21">
@@ -30858,19 +30892,19 @@
         <v>0.56440031982500005</v>
       </c>
       <c r="Z21" s="4">
-        <f>F21-W21</f>
+        <f t="shared" si="0"/>
         <v>-9.3869680175000525E-2</v>
       </c>
-      <c r="AA21">
-        <f>E21-X21</f>
+      <c r="AA21" s="5">
+        <f t="shared" si="1"/>
         <v>9.3865680174999966E-2</v>
       </c>
       <c r="AB21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.81478183E-4</v>
       </c>
       <c r="AC21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4.8811834000000304E-5</v>
       </c>
     </row>
@@ -30884,7 +30918,7 @@
       <c r="D22" s="2">
         <v>4.5152000000000001E-4</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="5">
         <v>0.56440000000000001</v>
       </c>
       <c r="F22" s="4">
@@ -30899,7 +30933,7 @@
       <c r="J22">
         <v>1250</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="5">
         <v>0.56418520000000005</v>
       </c>
       <c r="L22">
@@ -30915,10 +30949,10 @@
         <v>4.5134819999999998E-4</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.1499999999896602E-4</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="6">
         <f>E22-K22</f>
         <v>2.1479999999995947E-4</v>
       </c>
@@ -30938,19 +30972,19 @@
         <v>0.48391944138199999</v>
       </c>
       <c r="Z22" s="4">
-        <f>F22-W22</f>
+        <f t="shared" si="0"/>
         <v>-8.048055861799952E-2</v>
       </c>
-      <c r="AA22">
-        <f>E22-X22</f>
+      <c r="AA22" s="5">
+        <f t="shared" si="1"/>
         <v>8.048055861800002E-2</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.1282120000000002E-4</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4.1851890000000648E-5</v>
       </c>
     </row>
@@ -30964,7 +30998,7 @@
       <c r="D23" s="2">
         <v>3.87136E-4</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="5">
         <v>0.48391899999999999</v>
       </c>
       <c r="F23" s="4">
@@ -30979,7 +31013,7 @@
       <c r="J23">
         <v>1250</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="5">
         <v>0.48373500000000003</v>
       </c>
       <c r="L23">
@@ -30995,11 +31029,11 @@
         <v>3.86988E-4</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.8500000000010175E-4</v>
       </c>
-      <c r="R23" s="1">
-        <f t="shared" si="1"/>
+      <c r="R23" s="6">
+        <f t="shared" si="3"/>
         <v>1.8399999999996197E-4</v>
       </c>
       <c r="T23">
@@ -31018,19 +31052,19 @@
         <v>0.41491476443600001</v>
       </c>
       <c r="Z23" s="4">
-        <f>F23-W23</f>
+        <f t="shared" si="0"/>
         <v>-6.9005235563999179E-2</v>
       </c>
-      <c r="AA23">
-        <f>E23-X23</f>
+      <c r="AA23" s="5">
+        <f t="shared" si="1"/>
         <v>6.9004235563999983E-2</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.5395547E-4</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3.5884321999999497E-5</v>
       </c>
     </row>
@@ -31044,7 +31078,7 @@
       <c r="D24" s="2">
         <v>3.3193200000000001E-4</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="5">
         <v>0.41491499999999998</v>
       </c>
       <c r="F24" s="4">
@@ -31059,7 +31093,7 @@
       <c r="J24">
         <v>1250</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="5">
         <v>0.41475659999999998</v>
       </c>
       <c r="L24">
@@ -31075,11 +31109,11 @@
         <v>3.3180530000000001E-4</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.6300000000057935E-4</v>
       </c>
-      <c r="R24" s="1">
-        <f t="shared" si="1"/>
+      <c r="R24" s="6">
+        <f t="shared" si="3"/>
         <v>1.5840000000000298E-4</v>
       </c>
       <c r="T24">
@@ -31098,19 +31132,19 @@
         <v>0.35574983566500001</v>
       </c>
       <c r="Z24" s="4">
-        <f>F24-W24</f>
+        <f t="shared" si="0"/>
         <v>-5.9170164335000663E-2</v>
       </c>
-      <c r="AA24">
-        <f>E24-X24</f>
+      <c r="AA24" s="5">
+        <f t="shared" si="1"/>
         <v>5.9165164334999965E-2</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.0348286000000003E-4</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3.0770084999999503E-5</v>
       </c>
     </row>
@@ -31124,7 +31158,7 @@
       <c r="D25" s="2">
         <v>2.8459999999999998E-4</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="5">
         <v>0.35575000000000001</v>
       </c>
       <c r="F25" s="4">
@@ -31139,7 +31173,7 @@
       <c r="J25">
         <v>1250</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="5">
         <v>0.35561419999999999</v>
       </c>
       <c r="L25">
@@ -31155,11 +31189,11 @@
         <v>2.8449140000000003E-4</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.3600000000124624E-4</v>
       </c>
-      <c r="R25" s="1">
-        <f t="shared" si="1"/>
+      <c r="R25" s="6">
+        <f t="shared" si="3"/>
         <v>1.3580000000001924E-4</v>
       </c>
       <c r="T25">
@@ -31178,19 +31212,19 @@
         <v>0.305021552433</v>
       </c>
       <c r="Z25" s="4">
-        <f>F25-W25</f>
+        <f t="shared" si="0"/>
         <v>-5.072844756699979E-2</v>
       </c>
-      <c r="AA25">
-        <f>E25-X25</f>
+      <c r="AA25" s="5">
+        <f t="shared" si="1"/>
         <v>5.0728447567000012E-2</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.6020757599999996E-4</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.6378793000000379E-5</v>
       </c>
     </row>
@@ -31204,7 +31238,7 @@
       <c r="D26" s="2">
         <v>2.4401699999999999E-4</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="5">
         <v>0.30502200000000002</v>
       </c>
       <c r="F26" s="4">
@@ -31219,7 +31253,7 @@
       <c r="J26">
         <v>1250</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="5">
         <v>0.30490529999999999</v>
       </c>
       <c r="L26">
@@ -31235,11 +31269,11 @@
         <v>2.439242E-4</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.1500000000097543E-4</v>
       </c>
-      <c r="R26" s="1">
-        <f t="shared" si="1"/>
+      <c r="R26" s="6">
+        <f t="shared" si="3"/>
         <v>1.1670000000002512E-4</v>
       </c>
       <c r="T26">
@@ -31258,19 +31292,19 @@
         <v>0.26152688805800001</v>
       </c>
       <c r="Z26" s="4">
-        <f>F26-W26</f>
+        <f t="shared" si="0"/>
         <v>-4.349311194200034E-2</v>
       </c>
-      <c r="AA26">
-        <f>E26-X26</f>
+      <c r="AA26" s="5">
+        <f t="shared" si="1"/>
         <v>4.3495111942000009E-2</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.23102823E-4</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.2616017999999537E-5</v>
       </c>
     </row>
@@ -31284,7 +31318,7 @@
       <c r="D27" s="2">
         <v>2.0922200000000001E-4</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="5">
         <v>0.26152700000000001</v>
       </c>
       <c r="F27" s="4">
@@ -31299,7 +31333,7 @@
       <c r="J27">
         <v>1250</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="5">
         <v>0.26142720000000003</v>
       </c>
       <c r="L27">
@@ -31315,11 +31349,11 @@
         <v>2.0914180000000001E-4</v>
       </c>
       <c r="Q27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.0300000000107445E-4</v>
       </c>
-      <c r="R27" s="1">
-        <f t="shared" si="1"/>
+      <c r="R27" s="6">
+        <f t="shared" si="3"/>
         <v>9.9799999999983235E-5</v>
       </c>
       <c r="T27">
@@ -31338,19 +31372,19 @@
         <v>0.22423436190599999</v>
       </c>
       <c r="Z27" s="4">
-        <f>F27-W27</f>
+        <f t="shared" si="0"/>
         <v>-3.7295638094001049E-2</v>
       </c>
-      <c r="AA27">
-        <f>E27-X27</f>
+      <c r="AA27" s="5">
+        <f t="shared" si="1"/>
         <v>3.7292638094000019E-2</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.9129008800000002E-4</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.9388131999999864E-5</v>
       </c>
     </row>
@@ -31364,7 +31398,7 @@
       <c r="D28" s="2">
         <v>1.7938700000000001E-4</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="5">
         <v>0.22423399999999999</v>
       </c>
       <c r="F28" s="4">
@@ -31379,7 +31413,7 @@
       <c r="J28">
         <v>1250</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="5">
         <v>0.22414890000000001</v>
       </c>
       <c r="L28">
@@ -31395,11 +31429,11 @@
         <v>1.793191E-4</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-8.0999999999775696E-5</v>
       </c>
-      <c r="R28" s="1">
-        <f t="shared" si="1"/>
+      <c r="R28" s="6">
+        <f t="shared" si="3"/>
         <v>8.5099999999976861E-5</v>
       </c>
       <c r="T28">
@@ -31418,19 +31452,19 @@
         <v>0.192259577716</v>
       </c>
       <c r="Z28" s="4">
-        <f>F28-W28</f>
+        <f t="shared" si="0"/>
         <v>-3.1970422284000932E-2</v>
       </c>
-      <c r="AA28">
-        <f>E28-X28</f>
+      <c r="AA28" s="5">
+        <f t="shared" si="1"/>
         <v>3.1974422283999993E-2</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.64012096E-4</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.6625020000000067E-5</v>
       </c>
     </row>
@@ -31444,7 +31478,7 @@
       <c r="D29" s="2">
         <v>1.5380799999999999E-4</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="5">
         <v>0.19225999999999999</v>
       </c>
       <c r="F29" s="4">
@@ -31459,7 +31493,7 @@
       <c r="J29">
         <v>1250</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="5">
         <v>0.1921863</v>
       </c>
       <c r="L29">
@@ -31475,11 +31509,11 @@
         <v>1.5374900000000001E-4</v>
       </c>
       <c r="Q29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-7.3999999999685429E-5</v>
       </c>
-      <c r="R29" s="1">
-        <f t="shared" si="1"/>
+      <c r="R29" s="6">
+        <f t="shared" si="3"/>
         <v>7.3699999999982113E-5</v>
       </c>
       <c r="T29">
@@ -31498,19 +31532,19 @@
         <v>0.16484425004799999</v>
       </c>
       <c r="Z29" s="4">
-        <f>F29-W29</f>
+        <f t="shared" si="0"/>
         <v>-2.7415749951998691E-2</v>
       </c>
-      <c r="AA29">
-        <f>E29-X29</f>
+      <c r="AA29" s="5">
+        <f t="shared" si="1"/>
         <v>2.7415749951999996E-2</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.40625486E-4</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.4250989999999887E-5</v>
       </c>
     </row>
@@ -31524,7 +31558,7 @@
       <c r="D30" s="2">
         <v>1.3187499999999999E-4</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="5">
         <v>0.16484399999999999</v>
       </c>
       <c r="F30" s="4">
@@ -31539,7 +31573,7 @@
       <c r="J30">
         <v>1250</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="5">
         <v>0.16478139999999999</v>
       </c>
       <c r="L30">
@@ -31555,11 +31589,11 @@
         <v>1.318251E-4</v>
       </c>
       <c r="Q30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.9000000000253294E-5</v>
       </c>
-      <c r="R30" s="1">
-        <f t="shared" si="1"/>
+      <c r="R30" s="6">
+        <f t="shared" si="3"/>
         <v>6.2599999999995992E-5</v>
       </c>
       <c r="T30">
@@ -31578,19 +31612,19 @@
         <v>0.141338221465</v>
       </c>
       <c r="Z30" s="4">
-        <f>F30-W30</f>
+        <f t="shared" si="0"/>
         <v>-2.3501778534999573E-2</v>
       </c>
-      <c r="AA30">
-        <f>E30-X30</f>
+      <c r="AA30" s="5">
+        <f t="shared" si="1"/>
         <v>2.3505778534999994E-2</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.2057225199999999E-4</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.222412499999985E-5</v>
       </c>
     </row>
@@ -31604,7 +31638,7 @@
       <c r="D31" s="2">
         <v>1.13071E-4</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="5">
         <v>0.14133799999999999</v>
       </c>
       <c r="F31" s="4">
@@ -31619,7 +31653,7 @@
       <c r="J31">
         <v>1250</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="5">
         <v>0.1412844</v>
       </c>
       <c r="L31">
@@ -31635,11 +31669,11 @@
         <v>1.1302749999999999E-4</v>
       </c>
       <c r="Q31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.5999999998945782E-5</v>
       </c>
-      <c r="R31" s="1">
-        <f t="shared" si="1"/>
+      <c r="R31" s="6">
+        <f t="shared" si="3"/>
         <v>5.3599999999986991E-5</v>
       </c>
       <c r="T31">
@@ -31658,19 +31692,19 @@
         <v>0.121184043975</v>
       </c>
       <c r="Z31" s="4">
-        <f>F31-W31</f>
+        <f t="shared" si="0"/>
         <v>-2.0155956025000421E-2</v>
       </c>
-      <c r="AA31">
-        <f>E31-X31</f>
+      <c r="AA31" s="5">
+        <f t="shared" si="1"/>
         <v>2.0153956024999989E-2</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.03379971E-4</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.0484296999999955E-5</v>
       </c>
     </row>
@@ -31684,7 +31718,7 @@
       <c r="D32" s="2">
         <v>9.6947200000000006E-5</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="5">
         <v>0.121184</v>
       </c>
       <c r="F32" s="4">
@@ -31699,7 +31733,7 @@
       <c r="J32">
         <v>1250</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="5">
         <v>0.12113790000000001</v>
       </c>
       <c r="L32">
@@ -31715,11 +31749,11 @@
         <v>9.6910289999999999E-5</v>
       </c>
       <c r="Q32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-4.2000000000541604E-5</v>
       </c>
-      <c r="R32" s="1">
-        <f t="shared" si="1"/>
+      <c r="R32" s="6">
+        <f t="shared" si="3"/>
         <v>4.6099999999993369E-5</v>
       </c>
       <c r="T32">
@@ -31738,19 +31772,19 @@
         <v>0.103903759096</v>
       </c>
       <c r="Z32" s="4">
-        <f>F32-W32</f>
+        <f t="shared" si="0"/>
         <v>-1.7276240904001483E-2</v>
       </c>
-      <c r="AA32">
-        <f>E32-X32</f>
+      <c r="AA32" s="5">
+        <f t="shared" si="1"/>
         <v>1.7280240904000002E-2</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.8638067000000004E-5</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-8.9900450000006404E-6</v>
       </c>
     </row>
@@ -31764,7 +31798,7 @@
       <c r="D33" s="2">
         <v>8.3122999999999997E-5</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="5">
         <v>0.103904</v>
       </c>
       <c r="F33" s="4">
@@ -31779,7 +31813,7 @@
       <c r="J33">
         <v>1250</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="5">
         <v>0.1038642</v>
       </c>
       <c r="L33">
@@ -31795,11 +31829,11 @@
         <v>8.3091330000000004E-5</v>
       </c>
       <c r="Q33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.5999999999702936E-5</v>
       </c>
-      <c r="R33" s="1">
-        <f t="shared" si="1"/>
+      <c r="R33" s="6">
+        <f t="shared" si="3"/>
         <v>3.9799999999992619E-5</v>
       </c>
       <c r="T33">
@@ -31818,19 +31852,19 @@
         <v>8.9087563016999993E-2</v>
       </c>
       <c r="Z33" s="4">
-        <f>F33-W33</f>
+        <f t="shared" si="0"/>
         <v>-1.4812436983000055E-2</v>
       </c>
-      <c r="AA33">
-        <f>E33-X33</f>
+      <c r="AA33" s="5">
+        <f t="shared" si="1"/>
         <v>1.4816436983000003E-2</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.5998710999999991E-5</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7.704467000000173E-6</v>
       </c>
     </row>
@@ -31844,7 +31878,7 @@
       <c r="D34" s="2">
         <v>7.127E-5</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="5">
         <v>8.9087600000000003E-2</v>
       </c>
       <c r="F34" s="4">
@@ -31859,7 +31893,7 @@
       <c r="J34">
         <v>1250</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="5">
         <v>8.9053610000000005E-2</v>
       </c>
       <c r="L34">
@@ -31875,11 +31909,11 @@
         <v>7.1242890000000001E-5</v>
       </c>
       <c r="Q34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.5999999999702936E-5</v>
       </c>
-      <c r="R34" s="1">
-        <f t="shared" si="1"/>
+      <c r="R34" s="6">
+        <f t="shared" si="3"/>
         <v>3.3989999999997633E-5</v>
       </c>
       <c r="T34">
@@ -31898,19 +31932,19 @@
         <v>7.6384088057999996E-2</v>
       </c>
       <c r="Z34" s="4">
-        <f>F34-W34</f>
+        <f t="shared" si="0"/>
         <v>-1.2705911942001435E-2</v>
       </c>
-      <c r="AA34">
-        <f>E34-X34</f>
+      <c r="AA34" s="5">
+        <f t="shared" si="1"/>
         <v>1.2703511942000006E-2</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.5161602000000002E-5</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-6.6102739999995483E-6</v>
       </c>
     </row>
@@ -31924,7 +31958,7 @@
       <c r="D35" s="2">
         <v>6.1107300000000004E-5</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="5">
         <v>7.6384099999999996E-2</v>
       </c>
       <c r="F35" s="4">
@@ -31939,7 +31973,7 @@
       <c r="J35">
         <v>1250</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="5">
         <v>7.6354980000000003E-2</v>
       </c>
       <c r="L35">
@@ -31955,11 +31989,11 @@
         <v>6.1083979999999999E-5</v>
       </c>
       <c r="Q35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.5000000000829914E-5</v>
       </c>
-      <c r="R35" s="1">
-        <f t="shared" si="1"/>
+      <c r="R35" s="6">
+        <f t="shared" si="3"/>
         <v>2.9119999999993595E-5</v>
       </c>
       <c r="T35">
@@ -31978,19 +32012,19 @@
         <v>6.5492069946000001E-2</v>
       </c>
       <c r="Z35" s="4">
-        <f>F35-W35</f>
+        <f t="shared" si="0"/>
         <v>-1.088793005400035E-2</v>
       </c>
-      <c r="AA35">
-        <f>E35-X35</f>
+      <c r="AA35" s="5">
+        <f t="shared" si="1"/>
         <v>1.0892030053999996E-2</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5869931000000003E-5</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-5.6641240000002147E-6</v>
       </c>
     </row>
@@ -32004,7 +32038,7 @@
       <c r="D36" s="2">
         <v>5.2393699999999999E-5</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="5">
         <v>6.5492099999999998E-2</v>
       </c>
       <c r="F36" s="4">
@@ -32019,7 +32053,7 @@
       <c r="J36">
         <v>1250</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="5">
         <v>6.5467109999999995E-2</v>
       </c>
       <c r="L36">
@@ -32035,11 +32069,11 @@
         <v>5.2373690000000002E-5</v>
       </c>
       <c r="Q36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.3000000000550358E-5</v>
       </c>
-      <c r="R36" s="1">
-        <f t="shared" si="1"/>
+      <c r="R36" s="6">
+        <f t="shared" si="3"/>
         <v>2.499000000000251E-5</v>
       </c>
       <c r="T36">
@@ -32058,19 +32092,19 @@
         <v>5.6153203302999999E-2</v>
       </c>
       <c r="Z36" s="4">
-        <f>F36-W36</f>
+        <f t="shared" ref="Z36:Z54" si="6">F36-W36</f>
         <v>-9.3367966970010485E-3</v>
       </c>
-      <c r="AA36">
-        <f>E36-X36</f>
+      <c r="AA36" s="5">
+        <f t="shared" ref="AA36:AA54" si="7">E36-X36</f>
         <v>9.3388966969999987E-3</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.7903155999999999E-5</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4.8603339999992931E-6</v>
       </c>
     </row>
@@ -32084,7 +32118,7 @@
       <c r="D37" s="2">
         <v>4.4922600000000003E-5</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="5">
         <v>5.61532E-2</v>
       </c>
       <c r="F37" s="4">
@@ -32099,7 +32133,7 @@
       <c r="J37">
         <v>1250</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="5">
         <v>5.6131800000000003E-2</v>
       </c>
       <c r="L37">
@@ -32115,11 +32149,11 @@
         <v>4.4905440000000001E-5</v>
       </c>
       <c r="Q37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.8000000000739647E-5</v>
       </c>
-      <c r="R37" s="1">
-        <f t="shared" si="1"/>
+      <c r="R37" s="6">
+        <f t="shared" si="3"/>
         <v>2.139999999999781E-5</v>
       </c>
       <c r="T37">
@@ -32138,19 +32172,19 @@
         <v>4.8146015903000002E-2</v>
       </c>
       <c r="Z37" s="4">
-        <f>F37-W37</f>
+        <f t="shared" si="6"/>
         <v>-8.0039840969998721E-3</v>
       </c>
-      <c r="AA37">
-        <f>E37-X37</f>
+      <c r="AA37" s="5">
+        <f t="shared" si="7"/>
         <v>8.0071840969999988E-3</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.1072387000000001E-5</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4.1640719999997897E-6</v>
       </c>
     </row>
@@ -32164,7 +32198,7 @@
       <c r="D38" s="2">
         <v>3.8516799999999997E-5</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="5">
         <v>4.8146000000000001E-2</v>
       </c>
       <c r="F38" s="4">
@@ -32179,7 +32213,7 @@
       <c r="J38">
         <v>1250</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="5">
         <v>4.8127669999999997E-2</v>
       </c>
       <c r="L38">
@@ -32195,11 +32229,11 @@
         <v>3.8502130000000001E-5</v>
       </c>
       <c r="Q38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.1999999999522402E-5</v>
       </c>
-      <c r="R38" s="1">
-        <f t="shared" si="1"/>
+      <c r="R38" s="6">
+        <f t="shared" si="3"/>
         <v>1.8330000000003899E-5</v>
       </c>
       <c r="T38">
@@ -32218,19 +32252,19 @@
         <v>4.1280616439000002E-2</v>
       </c>
       <c r="Z38" s="4">
-        <f>F38-W38</f>
+        <f t="shared" si="6"/>
         <v>-6.8693835609998644E-3</v>
       </c>
-      <c r="AA38">
-        <f>E38-X38</f>
+      <c r="AA38" s="5">
+        <f t="shared" si="7"/>
         <v>6.8653835609999991E-3</v>
       </c>
       <c r="AB38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.5215609E-5</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3.5740790000002298E-6</v>
       </c>
     </row>
@@ -32244,7 +32278,7 @@
       <c r="D39" s="2">
         <v>3.3024500000000002E-5</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="5">
         <v>4.1280600000000001E-2</v>
       </c>
       <c r="F39" s="4">
@@ -32259,7 +32293,7 @@
       <c r="J39">
         <v>1250</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="5">
         <v>4.1264879999999997E-2</v>
       </c>
       <c r="L39">
@@ -32275,11 +32309,11 @@
         <v>3.3011910000000002E-5</v>
       </c>
       <c r="Q39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.5000000001208491E-5</v>
       </c>
-      <c r="R39" s="1">
-        <f t="shared" si="1"/>
+      <c r="R39" s="6">
+        <f t="shared" si="3"/>
         <v>1.5720000000003787E-5</v>
       </c>
       <c r="T39">
@@ -32298,19 +32332,19 @@
         <v>3.5394191223999998E-2</v>
       </c>
       <c r="Z39" s="4">
-        <f>F39-W39</f>
+        <f t="shared" si="6"/>
         <v>-5.8858087760000899E-3</v>
       </c>
-      <c r="AA39">
-        <f>E39-X39</f>
+      <c r="AA39" s="5">
+        <f t="shared" si="7"/>
         <v>5.8864087760000031E-3</v>
       </c>
       <c r="AB39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.0194044000000003E-5</v>
       </c>
       <c r="AC39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3.0650209999994946E-6</v>
       </c>
     </row>
@@ -32324,7 +32358,7 @@
       <c r="D40" s="2">
         <v>2.83154E-5</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="5">
         <v>3.5394200000000001E-2</v>
       </c>
       <c r="F40" s="4">
@@ -32339,7 +32373,7 @@
       <c r="J40">
         <v>1250</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="5">
         <v>3.5380700000000001E-2</v>
       </c>
       <c r="L40">
@@ -32355,11 +32389,11 @@
         <v>2.8304560000000001E-5</v>
       </c>
       <c r="Q40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-9.0000000003698233E-6</v>
       </c>
-      <c r="R40" s="1">
-        <f t="shared" si="1"/>
+      <c r="R40" s="6">
+        <f t="shared" si="3"/>
         <v>1.3499999999999623E-5</v>
       </c>
       <c r="T40">
@@ -32378,19 +32412,19 @@
         <v>3.0347143053999999E-2</v>
       </c>
       <c r="Z40" s="4">
-        <f>F40-W40</f>
+        <f t="shared" si="6"/>
         <v>-5.0428569459999295E-3</v>
       </c>
-      <c r="AA40">
-        <f>E40-X40</f>
+      <c r="AA40" s="5">
+        <f t="shared" si="7"/>
         <v>5.0470569460000017E-3</v>
       </c>
       <c r="AB40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5888553999999999E-5</v>
       </c>
       <c r="AC40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.6294859999994452E-6</v>
       </c>
     </row>
@@ -32404,7 +32438,7 @@
       <c r="D41" s="2">
         <v>2.42777E-5</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="5">
         <v>3.0347099999999998E-2</v>
       </c>
       <c r="F41" s="4">
@@ -32419,7 +32453,7 @@
       <c r="J41">
         <v>1250</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="5">
         <v>3.0335580000000001E-2</v>
       </c>
       <c r="L41">
@@ -32435,11 +32469,11 @@
         <v>2.426846E-5</v>
       </c>
       <c r="Q41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.4000000000180535E-5</v>
       </c>
-      <c r="R41" s="1">
-        <f t="shared" si="1"/>
+      <c r="R41" s="6">
+        <f t="shared" si="3"/>
         <v>1.1519999999997504E-5</v>
       </c>
       <c r="T41">
@@ -32458,19 +32492,19 @@
         <v>2.6019780639000002E-2</v>
       </c>
       <c r="Z41" s="4">
-        <f>F41-W41</f>
+        <f t="shared" si="6"/>
         <v>-4.3302193609999762E-3</v>
       </c>
-      <c r="AA41">
-        <f>E41-X41</f>
+      <c r="AA41" s="5">
+        <f t="shared" si="7"/>
         <v>4.3273193609999969E-3</v>
       </c>
       <c r="AB41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.2196911000000001E-5</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.2497139999999236E-6</v>
       </c>
     </row>
@@ -32484,7 +32518,7 @@
       <c r="D42" s="2">
         <v>2.0815800000000002E-5</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="5">
         <v>2.6019799999999999E-2</v>
       </c>
       <c r="F42" s="4">
@@ -32499,7 +32533,7 @@
       <c r="J42">
         <v>1250</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="5">
         <v>2.6009859999999999E-2</v>
       </c>
       <c r="L42">
@@ -32515,11 +32549,11 @@
         <v>2.080789E-5</v>
       </c>
       <c r="Q42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.000000000139778E-5</v>
       </c>
-      <c r="R42" s="1">
-        <f t="shared" si="1"/>
+      <c r="R42" s="6">
+        <f t="shared" si="3"/>
         <v>9.9399999999999489E-6</v>
       </c>
       <c r="T42">
@@ -32538,19 +32572,19 @@
         <v>2.2309480114E-2</v>
       </c>
       <c r="Z42" s="4">
-        <f>F42-W42</f>
+        <f t="shared" si="6"/>
         <v>-3.710519886000796E-3</v>
       </c>
-      <c r="AA42">
-        <f>E42-X42</f>
+      <c r="AA42" s="5">
+        <f t="shared" si="7"/>
         <v>3.7103198859999992E-3</v>
       </c>
       <c r="AB42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.9031722000000003E-5</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.9290700000000605E-6</v>
       </c>
     </row>
@@ -32564,7 +32598,7 @@
       <c r="D43" s="2">
         <v>1.7847599999999998E-5</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="5">
         <v>2.2309499999999999E-2</v>
       </c>
       <c r="F43" s="4">
@@ -32579,7 +32613,7 @@
       <c r="J43">
         <v>1250</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="5">
         <v>2.2300980000000001E-2</v>
       </c>
       <c r="L43">
@@ -32595,11 +32629,11 @@
         <v>1.7840779999999999E-5</v>
       </c>
       <c r="Q43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-8.9999999985934664E-6</v>
       </c>
-      <c r="R43" s="1">
-        <f t="shared" si="1"/>
+      <c r="R43" s="6">
+        <f t="shared" si="3"/>
         <v>8.5199999999979736E-6</v>
       </c>
       <c r="T43">
@@ -32618,19 +32652,19 @@
         <v>1.9128251305E-2</v>
       </c>
       <c r="Z43" s="4">
-        <f>F43-W43</f>
+        <f t="shared" si="6"/>
         <v>-3.181748694998987E-3</v>
       </c>
-      <c r="AA43">
-        <f>E43-X43</f>
+      <c r="AA43" s="5">
+        <f t="shared" si="7"/>
         <v>3.1812486949999996E-3</v>
       </c>
       <c r="AB43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.6317922999999998E-5</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.6533089999999639E-6</v>
       </c>
     </row>
@@ -32644,7 +32678,7 @@
       <c r="D44" s="2">
         <v>1.5302600000000002E-5</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="5">
         <v>1.9128300000000001E-2</v>
       </c>
       <c r="F44" s="4">
@@ -32659,7 +32693,7 @@
       <c r="J44">
         <v>1250</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="5">
         <v>1.9120959999999999E-2</v>
       </c>
       <c r="L44">
@@ -32675,11 +32709,11 @@
         <v>1.529677E-5</v>
       </c>
       <c r="Q44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-9.0000000003698233E-6</v>
       </c>
-      <c r="R44" s="1">
-        <f t="shared" si="1"/>
+      <c r="R44" s="6">
+        <f t="shared" si="3"/>
         <v>7.340000000001512E-6</v>
       </c>
       <c r="T44">
@@ -32698,19 +32732,19 @@
         <v>1.6400651028999999E-2</v>
       </c>
       <c r="Z44" s="4">
-        <f>F44-W44</f>
+        <f t="shared" si="6"/>
         <v>-2.7293489710000784E-3</v>
       </c>
-      <c r="AA44">
-        <f>E44-X44</f>
+      <c r="AA44" s="5">
+        <f t="shared" si="7"/>
         <v>2.7276489710000018E-3</v>
       </c>
       <c r="AB44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.3991048000000002E-5</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.4216610000001087E-6</v>
       </c>
     </row>
@@ -32724,7 +32758,7 @@
       <c r="D45" s="2">
         <v>1.3120500000000001E-5</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="5">
         <v>1.6400700000000001E-2</v>
       </c>
       <c r="F45" s="4">
@@ -32739,7 +32773,7 @@
       <c r="J45">
         <v>1250</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="5">
         <v>1.63944E-2</v>
       </c>
       <c r="L45">
@@ -32755,11 +32789,11 @@
         <v>1.311552E-5</v>
       </c>
       <c r="Q45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-6.0000000008386678E-6</v>
       </c>
-      <c r="R45" s="1">
-        <f t="shared" si="1"/>
+      <c r="R45" s="6">
+        <f t="shared" si="3"/>
         <v>6.3000000000007494E-6</v>
       </c>
       <c r="T45">
@@ -32778,19 +32812,19 @@
         <v>1.4061993953E-2</v>
       </c>
       <c r="Z45" s="4">
-        <f>F45-W45</f>
+        <f t="shared" si="6"/>
         <v>-2.3380060470010733E-3</v>
       </c>
-      <c r="AA45">
-        <f>E45-X45</f>
+      <c r="AA45" s="5">
+        <f t="shared" si="7"/>
         <v>2.3387060470000005E-3</v>
       </c>
       <c r="AB45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1995969E-5</v>
       </c>
       <c r="AC45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.2177630000003922E-6</v>
       </c>
     </row>
@@ -32804,7 +32838,7 @@
       <c r="D46" s="2">
         <v>1.12496E-5</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="5">
         <v>1.4062E-2</v>
       </c>
       <c r="F46" s="4">
@@ -32819,7 +32853,7 @@
       <c r="J46">
         <v>1250</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="5">
         <v>1.4056630000000001E-2</v>
       </c>
       <c r="L46">
@@ -32835,11 +32869,11 @@
         <v>1.124531E-5</v>
       </c>
       <c r="Q46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.0000000013075123E-6</v>
       </c>
-      <c r="R46" s="1">
-        <f t="shared" si="1"/>
+      <c r="R46" s="6">
+        <f t="shared" si="3"/>
         <v>5.3699999999993336E-6</v>
       </c>
       <c r="T46">
@@ -32858,19 +32892,19 @@
         <v>1.2056818572E-2</v>
       </c>
       <c r="Z46" s="4">
-        <f>F46-W46</f>
+        <f t="shared" si="6"/>
         <v>-2.0031814279999338E-3</v>
       </c>
-      <c r="AA46">
-        <f>E46-X46</f>
+      <c r="AA46" s="5">
+        <f t="shared" si="7"/>
         <v>2.005181428E-3</v>
       </c>
       <c r="AB46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0285422E-5</v>
       </c>
       <c r="AC46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.0404539999998158E-6</v>
       </c>
     </row>
@@ -32884,7 +32918,7 @@
       <c r="D47" s="2">
         <v>9.64546E-6</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="5">
         <v>1.2056799999999999E-2</v>
       </c>
       <c r="F47" s="4">
@@ -32899,7 +32933,7 @@
       <c r="J47">
         <v>1250</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="5">
         <v>1.2052220000000001E-2</v>
       </c>
       <c r="L47">
@@ -32915,11 +32949,11 @@
         <v>9.6417790000000006E-6</v>
       </c>
       <c r="Q47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-7.9999999993418669E-6</v>
       </c>
-      <c r="R47" s="1">
-        <f t="shared" si="1"/>
+      <c r="R47" s="6">
+        <f t="shared" si="3"/>
         <v>4.5799999999988211E-6</v>
       </c>
       <c r="T47">
@@ -32938,19 +32972,19 @@
         <v>1.0337571939E-2</v>
       </c>
       <c r="Z47" s="4">
-        <f>F47-W47</f>
+        <f t="shared" si="6"/>
         <v>-1.7224280609990927E-3</v>
       </c>
-      <c r="AA47">
-        <f>E47-X47</f>
+      <c r="AA47" s="5">
+        <f t="shared" si="7"/>
         <v>1.7192280609999999E-3</v>
       </c>
       <c r="AB47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.8187689999999995E-6</v>
       </c>
       <c r="AC47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-8.9446299999986628E-7</v>
       </c>
     </row>
@@ -32964,7 +32998,7 @@
       <c r="D48" s="2">
         <v>8.2700599999999996E-6</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="5">
         <v>1.0337600000000001E-2</v>
       </c>
       <c r="F48" s="4">
@@ -32979,7 +33013,7 @@
       <c r="J48">
         <v>1250</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="5">
         <v>1.033363E-2</v>
       </c>
       <c r="L48">
@@ -32995,11 +33029,11 @@
         <v>8.2669060000000002E-6</v>
       </c>
       <c r="Q48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.999999999062311E-6</v>
       </c>
-      <c r="R48" s="1">
-        <f t="shared" si="1"/>
+      <c r="R48" s="6">
+        <f t="shared" si="3"/>
         <v>3.9700000000007091E-6</v>
       </c>
       <c r="T48">
@@ -33018,19 +33052,19 @@
         <v>8.8634819329999996E-3</v>
       </c>
       <c r="Z48" s="4">
-        <f>F48-W48</f>
+        <f t="shared" si="6"/>
         <v>-1.4765180669993327E-3</v>
       </c>
-      <c r="AA48">
-        <f>E48-X48</f>
+      <c r="AA48" s="5">
+        <f t="shared" si="7"/>
         <v>1.474118067000001E-3</v>
       </c>
       <c r="AB48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.5612519999999994E-6</v>
       </c>
       <c r="AC48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7.7098899999971521E-7</v>
       </c>
     </row>
@@ -33044,7 +33078,7 @@
       <c r="D49" s="2">
         <v>7.0907900000000001E-6</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="5">
         <v>8.86348E-3</v>
       </c>
       <c r="F49" s="4">
@@ -33059,7 +33093,7 @@
       <c r="J49">
         <v>1250</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="5">
         <v>8.8601040000000006E-3</v>
       </c>
       <c r="L49">
@@ -33075,11 +33109,11 @@
         <v>7.0880830000000001E-6</v>
       </c>
       <c r="Q49" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R49" s="1">
-        <f t="shared" si="1"/>
+      <c r="R49" s="6">
+        <f t="shared" si="3"/>
         <v>3.3759999999993795E-6</v>
       </c>
       <c r="T49">
@@ -33098,19 +33132,19 @@
         <v>7.5995903529999997E-3</v>
       </c>
       <c r="Z49" s="4">
-        <f>F49-W49</f>
+        <f t="shared" si="6"/>
         <v>-1.2604096470010262E-3</v>
       </c>
-      <c r="AA49">
-        <f>E49-X49</f>
+      <c r="AA49" s="5">
+        <f t="shared" si="7"/>
         <v>1.2638896470000003E-3</v>
       </c>
       <c r="AB49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.4830539999999998E-6</v>
       </c>
       <c r="AC49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-6.5821300000018512E-7</v>
       </c>
     </row>
@@ -33124,7 +33158,7 @@
       <c r="D50" s="2">
         <v>6.07967E-6</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="5">
         <v>7.5995899999999998E-3</v>
       </c>
       <c r="F50" s="4">
@@ -33139,7 +33173,7 @@
       <c r="J50">
         <v>1250</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="5">
         <v>7.5966940000000002E-3</v>
       </c>
       <c r="L50">
@@ -33155,11 +33189,11 @@
         <v>6.0773549999999999E-6</v>
       </c>
       <c r="Q50" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.9999999995311555E-6</v>
       </c>
-      <c r="R50" s="1">
-        <f t="shared" si="1"/>
+      <c r="R50" s="6">
+        <f t="shared" si="3"/>
         <v>2.895999999999628E-6</v>
       </c>
       <c r="T50">
@@ -33178,19 +33212,19 @@
         <v>6.5159238739999998E-3</v>
       </c>
       <c r="Z50" s="4">
-        <f>F50-W50</f>
+        <f t="shared" si="6"/>
         <v>-1.0840761260002552E-3</v>
       </c>
-      <c r="AA50">
-        <f>E50-X50</f>
+      <c r="AA50" s="5">
+        <f t="shared" si="7"/>
         <v>1.083666126E-3</v>
       </c>
       <c r="AB50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5585950000000001E-6</v>
       </c>
       <c r="AC50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-5.6172000000020983E-7</v>
       </c>
     </row>
@@ -33204,7 +33238,7 @@
       <c r="D51" s="2">
         <v>5.2127400000000003E-6</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="5">
         <v>6.5159199999999997E-3</v>
       </c>
       <c r="F51" s="4">
@@ -33219,7 +33253,7 @@
       <c r="J51">
         <v>1250</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="5">
         <v>6.5134399999999997E-3</v>
       </c>
       <c r="L51">
@@ -33235,11 +33269,11 @@
         <v>5.2107519999999997E-6</v>
       </c>
       <c r="Q51" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-7.0000000000902673E-6</v>
       </c>
-      <c r="R51" s="1">
-        <f t="shared" si="1"/>
+      <c r="R51" s="6">
+        <f t="shared" si="3"/>
         <v>2.4800000000000169E-6</v>
       </c>
       <c r="T51">
@@ -33258,19 +33292,19 @@
         <v>5.5867832290000001E-3</v>
       </c>
       <c r="Z51" s="4">
-        <f>F51-W51</f>
+        <f t="shared" si="6"/>
         <v>-9.332167709992234E-4</v>
       </c>
-      <c r="AA51">
-        <f>E51-X51</f>
+      <c r="AA51" s="5">
+        <f t="shared" si="7"/>
         <v>9.2913677099999963E-4</v>
       </c>
       <c r="AB51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.7659680000000006E-6</v>
       </c>
       <c r="AC51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4.8487299999979555E-7</v>
       </c>
     </row>
@@ -33284,7 +33318,7 @@
       <c r="D52" s="2">
         <v>4.4694300000000003E-6</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="5">
         <v>5.5867800000000004E-3</v>
       </c>
       <c r="F52" s="4">
@@ -33299,7 +33333,7 @@
       <c r="J52">
         <v>1250</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="5">
         <v>5.5846539999999997E-3</v>
       </c>
       <c r="L52">
@@ -33315,11 +33349,11 @@
         <v>4.467723E-6</v>
       </c>
       <c r="Q52" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-4.9999999998107114E-6</v>
       </c>
-      <c r="R52" s="1">
-        <f t="shared" si="1"/>
+      <c r="R52" s="6">
+        <f t="shared" si="3"/>
         <v>2.1260000000007315E-6</v>
       </c>
       <c r="T52">
@@ -33338,19 +33372,19 @@
         <v>4.7901337479999999E-3</v>
       </c>
       <c r="Z52" s="4">
-        <f>F52-W52</f>
+        <f t="shared" si="6"/>
         <v>-7.9986625200056949E-4</v>
       </c>
-      <c r="AA52">
-        <f>E52-X52</f>
+      <c r="AA52" s="5">
+        <f t="shared" si="7"/>
         <v>7.9664625200000054E-4</v>
       </c>
       <c r="AB52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.0863650000000005E-6</v>
       </c>
       <c r="AC52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-4.1913000000011469E-7</v>
       </c>
     </row>
@@ -33364,7 +33398,7 @@
       <c r="D53" s="2">
         <v>3.83211E-6</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="5">
         <v>4.7901300000000001E-3</v>
       </c>
       <c r="F53" s="4">
@@ -33379,7 +33413,7 @@
       <c r="J53">
         <v>1250</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="5">
         <v>4.7883079999999998E-3</v>
       </c>
       <c r="L53">
@@ -33395,11 +33429,11 @@
         <v>3.8306460000000002E-6</v>
       </c>
       <c r="Q53" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.0000000002795559E-6</v>
       </c>
-      <c r="R53" s="1">
-        <f t="shared" si="1"/>
+      <c r="R53" s="6">
+        <f t="shared" si="3"/>
         <v>1.8220000000002817E-6</v>
       </c>
       <c r="T53">
@@ -33418,19 +33452,19 @@
         <v>4.1070828029999996E-3</v>
       </c>
       <c r="Z53" s="4">
-        <f>F53-W53</f>
+        <f t="shared" si="6"/>
         <v>-6.8291719700042108E-4</v>
       </c>
-      <c r="AA53">
-        <f>E53-X53</f>
+      <c r="AA53" s="5">
+        <f t="shared" si="7"/>
         <v>6.8304719700000051E-4</v>
       </c>
       <c r="AB53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.5036689999999998E-6</v>
       </c>
       <c r="AC53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3.5431700000018718E-7</v>
       </c>
     </row>
@@ -33444,7 +33478,7 @@
       <c r="D54" s="2">
         <v>3.2856700000000002E-6</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="5">
         <v>4.1070799999999999E-3</v>
       </c>
       <c r="F54" s="4">
@@ -33459,7 +33493,7 @@
       <c r="J54">
         <v>1250</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="5">
         <v>4.1055170000000004E-3</v>
       </c>
       <c r="L54">
@@ -33475,11 +33509,11 @@
         <v>3.2844139999999998E-6</v>
       </c>
       <c r="Q54" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-4.0000000005591119E-6</v>
       </c>
-      <c r="R54" s="1">
-        <f t="shared" si="1"/>
+      <c r="R54" s="6">
+        <f t="shared" si="3"/>
         <v>1.5629999999995647E-6</v>
       </c>
       <c r="T54">
@@ -33498,19 +33532,19 @@
         <v>3.5214317670000002E-3</v>
       </c>
       <c r="Z54" s="4">
-        <f>F54-W54</f>
+        <f t="shared" si="6"/>
         <v>-5.8856823300068584E-4</v>
       </c>
-      <c r="AA54">
-        <f>E54-X54</f>
+      <c r="AA54" s="5">
+        <f t="shared" si="7"/>
         <v>5.8564823299999975E-4</v>
       </c>
       <c r="AB54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.0040630000000002E-6</v>
       </c>
       <c r="AC54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3.0885500000056576E-7</v>
       </c>
     </row>

--- a/doc/AB2 vs Berkeley Madonnaxlsx.xlsx
+++ b/doc/AB2 vs Berkeley Madonnaxlsx.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Pendel_kombination dt=0.01" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="bla_test" localSheetId="1">'Kondensator dt=0.1'!$AE$3:$AJ$54</definedName>
     <definedName name="intern_kondensator" localSheetId="1">'Kondensator dt=0.1'!$T$3:$Y$54</definedName>
     <definedName name="kondensator_table" localSheetId="0">'Kondensator dt=0.01'!$B$2:$F$503</definedName>
     <definedName name="kondensator_table2" localSheetId="1">'Kondensator dt=0.1'!$B$3:$F$54</definedName>
@@ -26,7 +27,22 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="intern_kondensator" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="1" name="bla_test" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\Users\bachi\Desktop\bla_test.csv" thousands="'" semicolon="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="intern_kondensator" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="C:\Users\bachi\Desktop\intern_kondensator.csv" thousands="'" semicolon="1">
       <textFields count="9">
         <textField/>
@@ -41,7 +57,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="kondensator table" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="3" name="kondensator table" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\bachi\Desktop\kondensator table.txt" thousands="'">
       <textFields count="5">
         <textField/>
@@ -52,7 +68,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="kondensator table2" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="4" name="kondensator table2" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\bachi\Desktop\kondensator table2.txt" thousands="'">
       <textFields count="5">
         <textField/>
@@ -63,7 +79,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="pendel_kombination table" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="5" name="pendel_kombination table" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\bachi\Desktop\pendel_kombination table.txt" thousands="'">
       <textFields count="9">
         <textField/>
@@ -78,7 +94,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="sim_kondensator" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="6" name="sim_kondensator" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\bachi\Desktop\sim_kondensator.csv" thousands="'" tab="0" semicolon="1">
       <textFields count="9">
         <textField/>
@@ -93,7 +109,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="sim_kondensator2" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="7" name="sim_kondensator2" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\bachi\Desktop\sim_kondensator2.csv" thousands="'" semicolon="1">
       <textFields count="9">
         <textField/>
@@ -108,7 +124,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="sim_pendel_komb" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="8" name="sim_pendel_komb" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\bachi\Desktop\sim_pendel_komb.csv" thousands="'" semicolon="1">
       <textFields count="20">
         <textField/>
@@ -138,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>TIME</t>
   </si>
@@ -271,6 +287,15 @@
   <si>
     <t>Berkeley vs. Intern</t>
   </si>
+  <si>
+    <t>Intern 2</t>
+  </si>
+  <si>
+    <t>Berkeley vs. Intern 2</t>
+  </si>
+  <si>
+    <t>(keine Ahnung, warum andere Resultate!)</t>
+  </si>
 </sst>
 </file>
 
@@ -281,7 +306,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +326,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -332,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -353,6 +386,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -363,31 +397,35 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sim_kondensator" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sim_kondensator" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="kondensator table" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="kondensator table" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="kondensator table2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bla_test" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="intern_kondensator" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sim_kondensator2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sim_kondensator2" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="kondensator table2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sim_pendel_komb" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="intern_kondensator" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pendel_kombination table" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sim_pendel_komb" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pendel_kombination table" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29316,10 +29354,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC54"/>
+  <dimension ref="A1:AL54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="AB33" sqref="AB33"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17:V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -29343,18 +29381,22 @@
     <col min="18" max="18" width="11.42578125" style="6"/>
     <col min="19" max="20" width="5.140625" customWidth="1"/>
     <col min="21" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5703125" customWidth="1"/>
+    <col min="25" max="25" width="5.140625" customWidth="1"/>
     <col min="27" max="27" width="11.42578125" style="5"/>
+    <col min="30" max="30" width="2.7109375" customWidth="1"/>
+    <col min="31" max="31" width="5.42578125" customWidth="1"/>
+    <col min="32" max="35" width="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1">
+    <row r="1" spans="1:38" s="7" customFormat="1">
       <c r="B1" s="8"/>
       <c r="F1" s="9"/>
       <c r="M1" s="9"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="10"/>
     </row>
-    <row r="2" spans="1:29" s="7" customFormat="1" ht="21">
+    <row r="2" spans="1:38" s="7" customFormat="1" ht="21">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
         <v>37</v>
@@ -29393,8 +29435,17 @@
       </c>
       <c r="AA2" s="11"/>
       <c r="AB2" s="11"/>
-    </row>
-    <row r="3" spans="1:29" s="15" customFormat="1" ht="15.75">
+      <c r="AE2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK2" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" s="15" customFormat="1" ht="15.75">
       <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
@@ -29467,8 +29518,29 @@
       <c r="AC3" s="15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AE3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL3" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
       <c r="B4" s="3">
         <v>0</v>
       </c>
@@ -29547,8 +29619,31 @@
         <f>C4-V4</f>
         <v>-6.6734638099999997E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="AG4">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="AH4">
+        <v>1.384615384615</v>
+      </c>
+      <c r="AI4">
+        <v>7.6153846153850004</v>
+      </c>
+      <c r="AK4">
+        <f>E4-AI4</f>
+        <v>1.3846153846149996</v>
+      </c>
+      <c r="AL4">
+        <f>C4-AG4</f>
+        <v>-7.2000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
       <c r="B5" s="3">
         <v>0.1</v>
       </c>
@@ -29627,8 +29722,31 @@
         <f t="shared" ref="AC5:AC54" si="5">C5-V5</f>
         <v>-5.721862520000001E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AE5">
+        <v>0.1</v>
+      </c>
+      <c r="AF5">
+        <v>6.0923076919999998E-3</v>
+      </c>
+      <c r="AG5">
+        <v>1.329230769E-3</v>
+      </c>
+      <c r="AH5">
+        <v>2.5562130177509998</v>
+      </c>
+      <c r="AI5">
+        <v>6.4437869822489997</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" ref="AK5:AK54" si="6">E5-AI5</f>
+        <v>1.2728530177510002</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" ref="AL5:AL54" si="7">C5-AG5</f>
+        <v>-6.6188476900000002E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
       <c r="B6" s="3">
         <v>0.2</v>
       </c>
@@ -29707,8 +29825,31 @@
         <f t="shared" si="5"/>
         <v>-4.9059705999999993E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AE6">
+        <v>0.2</v>
+      </c>
+      <c r="AF6">
+        <v>5.1550295859999996E-3</v>
+      </c>
+      <c r="AG6">
+        <v>1.844733728E-3</v>
+      </c>
+      <c r="AH6">
+        <v>3.5475648611740001</v>
+      </c>
+      <c r="AI6">
+        <v>5.4524351388259999</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="6"/>
+        <v>1.1638448611739998</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="7"/>
+        <v>-6.0520372800000003E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
       <c r="B7" s="3">
         <v>0.3</v>
       </c>
@@ -29787,8 +29928,31 @@
         <f t="shared" si="5"/>
         <v>-4.2063531499999976E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AE7">
+        <v>0.3</v>
+      </c>
+      <c r="AF7">
+        <v>4.361948111E-3</v>
+      </c>
+      <c r="AG7">
+        <v>2.2809285389999998E-3</v>
+      </c>
+      <c r="AH7">
+        <v>4.3864010363780004</v>
+      </c>
+      <c r="AI7">
+        <v>4.6135989636219996</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="6"/>
+        <v>1.0592310363780006</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="7"/>
+        <v>-5.5079853899999971E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
       <c r="B8" s="3">
         <v>0.4</v>
       </c>
@@ -29867,8 +30031,31 @@
         <f t="shared" si="5"/>
         <v>-3.6065249699999968E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AE8">
+        <v>0.4</v>
+      </c>
+      <c r="AF8">
+        <v>3.690879171E-3</v>
+      </c>
+      <c r="AG8">
+        <v>2.6500164560000002E-3</v>
+      </c>
+      <c r="AH8">
+        <v>5.0961854923200001</v>
+      </c>
+      <c r="AI8">
+        <v>3.9038145076799999</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="6"/>
+        <v>0.9600954923199998</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="7"/>
+        <v>-4.9924645599999998E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
       <c r="B9" s="3">
         <v>0.5</v>
       </c>
@@ -29947,8 +30134,31 @@
         <f t="shared" si="5"/>
         <v>-3.0923163200000017E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AE9">
+        <v>0.5</v>
+      </c>
+      <c r="AF9">
+        <v>3.1230516060000001E-3</v>
+      </c>
+      <c r="AG9">
+        <v>2.9623216170000001E-3</v>
+      </c>
+      <c r="AH9">
+        <v>5.6967723396550003</v>
+      </c>
+      <c r="AI9">
+        <v>3.3032276603450001</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="6"/>
+        <v>0.86711233965500023</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="7"/>
+        <v>-4.5090161700000022E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
       <c r="B10" s="3">
         <v>0.6</v>
       </c>
@@ -30027,8 +30237,31 @@
         <f t="shared" si="5"/>
         <v>-2.6513611999999997E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AE10">
+        <v>0.6</v>
+      </c>
+      <c r="AF10">
+        <v>2.642582128E-3</v>
+      </c>
+      <c r="AG10">
+        <v>3.226579829E-3</v>
+      </c>
+      <c r="AH10">
+        <v>6.2049612104780003</v>
+      </c>
+      <c r="AI10">
+        <v>2.7950387895220001</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="6"/>
+        <v>0.78063121047799999</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="7"/>
+        <v>-4.0592982899999991E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
       <c r="B11" s="3">
         <v>0.7</v>
       </c>
@@ -30107,8 +30340,31 @@
         <f t="shared" si="5"/>
         <v>-2.2732365499999975E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AE11">
+        <v>0.7</v>
+      </c>
+      <c r="AF11">
+        <v>2.2360310320000002E-3</v>
+      </c>
+      <c r="AG11">
+        <v>3.4501829330000002E-3</v>
+      </c>
+      <c r="AH11">
+        <v>6.6349671780969999</v>
+      </c>
+      <c r="AI11">
+        <v>2.3650328219030001</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="6"/>
+        <v>0.70076717809699973</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="7"/>
+        <v>-3.6439293300000002E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38">
       <c r="B12" s="3">
         <v>0.8</v>
       </c>
@@ -30187,8 +30443,31 @@
         <f t="shared" si="5"/>
         <v>-1.949153339999999E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AE12">
+        <v>0.8</v>
+      </c>
+      <c r="AF12">
+        <v>1.892026258E-3</v>
+      </c>
+      <c r="AG12">
+        <v>3.6393855580000001E-3</v>
+      </c>
+      <c r="AH12">
+        <v>6.9988183814660001</v>
+      </c>
+      <c r="AI12">
+        <v>2.0011816185339999</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="6"/>
+        <v>0.6274483814659999</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="7"/>
+        <v>-3.2627555799999994E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
       <c r="B13" s="3">
         <v>0.9</v>
       </c>
@@ -30267,8 +30546,31 @@
         <f t="shared" si="5"/>
         <v>-1.6711350700000013E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AE13">
+        <v>0.9</v>
+      </c>
+      <c r="AF13">
+        <v>1.600945295E-3</v>
+      </c>
+      <c r="AG13">
+        <v>3.7994800880000001E-3</v>
+      </c>
+      <c r="AH13">
+        <v>7.3066924766249999</v>
+      </c>
+      <c r="AI13">
+        <v>1.6933075233749999</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="6"/>
+        <v>0.56049247662500012</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="7"/>
+        <v>-2.9145008800000004E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
       <c r="B14" s="3">
         <v>1</v>
       </c>
@@ -30347,8 +30649,31 @@
         <f t="shared" si="5"/>
         <v>-1.4329140099999995E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>1.3546460190000001E-3</v>
+      </c>
+      <c r="AG14">
+        <v>3.93494469E-3</v>
+      </c>
+      <c r="AH14">
+        <v>7.5672013263749998</v>
+      </c>
+      <c r="AI14">
+        <v>1.432798673625</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="6"/>
+        <v>0.49962132637500001</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="7"/>
+        <v>-2.5980469000000004E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
       <c r="B15" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -30427,8 +30752,31 @@
         <f t="shared" si="5"/>
         <v>-1.2285710400000054E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AE15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AF15">
+        <v>1.1462389390000001E-3</v>
+      </c>
+      <c r="AG15">
+        <v>4.0495685840000002E-3</v>
+      </c>
+      <c r="AH15">
+        <v>7.7876318915480001</v>
+      </c>
+      <c r="AI15">
+        <v>1.2123681084519999</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="6"/>
+        <v>0.44449189154800006</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="7"/>
+        <v>-2.3113858400000036E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38">
       <c r="B16" s="3">
         <v>1.2</v>
       </c>
@@ -30507,8 +30855,31 @@
         <f t="shared" si="5"/>
         <v>-1.0533414999999973E-4</v>
       </c>
-    </row>
-    <row r="17" spans="2:29">
+      <c r="AE16">
+        <v>1.2</v>
+      </c>
+      <c r="AF16">
+        <v>9.6989448700000001E-4</v>
+      </c>
+      <c r="AG16">
+        <v>4.1465580319999997E-3</v>
+      </c>
+      <c r="AH16">
+        <v>7.9741500620789996</v>
+      </c>
+      <c r="AI16">
+        <v>1.025849937921</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="6"/>
+        <v>0.3947500620790001</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="7"/>
+        <v>-2.0526803199999964E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38">
       <c r="B17" s="3">
         <v>1.3</v>
       </c>
@@ -30587,8 +30958,31 @@
         <f t="shared" si="5"/>
         <v>-9.0320621000000191E-5</v>
       </c>
-    </row>
-    <row r="18" spans="2:29">
+      <c r="AE17">
+        <v>1.3</v>
+      </c>
+      <c r="AF17">
+        <v>8.2067995000000005E-4</v>
+      </c>
+      <c r="AG17">
+        <v>4.2286260270000004E-3</v>
+      </c>
+      <c r="AH17">
+        <v>8.1319731294519997</v>
+      </c>
+      <c r="AI17">
+        <v>0.86802687054799998</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="6"/>
+        <v>0.35000312945199996</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="7"/>
+        <v>-1.8200602700000051E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38">
       <c r="B18" s="3">
         <v>1.4</v>
       </c>
@@ -30667,8 +31061,31 @@
         <f t="shared" si="5"/>
         <v>-7.7438379999999335E-5</v>
       </c>
-    </row>
-    <row r="19" spans="2:29">
+      <c r="AE18">
+        <v>1.4</v>
+      </c>
+      <c r="AF18">
+        <v>6.9442149600000005E-4</v>
+      </c>
+      <c r="AG18">
+        <v>4.2980681770000001E-3</v>
+      </c>
+      <c r="AH18">
+        <v>8.2655157249210003</v>
+      </c>
+      <c r="AI18">
+        <v>0.73448427507900005</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="6"/>
+        <v>0.309855724921</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="7"/>
+        <v>-1.6112817699999969E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38">
       <c r="B19" s="3">
         <v>1.5</v>
       </c>
@@ -30747,8 +31164,31 @@
         <f t="shared" si="5"/>
         <v>-6.6393871999999646E-5</v>
       </c>
-    </row>
-    <row r="20" spans="2:29">
+      <c r="AE19">
+        <v>1.5</v>
+      </c>
+      <c r="AF19">
+        <v>5.8758742000000004E-4</v>
+      </c>
+      <c r="AG19">
+        <v>4.3568269189999996E-3</v>
+      </c>
+      <c r="AH19">
+        <v>8.3785133057020005</v>
+      </c>
+      <c r="AI19">
+        <v>0.62148669429799996</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="6"/>
+        <v>0.27393930570200009</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="7"/>
+        <v>-1.4244691899999943E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:38">
       <c r="B20" s="3">
         <v>1.6</v>
       </c>
@@ -30827,8 +31267,31 @@
         <f t="shared" si="5"/>
         <v>-5.6931674000000425E-5</v>
       </c>
-    </row>
-    <row r="21" spans="2:29">
+      <c r="AE20">
+        <v>1.6</v>
+      </c>
+      <c r="AF20">
+        <v>4.9718935499999998E-4</v>
+      </c>
+      <c r="AG20">
+        <v>4.406545855E-3</v>
+      </c>
+      <c r="AH20">
+        <v>8.4741266432860005</v>
+      </c>
+      <c r="AI20">
+        <v>0.52587335671400004</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="6"/>
+        <v>0.24186964328599991</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="7"/>
+        <v>-1.2577585500000033E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38">
       <c r="B21" s="3">
         <v>1.7</v>
       </c>
@@ -30907,8 +31370,31 @@
         <f t="shared" si="5"/>
         <v>-4.8811834000000304E-5</v>
       </c>
-    </row>
-    <row r="22" spans="2:29">
+      <c r="AE21">
+        <v>1.7</v>
+      </c>
+      <c r="AF21">
+        <v>4.2069868499999998E-4</v>
+      </c>
+      <c r="AG21">
+        <v>4.4486157229999997E-3</v>
+      </c>
+      <c r="AH21">
+        <v>8.5550302366269992</v>
+      </c>
+      <c r="AI21">
+        <v>0.44496976337299998</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="6"/>
+        <v>0.21329623662700004</v>
+      </c>
+      <c r="AL21">
+        <f t="shared" si="7"/>
+        <v>-1.1091572299999977E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38">
       <c r="B22" s="3">
         <v>1.8</v>
       </c>
@@ -30987,8 +31473,31 @@
         <f t="shared" si="5"/>
         <v>-4.1851890000000648E-5</v>
       </c>
-    </row>
-    <row r="23" spans="2:29">
+      <c r="AE22">
+        <v>1.8</v>
+      </c>
+      <c r="AF22">
+        <v>3.5597581099999998E-4</v>
+      </c>
+      <c r="AG22">
+        <v>4.4842133039999996E-3</v>
+      </c>
+      <c r="AH22">
+        <v>8.6234871233000003</v>
+      </c>
+      <c r="AI22">
+        <v>0.3765128767</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="6"/>
+        <v>0.18788712330000001</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="7"/>
+        <v>-9.7703303999999852E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:38">
       <c r="B23" s="3">
         <v>1.9</v>
       </c>
@@ -31067,8 +31576,31 @@
         <f t="shared" si="5"/>
         <v>-3.5884321999999497E-5</v>
       </c>
-    </row>
-    <row r="24" spans="2:29">
+      <c r="AE23">
+        <v>1.9</v>
+      </c>
+      <c r="AF23">
+        <v>3.0121030099999999E-4</v>
+      </c>
+      <c r="AG23">
+        <v>4.5143343339999996E-3</v>
+      </c>
+      <c r="AH23">
+        <v>8.6814121812540002</v>
+      </c>
+      <c r="AI23">
+        <v>0.31858781874600001</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="6"/>
+        <v>0.16533118125399998</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="7"/>
+        <v>-8.5974333999999479E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:38">
       <c r="B24" s="3">
         <v>2</v>
       </c>
@@ -31147,8 +31679,31 @@
         <f t="shared" si="5"/>
         <v>-3.0770084999999503E-5</v>
       </c>
-    </row>
-    <row r="25" spans="2:29">
+      <c r="AE24">
+        <v>2</v>
+      </c>
+      <c r="AF24">
+        <v>2.5487025499999999E-4</v>
+      </c>
+      <c r="AG24">
+        <v>4.5398213599999997E-3</v>
+      </c>
+      <c r="AH24">
+        <v>8.7304256918299998</v>
+      </c>
+      <c r="AI24">
+        <v>0.26957430817</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="6"/>
+        <v>0.14534069182999998</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="7"/>
+        <v>-7.5581359999999341E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:38">
       <c r="B25" s="3">
         <v>2.1</v>
       </c>
@@ -31227,8 +31782,31 @@
         <f t="shared" si="5"/>
         <v>-2.6378793000000379E-5</v>
       </c>
-    </row>
-    <row r="26" spans="2:29">
+      <c r="AE25">
+        <v>2.1</v>
+      </c>
+      <c r="AF25">
+        <v>2.1565944699999999E-4</v>
+      </c>
+      <c r="AG25">
+        <v>4.5613873039999997E-3</v>
+      </c>
+      <c r="AH25">
+        <v>8.7718986623179998</v>
+      </c>
+      <c r="AI25">
+        <v>0.228101337682</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="6"/>
+        <v>0.12764866231800001</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="7"/>
+        <v>-6.6377303999999929E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:38">
       <c r="B26" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -31307,8 +31885,31 @@
         <f t="shared" si="5"/>
         <v>-2.2616017999999537E-5</v>
       </c>
-    </row>
-    <row r="27" spans="2:29">
+      <c r="AE26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF26">
+        <v>1.8248107000000001E-4</v>
+      </c>
+      <c r="AG26">
+        <v>4.579635411E-3</v>
+      </c>
+      <c r="AH26">
+        <v>8.8069911758069992</v>
+      </c>
+      <c r="AI26">
+        <v>0.193008824193</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="6"/>
+        <v>0.11201317580700001</v>
+      </c>
+      <c r="AL26">
+        <f t="shared" si="7"/>
+        <v>-5.824541099999983E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:38">
       <c r="B27" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -31387,8 +31988,31 @@
         <f t="shared" si="5"/>
         <v>-1.9388131999999864E-5</v>
       </c>
-    </row>
-    <row r="28" spans="2:29">
+      <c r="AE27">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AF27">
+        <v>1.54407059E-4</v>
+      </c>
+      <c r="AG27">
+        <v>4.595076117E-3</v>
+      </c>
+      <c r="AH27">
+        <v>8.8366848410679992</v>
+      </c>
+      <c r="AI27">
+        <v>0.16331515893199999</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="6"/>
+        <v>9.8211841068000016E-2</v>
+      </c>
+      <c r="AL27">
+        <f t="shared" si="7"/>
+        <v>-5.1066116999999751E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:38">
       <c r="B28" s="3">
         <v>2.4</v>
       </c>
@@ -31467,8 +32091,31 @@
         <f t="shared" si="5"/>
         <v>-1.6625020000000067E-5</v>
       </c>
-    </row>
-    <row r="29" spans="2:29">
+      <c r="AE28">
+        <v>2.4</v>
+      </c>
+      <c r="AF28">
+        <v>1.3065212699999999E-4</v>
+      </c>
+      <c r="AG28">
+        <v>4.60814133E-3</v>
+      </c>
+      <c r="AH28">
+        <v>8.8618102501340008</v>
+      </c>
+      <c r="AI28">
+        <v>0.13818974986599999</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="6"/>
+        <v>8.6044250133999994E-2</v>
+      </c>
+      <c r="AL28">
+        <f t="shared" si="7"/>
+        <v>-4.4741330000000468E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:38">
       <c r="B29" s="3">
         <v>2.5</v>
       </c>
@@ -31547,8 +32194,31 @@
         <f t="shared" si="5"/>
         <v>-1.4250989999999887E-5</v>
       </c>
-    </row>
-    <row r="30" spans="2:29">
+      <c r="AE29">
+        <v>2.5</v>
+      </c>
+      <c r="AF29">
+        <v>1.1055179999999999E-4</v>
+      </c>
+      <c r="AG29">
+        <v>4.6191965099999996E-3</v>
+      </c>
+      <c r="AH29">
+        <v>8.8830702116520008</v>
+      </c>
+      <c r="AI29">
+        <v>0.116929788348</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="6"/>
+        <v>7.533021165199999E-2</v>
+      </c>
+      <c r="AL29">
+        <f t="shared" si="7"/>
+        <v>-3.9166509999999898E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:38">
       <c r="B30" s="3">
         <v>2.6</v>
       </c>
@@ -31627,8 +32297,31 @@
         <f t="shared" si="5"/>
         <v>-1.222412499999985E-5</v>
       </c>
-    </row>
-    <row r="31" spans="2:29">
+      <c r="AE30">
+        <v>2.6</v>
+      </c>
+      <c r="AF30">
+        <v>9.3543830999999995E-5</v>
+      </c>
+      <c r="AG30">
+        <v>4.6285508929999998E-3</v>
+      </c>
+      <c r="AH30">
+        <v>8.9010594098590001</v>
+      </c>
+      <c r="AI30">
+        <v>9.8940590140999998E-2</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="6"/>
+        <v>6.5903409858999992E-2</v>
+      </c>
+      <c r="AL30">
+        <f t="shared" si="7"/>
+        <v>-3.4270892999999775E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:38">
       <c r="B31" s="3">
         <v>2.7</v>
       </c>
@@ -31707,8 +32400,31 @@
         <f t="shared" si="5"/>
         <v>-1.0484296999999955E-5</v>
       </c>
-    </row>
-    <row r="32" spans="2:29">
+      <c r="AE31">
+        <v>2.7</v>
+      </c>
+      <c r="AF31">
+        <v>7.9152472000000002E-5</v>
+      </c>
+      <c r="AG31">
+        <v>4.63646614E-3</v>
+      </c>
+      <c r="AH31">
+        <v>8.9162810391120004</v>
+      </c>
+      <c r="AI31">
+        <v>8.3718960888000002E-2</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="6"/>
+        <v>5.761903911199999E-2</v>
+      </c>
+      <c r="AL31">
+        <f t="shared" si="7"/>
+        <v>-2.9966139999999634E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:38">
       <c r="B32" s="3">
         <v>2.8</v>
       </c>
@@ -31787,8 +32503,31 @@
         <f t="shared" si="5"/>
         <v>-8.9900450000006404E-6</v>
       </c>
-    </row>
-    <row r="33" spans="2:29">
+      <c r="AE32">
+        <v>2.8</v>
+      </c>
+      <c r="AF32">
+        <v>6.6975169000000004E-5</v>
+      </c>
+      <c r="AG32">
+        <v>4.643163657E-3</v>
+      </c>
+      <c r="AH32">
+        <v>8.9291608792480002</v>
+      </c>
+      <c r="AI32">
+        <v>7.0839120751999995E-2</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="6"/>
+        <v>5.0344879248000005E-2</v>
+      </c>
+      <c r="AL32">
+        <f t="shared" si="7"/>
+        <v>-2.6183657000000346E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:38">
       <c r="B33" s="3">
         <v>2.9</v>
       </c>
@@ -31867,8 +32606,31 @@
         <f t="shared" si="5"/>
         <v>-7.704467000000173E-6</v>
       </c>
-    </row>
-    <row r="34" spans="2:29">
+      <c r="AE33">
+        <v>2.9</v>
+      </c>
+      <c r="AF33">
+        <v>5.6671296999999999E-5</v>
+      </c>
+      <c r="AG33">
+        <v>4.6488307870000004E-3</v>
+      </c>
+      <c r="AH33">
+        <v>8.9400592055180006</v>
+      </c>
+      <c r="AI33">
+        <v>5.9940794482000001E-2</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="6"/>
+        <v>4.3963205517999995E-2</v>
+      </c>
+      <c r="AL33">
+        <f t="shared" si="7"/>
+        <v>-2.2860787000000306E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:38">
       <c r="B34" s="3">
         <v>3</v>
       </c>
@@ -31947,8 +32709,31 @@
         <f t="shared" si="5"/>
         <v>-6.6102739999995483E-6</v>
       </c>
-    </row>
-    <row r="35" spans="2:29">
+      <c r="AE34">
+        <v>3</v>
+      </c>
+      <c r="AF34">
+        <v>4.7952635999999997E-5</v>
+      </c>
+      <c r="AG34">
+        <v>4.6536260499999999E-3</v>
+      </c>
+      <c r="AH34">
+        <v>8.9492808662069994</v>
+      </c>
+      <c r="AI34">
+        <v>5.0719133792999999E-2</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="6"/>
+        <v>3.8368466207000004E-2</v>
+      </c>
+      <c r="AL34">
+        <f t="shared" si="7"/>
+        <v>-1.9956049999999594E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:38">
       <c r="B35" s="3">
         <v>3.1</v>
       </c>
@@ -32027,8 +32812,31 @@
         <f t="shared" si="5"/>
         <v>-5.6641240000002147E-6</v>
       </c>
-    </row>
-    <row r="36" spans="2:29">
+      <c r="AE35">
+        <v>3.1</v>
+      </c>
+      <c r="AF35">
+        <v>4.0575306999999997E-5</v>
+      </c>
+      <c r="AG35">
+        <v>4.657683581E-3</v>
+      </c>
+      <c r="AH35">
+        <v>8.9570838098679992</v>
+      </c>
+      <c r="AI35">
+        <v>4.2916190132000001E-2</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="6"/>
+        <v>3.3467909867999995E-2</v>
+      </c>
+      <c r="AL35">
+        <f t="shared" si="7"/>
+        <v>-1.7403580999999883E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:38">
       <c r="B36" s="3">
         <v>3.2</v>
       </c>
@@ -32092,11 +32900,11 @@
         <v>5.6153203302999999E-2</v>
       </c>
       <c r="Z36" s="4">
-        <f t="shared" ref="Z36:Z54" si="6">F36-W36</f>
+        <f t="shared" ref="Z36:Z54" si="8">F36-W36</f>
         <v>-9.3367966970010485E-3</v>
       </c>
       <c r="AA36" s="5">
-        <f t="shared" ref="AA36:AA54" si="7">E36-X36</f>
+        <f t="shared" ref="AA36:AA54" si="9">E36-X36</f>
         <v>9.3388966969999987E-3</v>
       </c>
       <c r="AB36">
@@ -32107,8 +32915,31 @@
         <f t="shared" si="5"/>
         <v>-4.8603339999992931E-6</v>
       </c>
-    </row>
-    <row r="37" spans="2:29">
+      <c r="AE36">
+        <v>3.2</v>
+      </c>
+      <c r="AF36">
+        <v>3.4332952E-5</v>
+      </c>
+      <c r="AG36">
+        <v>4.6611168759999998E-3</v>
+      </c>
+      <c r="AH36">
+        <v>8.9636863006570007</v>
+      </c>
+      <c r="AI36">
+        <v>3.6313699343000001E-2</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="6"/>
+        <v>2.9178400656999996E-2</v>
+      </c>
+      <c r="AL36">
+        <f t="shared" si="7"/>
+        <v>-1.5176875999999527E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:38">
       <c r="B37" s="3">
         <v>3.3</v>
       </c>
@@ -32172,11 +33003,11 @@
         <v>4.8146015903000002E-2</v>
       </c>
       <c r="Z37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-8.0039840969998721E-3</v>
       </c>
       <c r="AA37" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.0071840969999988E-3</v>
       </c>
       <c r="AB37">
@@ -32187,8 +33018,31 @@
         <f t="shared" si="5"/>
         <v>-4.1640719999997897E-6</v>
       </c>
-    </row>
-    <row r="38" spans="2:29">
+      <c r="AE37">
+        <v>3.3</v>
+      </c>
+      <c r="AF37">
+        <v>2.9050959000000001E-5</v>
+      </c>
+      <c r="AG37">
+        <v>4.6640219720000004E-3</v>
+      </c>
+      <c r="AH37">
+        <v>8.9692730236330007</v>
+      </c>
+      <c r="AI37">
+        <v>3.0726976366999999E-2</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="6"/>
+        <v>2.5426223633000001E-2</v>
+      </c>
+      <c r="AL37">
+        <f t="shared" si="7"/>
+        <v>-1.3221972000000345E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:38">
       <c r="B38" s="3">
         <v>3.4</v>
       </c>
@@ -32252,11 +33106,11 @@
         <v>4.1280616439000002E-2</v>
       </c>
       <c r="Z38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-6.8693835609998644E-3</v>
       </c>
       <c r="AA38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.8653835609999991E-3</v>
       </c>
       <c r="AB38">
@@ -32267,8 +33121,31 @@
         <f t="shared" si="5"/>
         <v>-3.5740790000002298E-6</v>
       </c>
-    </row>
-    <row r="39" spans="2:29">
+      <c r="AE38">
+        <v>3.4</v>
+      </c>
+      <c r="AF38">
+        <v>2.4581581E-5</v>
+      </c>
+      <c r="AG38">
+        <v>4.6664801300000001E-3</v>
+      </c>
+      <c r="AH38">
+        <v>8.9740002507670003</v>
+      </c>
+      <c r="AI38">
+        <v>2.5999749233E-2</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="6"/>
+        <v>2.2146250767000001E-2</v>
+      </c>
+      <c r="AL38">
+        <f t="shared" si="7"/>
+        <v>-1.1520130000000454E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:38">
       <c r="B39" s="3">
         <v>3.5</v>
       </c>
@@ -32332,11 +33209,11 @@
         <v>3.5394191223999998E-2</v>
       </c>
       <c r="Z39" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-5.8858087760000899E-3</v>
       </c>
       <c r="AA39" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.8864087760000031E-3</v>
       </c>
       <c r="AB39">
@@ -32347,8 +33224,31 @@
         <f t="shared" si="5"/>
         <v>-3.0650209999994946E-6</v>
       </c>
-    </row>
-    <row r="40" spans="2:29">
+      <c r="AE39">
+        <v>3.5</v>
+      </c>
+      <c r="AF39">
+        <v>2.0799799000000001E-5</v>
+      </c>
+      <c r="AG39">
+        <v>4.66856011E-3</v>
+      </c>
+      <c r="AH39">
+        <v>8.9780002121870002</v>
+      </c>
+      <c r="AI39">
+        <v>2.1999787813E-2</v>
+      </c>
+      <c r="AK39">
+        <f t="shared" si="6"/>
+        <v>1.9280812187E-2</v>
+      </c>
+      <c r="AL39">
+        <f t="shared" si="7"/>
+        <v>-1.0030109999999842E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:38">
       <c r="B40" s="3">
         <v>3.6</v>
       </c>
@@ -32412,11 +33312,11 @@
         <v>3.0347143053999999E-2</v>
       </c>
       <c r="Z40" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-5.0428569459999295E-3</v>
       </c>
       <c r="AA40" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.0470569460000017E-3</v>
       </c>
       <c r="AB40">
@@ -32427,8 +33327,31 @@
         <f t="shared" si="5"/>
         <v>-2.6294859999994452E-6</v>
       </c>
-    </row>
-    <row r="41" spans="2:29">
+      <c r="AE40">
+        <v>3.6</v>
+      </c>
+      <c r="AF40">
+        <v>1.7599829999999999E-5</v>
+      </c>
+      <c r="AG40">
+        <v>4.6703200929999996E-3</v>
+      </c>
+      <c r="AH40">
+        <v>8.9813847949279992</v>
+      </c>
+      <c r="AI40">
+        <v>1.8615205071999999E-2</v>
+      </c>
+      <c r="AK40">
+        <f t="shared" si="6"/>
+        <v>1.6778994928000002E-2</v>
+      </c>
+      <c r="AL40">
+        <f t="shared" si="7"/>
+        <v>-8.7300929999993906E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:38">
       <c r="B41" s="3">
         <v>3.7</v>
       </c>
@@ -32492,11 +33415,11 @@
         <v>2.6019780639000002E-2</v>
       </c>
       <c r="Z41" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.3302193609999762E-3</v>
       </c>
       <c r="AA41" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.3273193609999969E-3</v>
       </c>
       <c r="AB41">
@@ -32507,8 +33430,31 @@
         <f t="shared" si="5"/>
         <v>-2.2497139999999236E-6</v>
       </c>
-    </row>
-    <row r="42" spans="2:29">
+      <c r="AE41">
+        <v>3.7</v>
+      </c>
+      <c r="AF41">
+        <v>1.4892163999999999E-5</v>
+      </c>
+      <c r="AG41">
+        <v>4.6718093100000004E-3</v>
+      </c>
+      <c r="AH41">
+        <v>8.9842486726310007</v>
+      </c>
+      <c r="AI41">
+        <v>1.5751327369E-2</v>
+      </c>
+      <c r="AK41">
+        <f t="shared" si="6"/>
+        <v>1.4595772630999999E-2</v>
+      </c>
+      <c r="AL41">
+        <f t="shared" si="7"/>
+        <v>-7.5893100000001823E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:38">
       <c r="B42" s="3">
         <v>3.8</v>
       </c>
@@ -32572,11 +33518,11 @@
         <v>2.2309480114E-2</v>
       </c>
       <c r="Z42" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3.710519886000796E-3</v>
       </c>
       <c r="AA42" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.7103198859999992E-3</v>
       </c>
       <c r="AB42">
@@ -32587,8 +33533,31 @@
         <f t="shared" si="5"/>
         <v>-1.9290700000000605E-6</v>
       </c>
-    </row>
-    <row r="43" spans="2:29">
+      <c r="AE42">
+        <v>3.8</v>
+      </c>
+      <c r="AF42">
+        <v>1.2601062E-5</v>
+      </c>
+      <c r="AG42">
+        <v>4.6730694160000003E-3</v>
+      </c>
+      <c r="AH42">
+        <v>8.9866719537650006</v>
+      </c>
+      <c r="AI42">
+        <v>1.3328046235E-2</v>
+      </c>
+      <c r="AK42">
+        <f t="shared" si="6"/>
+        <v>1.2691753764999999E-2</v>
+      </c>
+      <c r="AL42">
+        <f t="shared" si="7"/>
+        <v>-6.599416000000434E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:38">
       <c r="B43" s="3">
         <v>3.9</v>
       </c>
@@ -32652,11 +33621,11 @@
         <v>1.9128251305E-2</v>
       </c>
       <c r="Z43" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3.181748694998987E-3</v>
       </c>
       <c r="AA43" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.1812486949999996E-3</v>
       </c>
       <c r="AB43">
@@ -32667,8 +33636,31 @@
         <f t="shared" si="5"/>
         <v>-1.6533089999999639E-6</v>
       </c>
-    </row>
-    <row r="44" spans="2:29">
+      <c r="AE43">
+        <v>3.9</v>
+      </c>
+      <c r="AF43">
+        <v>1.0662436999999999E-5</v>
+      </c>
+      <c r="AG43">
+        <v>4.6741356600000002E-3</v>
+      </c>
+      <c r="AH43">
+        <v>8.9887224224160001</v>
+      </c>
+      <c r="AI43">
+        <v>1.1277577584E-2</v>
+      </c>
+      <c r="AK43">
+        <f t="shared" si="6"/>
+        <v>1.1031922416E-2</v>
+      </c>
+      <c r="AL43">
+        <f t="shared" si="7"/>
+        <v>-5.7356600000006003E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:38">
       <c r="B44" s="3">
         <v>4</v>
       </c>
@@ -32732,11 +33724,11 @@
         <v>1.6400651028999999E-2</v>
       </c>
       <c r="Z44" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2.7293489710000784E-3</v>
       </c>
       <c r="AA44" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.7276489710000018E-3</v>
       </c>
       <c r="AB44">
@@ -32747,8 +33739,31 @@
         <f t="shared" si="5"/>
         <v>-1.4216610000001087E-6</v>
       </c>
-    </row>
-    <row r="45" spans="2:29">
+      <c r="AE44">
+        <v>4</v>
+      </c>
+      <c r="AF44">
+        <v>9.0220620000000006E-6</v>
+      </c>
+      <c r="AG44">
+        <v>4.675037866E-3</v>
+      </c>
+      <c r="AH44">
+        <v>8.9904574343520007</v>
+      </c>
+      <c r="AI44">
+        <v>9.5425656480000003E-3</v>
+      </c>
+      <c r="AK44">
+        <f t="shared" si="6"/>
+        <v>9.5857343520000006E-3</v>
+      </c>
+      <c r="AL44">
+        <f t="shared" si="7"/>
+        <v>-4.9878659999997091E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:38">
       <c r="B45" s="3">
         <v>4.0999999999999996</v>
       </c>
@@ -32812,11 +33827,11 @@
         <v>1.4061993953E-2</v>
       </c>
       <c r="Z45" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2.3380060470010733E-3</v>
       </c>
       <c r="AA45" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.3387060470000005E-3</v>
       </c>
       <c r="AB45">
@@ -32827,8 +33842,31 @@
         <f t="shared" si="5"/>
         <v>-1.2177630000003922E-6</v>
       </c>
-    </row>
-    <row r="46" spans="2:29">
+      <c r="AE45">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AF45">
+        <v>7.6340530000000001E-6</v>
+      </c>
+      <c r="AG45">
+        <v>4.6758012709999996E-3</v>
+      </c>
+      <c r="AH45">
+        <v>8.9919255213750002</v>
+      </c>
+      <c r="AI45">
+        <v>8.0744786249999992E-3</v>
+      </c>
+      <c r="AK45">
+        <f t="shared" si="6"/>
+        <v>8.3262213750000015E-3</v>
+      </c>
+      <c r="AL45">
+        <f t="shared" si="7"/>
+        <v>-4.3312709999999977E-6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:38">
       <c r="B46" s="3">
         <v>4.2</v>
       </c>
@@ -32892,11 +33930,11 @@
         <v>1.2056818572E-2</v>
       </c>
       <c r="Z46" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2.0031814279999338E-3</v>
       </c>
       <c r="AA46" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.005181428E-3</v>
       </c>
       <c r="AB46">
@@ -32907,8 +33945,31 @@
         <f t="shared" si="5"/>
         <v>-1.0404539999998158E-6</v>
       </c>
-    </row>
-    <row r="47" spans="2:29">
+      <c r="AE46">
+        <v>4.2</v>
+      </c>
+      <c r="AF46">
+        <v>6.4595830000000001E-6</v>
+      </c>
+      <c r="AG46">
+        <v>4.6764472289999998E-3</v>
+      </c>
+      <c r="AH46">
+        <v>8.9931677488559991</v>
+      </c>
+      <c r="AI46">
+        <v>6.8322511440000004E-3</v>
+      </c>
+      <c r="AK46">
+        <f t="shared" si="6"/>
+        <v>7.2297488559999994E-3</v>
+      </c>
+      <c r="AL46">
+        <f t="shared" si="7"/>
+        <v>-3.7572289999995845E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:38">
       <c r="B47" s="3">
         <v>4.3</v>
       </c>
@@ -32972,11 +34033,11 @@
         <v>1.0337571939E-2</v>
       </c>
       <c r="Z47" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1.7224280609990927E-3</v>
       </c>
       <c r="AA47" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7192280609999999E-3</v>
       </c>
       <c r="AB47">
@@ -32987,8 +34048,31 @@
         <f t="shared" si="5"/>
         <v>-8.9446299999986628E-7</v>
       </c>
-    </row>
-    <row r="48" spans="2:29">
+      <c r="AE47">
+        <v>4.3</v>
+      </c>
+      <c r="AF47">
+        <v>5.4658009999999996E-6</v>
+      </c>
+      <c r="AG47">
+        <v>4.6769938089999998E-3</v>
+      </c>
+      <c r="AH47">
+        <v>8.9942188644160002</v>
+      </c>
+      <c r="AI47">
+        <v>5.781135584E-3</v>
+      </c>
+      <c r="AK47">
+        <f t="shared" si="6"/>
+        <v>6.2756644159999994E-3</v>
+      </c>
+      <c r="AL47">
+        <f t="shared" si="7"/>
+        <v>-3.2638089999996803E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:38">
       <c r="B48" s="3">
         <v>4.4000000000000004</v>
       </c>
@@ -33052,11 +34136,11 @@
         <v>8.8634819329999996E-3</v>
       </c>
       <c r="Z48" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1.4765180669993327E-3</v>
       </c>
       <c r="AA48" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.474118067000001E-3</v>
       </c>
       <c r="AB48">
@@ -33067,8 +34151,31 @@
         <f t="shared" si="5"/>
         <v>-7.7098899999971521E-7</v>
       </c>
-    </row>
-    <row r="49" spans="2:29">
+      <c r="AE48">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AF48">
+        <v>4.6249079999999998E-6</v>
+      </c>
+      <c r="AG48">
+        <v>4.6774562999999996E-3</v>
+      </c>
+      <c r="AH48">
+        <v>8.9951082698910003</v>
+      </c>
+      <c r="AI48">
+        <v>4.8917301090000004E-3</v>
+      </c>
+      <c r="AK48">
+        <f t="shared" si="6"/>
+        <v>5.4458698910000002E-3</v>
+      </c>
+      <c r="AL48">
+        <f t="shared" si="7"/>
+        <v>-2.836299999999653E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:38">
       <c r="B49" s="3">
         <v>4.5</v>
       </c>
@@ -33132,11 +34239,11 @@
         <v>7.5995903529999997E-3</v>
       </c>
       <c r="Z49" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1.2604096470010262E-3</v>
       </c>
       <c r="AA49" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2638896470000003E-3</v>
       </c>
       <c r="AB49">
@@ -33147,8 +34254,31 @@
         <f t="shared" si="5"/>
         <v>-6.5821300000018512E-7</v>
       </c>
-    </row>
-    <row r="50" spans="2:29">
+      <c r="AE49">
+        <v>4.5</v>
+      </c>
+      <c r="AF49">
+        <v>3.9133840000000001E-6</v>
+      </c>
+      <c r="AG49">
+        <v>4.6778476390000002E-3</v>
+      </c>
+      <c r="AH49">
+        <v>8.9958608437540004</v>
+      </c>
+      <c r="AI49">
+        <v>4.1391562459999996E-3</v>
+      </c>
+      <c r="AK49">
+        <f t="shared" si="6"/>
+        <v>4.7243237540000003E-3</v>
+      </c>
+      <c r="AL49">
+        <f t="shared" si="7"/>
+        <v>-2.4576390000004625E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:38">
       <c r="B50" s="3">
         <v>4.5999999999999996</v>
       </c>
@@ -33212,11 +34342,11 @@
         <v>6.5159238739999998E-3</v>
       </c>
       <c r="Z50" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1.0840761260002552E-3</v>
       </c>
       <c r="AA50" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.083666126E-3</v>
       </c>
       <c r="AB50">
@@ -33227,8 +34357,31 @@
         <f t="shared" si="5"/>
         <v>-5.6172000000020983E-7</v>
       </c>
-    </row>
-    <row r="51" spans="2:29">
+      <c r="AE50">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AF50">
+        <v>3.311325E-6</v>
+      </c>
+      <c r="AG50">
+        <v>4.6781787709999998E-3</v>
+      </c>
+      <c r="AH50">
+        <v>8.9964976370219993</v>
+      </c>
+      <c r="AI50">
+        <v>3.5023629780000002E-3</v>
+      </c>
+      <c r="AK50">
+        <f t="shared" si="6"/>
+        <v>4.0972270219999992E-3</v>
+      </c>
+      <c r="AL50">
+        <f t="shared" si="7"/>
+        <v>-2.1287709999996338E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:38">
       <c r="B51" s="3">
         <v>4.7</v>
       </c>
@@ -33292,11 +34445,11 @@
         <v>5.5867832290000001E-3</v>
       </c>
       <c r="Z51" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-9.332167709992234E-4</v>
       </c>
       <c r="AA51" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.2913677099999963E-4</v>
       </c>
       <c r="AB51">
@@ -33307,8 +34460,31 @@
         <f t="shared" si="5"/>
         <v>-4.8487299999979555E-7</v>
       </c>
-    </row>
-    <row r="52" spans="2:29">
+      <c r="AE51">
+        <v>4.7</v>
+      </c>
+      <c r="AF51">
+        <v>2.80189E-6</v>
+      </c>
+      <c r="AG51">
+        <v>4.6784589600000004E-3</v>
+      </c>
+      <c r="AH51">
+        <v>8.9970364620960002</v>
+      </c>
+      <c r="AI51">
+        <v>2.9635379039999999E-3</v>
+      </c>
+      <c r="AK51">
+        <f t="shared" si="6"/>
+        <v>3.5523820959999998E-3</v>
+      </c>
+      <c r="AL51">
+        <f t="shared" si="7"/>
+        <v>-1.8489600000001077E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:38">
       <c r="B52" s="3">
         <v>4.8</v>
       </c>
@@ -33372,11 +34548,11 @@
         <v>4.7901337479999999E-3</v>
       </c>
       <c r="Z52" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-7.9986625200056949E-4</v>
       </c>
       <c r="AA52" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.9664625200000054E-4</v>
       </c>
       <c r="AB52">
@@ -33387,8 +34563,31 @@
         <f t="shared" si="5"/>
         <v>-4.1913000000011469E-7</v>
       </c>
-    </row>
-    <row r="53" spans="2:29">
+      <c r="AE52">
+        <v>4.8</v>
+      </c>
+      <c r="AF52">
+        <v>2.3708299999999998E-6</v>
+      </c>
+      <c r="AG52">
+        <v>4.6786960429999998E-3</v>
+      </c>
+      <c r="AH52">
+        <v>8.9974923910040001</v>
+      </c>
+      <c r="AI52">
+        <v>2.5076089960000001E-3</v>
+      </c>
+      <c r="AK52">
+        <f t="shared" si="6"/>
+        <v>3.0791710040000003E-3</v>
+      </c>
+      <c r="AL52">
+        <f t="shared" si="7"/>
+        <v>-1.6060429999997447E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:38">
       <c r="B53" s="3">
         <v>4.9000000000000004</v>
       </c>
@@ -33452,11 +34651,11 @@
         <v>4.1070828029999996E-3</v>
       </c>
       <c r="Z53" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-6.8291719700042108E-4</v>
       </c>
       <c r="AA53" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.8304719700000051E-4</v>
       </c>
       <c r="AB53">
@@ -33467,8 +34666,31 @@
         <f t="shared" si="5"/>
         <v>-3.5431700000018718E-7</v>
       </c>
-    </row>
-    <row r="54" spans="2:29">
+      <c r="AE53">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AF53">
+        <v>2.006087E-6</v>
+      </c>
+      <c r="AG53">
+        <v>4.6788966520000001E-3</v>
+      </c>
+      <c r="AH53">
+        <v>8.9978781770040008</v>
+      </c>
+      <c r="AI53">
+        <v>2.1218229960000001E-3</v>
+      </c>
+      <c r="AK53">
+        <f t="shared" si="6"/>
+        <v>2.668307004E-3</v>
+      </c>
+      <c r="AL53">
+        <f t="shared" si="7"/>
+        <v>-1.3866519999999188E-6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:38">
       <c r="B54" s="3">
         <v>5</v>
       </c>
@@ -33532,11 +34754,11 @@
         <v>3.5214317670000002E-3</v>
       </c>
       <c r="Z54" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-5.8856823300068584E-4</v>
       </c>
       <c r="AA54" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.8564823299999975E-4</v>
       </c>
       <c r="AB54">
@@ -33546,6 +34768,29 @@
       <c r="AC54">
         <f t="shared" si="5"/>
         <v>-3.0885500000056576E-7</v>
+      </c>
+      <c r="AE54">
+        <v>5</v>
+      </c>
+      <c r="AF54">
+        <v>1.697458E-6</v>
+      </c>
+      <c r="AG54">
+        <v>4.6790663980000001E-3</v>
+      </c>
+      <c r="AH54">
+        <v>8.9982046113109995</v>
+      </c>
+      <c r="AI54">
+        <v>1.795388689E-3</v>
+      </c>
+      <c r="AK54">
+        <f t="shared" si="6"/>
+        <v>2.3116913109999999E-3</v>
+      </c>
+      <c r="AL54">
+        <f t="shared" si="7"/>
+        <v>-1.206398000000268E-6</v>
       </c>
     </row>
   </sheetData>
